--- a/excel table/threat_risk_tables_main1.xlsx
+++ b/excel table/threat_risk_tables_main1.xlsx
@@ -17,7 +17,6 @@
     <sheet name="Risk Tables" sheetId="5" r:id="rId3"/>
     <sheet name="Bug Table" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table of Threats'!$C$2:$I$61</definedName>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="250">
   <si>
     <t>Diagram Element</t>
   </si>
@@ -276,9 +275,6 @@
   </si>
   <si>
     <t>Repudiation</t>
-  </si>
-  <si>
-    <t>Tamper</t>
   </si>
   <si>
     <t>Mitigation</t>
@@ -1485,255 +1481,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59ABBCE9-7597-4FC5-8F02-EFDD99ADA581}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2438400" y="1143000"/>
-          <a:ext cx="11439525" cy="4791075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50CA512-129A-40E1-B657-0B8FA0E5679C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="609600" y="6477000"/>
-          <a:ext cx="8677275" cy="4791075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE1FC617-8599-41DD-B064-2977038EB832}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="609600" y="11620500"/>
-          <a:ext cx="8905875" cy="4791075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8891602A-29D7-4952-ABA4-BD29E13E76BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="609600" y="16764000"/>
-          <a:ext cx="8924925" cy="4791075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2083,10 +1830,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2098,10 +1845,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>109</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>110</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2113,10 +1860,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -2128,10 +1875,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -2143,10 +1890,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="49" t="s">
         <v>116</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>117</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -2370,11 +2117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2396,7 +2142,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="56" t="s">
         <v>0</v>
@@ -2408,10 +2154,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H2" s="56" t="s">
         <v>32</v>
@@ -2420,7 +2166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57"/>
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
@@ -2431,135 +2177,135 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="46" t="s">
+      <c r="G4" s="46" t="s">
         <v>223</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>224</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="88" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>228</v>
-      </c>
       <c r="G5" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="89" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="44" t="s">
+      <c r="F6" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>74</v>
-      </c>
       <c r="G6" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="90" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="89" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="44" t="s">
-        <v>77</v>
-      </c>
       <c r="G8" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="90" t="s">
@@ -2571,22 +2317,22 @@
         <v>10</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="45" t="s">
-        <v>80</v>
-      </c>
       <c r="F9" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="89" t="s">
@@ -2598,101 +2344,101 @@
         <v>11</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="44" t="s">
         <v>82</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>83</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="90" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="45" t="s">
+      <c r="F11" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="45" t="s">
-        <v>120</v>
-      </c>
       <c r="G11" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="89" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>122</v>
-      </c>
       <c r="G12" s="44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="90" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="45" t="s">
+      <c r="F13" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="45" t="s">
-        <v>125</v>
-      </c>
       <c r="G13" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="89" t="s">
@@ -2704,73 +2450,73 @@
         <v>15</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="44" t="s">
+      <c r="F14" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="44" t="s">
-        <v>128</v>
-      </c>
       <c r="G14" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="90" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="89" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="E16" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>132</v>
-      </c>
       <c r="F16" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="44"/>
       <c r="H16" s="34"/>
@@ -2778,294 +2524,294 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="45" t="s">
+      <c r="F17" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="45" t="s">
-        <v>135</v>
-      </c>
       <c r="G17" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="89" t="s">
         <v>18</v>
       </c>
       <c r="K17" s="45" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="44" t="s">
+      <c r="F18" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="44" t="s">
-        <v>138</v>
-      </c>
       <c r="G18" s="55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="90" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="45" t="s">
+      <c r="F19" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="45" t="s">
-        <v>141</v>
-      </c>
       <c r="G19" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="89" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>143</v>
-      </c>
       <c r="F20" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="90" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C21" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="E21" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="45" t="s">
-        <v>147</v>
-      </c>
       <c r="F21" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G21" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="89" t="s">
         <v>22</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C22" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="44" t="s">
+      <c r="F22" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="44" t="s">
-        <v>150</v>
-      </c>
       <c r="G22" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="90" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="44" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F23" s="45" t="s">
-        <v>152</v>
-      </c>
       <c r="G23" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="89" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="45" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C24" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="44" t="s">
+      <c r="F24" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="44" t="s">
-        <v>155</v>
-      </c>
       <c r="G24" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="90" t="s">
         <v>25</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="89" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="45" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C26" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>158</v>
-      </c>
       <c r="F26" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G26" s="44"/>
       <c r="H26" s="34"/>
@@ -3073,44 +2819,44 @@
         <v>27</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>169</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="45" t="s">
         <v>159</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>160</v>
       </c>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="29"/>
       <c r="I27" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="K27" s="45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K27" s="45" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="B28" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="44"/>
@@ -3118,393 +2864,393 @@
       <c r="G28" s="44"/>
       <c r="H28" s="34"/>
       <c r="I28" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="K28" s="44"/>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="K28" s="44"/>
-    </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="B29" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="45" t="s">
+      <c r="F29" s="45" t="s">
         <v>164</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>165</v>
       </c>
       <c r="G29" s="45"/>
       <c r="H29" s="29"/>
       <c r="I29" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" s="45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K29" s="45" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="B30" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="D30" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="44" t="s">
+      <c r="F30" s="44" t="s">
         <v>167</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>168</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="34"/>
       <c r="I30" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="K30" s="44" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="B31" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>69</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G31" s="45"/>
       <c r="H31" s="29"/>
       <c r="I31" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="K31" s="45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K31" s="45" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="B32" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D32" s="34" t="s">
         <v>69</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
       <c r="H32" s="34"/>
       <c r="I32" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K32" s="44"/>
+    </row>
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="K32" s="44"/>
-    </row>
-    <row r="33" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="B33" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>69</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F33" s="45"/>
       <c r="G33" s="45"/>
       <c r="H33" s="29"/>
       <c r="I33" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="K33" s="45"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K33" s="45"/>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="B34" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D34" s="34" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
       <c r="H34" s="34"/>
       <c r="I34" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="K34" s="44"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="K34" s="44"/>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="B35" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>69</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F35" s="45"/>
       <c r="G35" s="45"/>
       <c r="H35" s="29"/>
       <c r="I35" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="K35" s="45"/>
+    </row>
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K35" s="45"/>
-    </row>
-    <row r="36" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="B36" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D36" s="34" t="s">
         <v>69</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
       <c r="H36" s="34"/>
       <c r="I36" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="K36" s="44"/>
+    </row>
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="K36" s="44"/>
-    </row>
-    <row r="37" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="B37" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>69</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F37" s="45"/>
       <c r="G37" s="45"/>
       <c r="H37" s="29"/>
       <c r="I37" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="K37" s="45"/>
+    </row>
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K37" s="45"/>
-    </row>
-    <row r="38" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="B38" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D38" s="34" t="s">
         <v>69</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44"/>
       <c r="H38" s="34"/>
       <c r="I38" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="K38" s="44"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="K38" s="44"/>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="B39" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>69</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F39" s="45"/>
       <c r="G39" s="45"/>
       <c r="H39" s="29"/>
       <c r="I39" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="K39" s="45"/>
+    </row>
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K39" s="45"/>
-    </row>
-    <row r="40" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="B40" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D40" s="34" t="s">
         <v>69</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F40" s="44"/>
       <c r="G40" s="44"/>
       <c r="H40" s="34"/>
       <c r="I40" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="K40" s="44"/>
+    </row>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="K40" s="44"/>
-    </row>
-    <row r="41" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="B41" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D41" s="29" t="s">
         <v>69</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G41" s="45"/>
       <c r="H41" s="29"/>
       <c r="I41" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="K41" s="45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K41" s="45" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="B42" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D42" s="34" t="s">
         <v>69</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F42" s="44"/>
       <c r="G42" s="44"/>
       <c r="H42" s="34"/>
       <c r="I42" s="90" t="s">
+        <v>183</v>
+      </c>
+      <c r="K42" s="44" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="K42" s="44" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="B43" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="45">
         <v>1.7</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F43" s="45"/>
       <c r="G43" s="45"/>
       <c r="H43" s="29"/>
       <c r="I43" s="89" t="s">
+        <v>184</v>
+      </c>
+      <c r="K43" s="45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="K43" s="45" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="44"/>
@@ -3516,9 +3262,9 @@
       <c r="I44" s="35"/>
       <c r="K44" s="44"/>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="45"/>
@@ -3530,9 +3276,9 @@
       <c r="I45" s="30"/>
       <c r="K45" s="45"/>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="44"/>
@@ -3543,9 +3289,9 @@
       <c r="H46" s="34"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="45"/>
@@ -3556,9 +3302,9 @@
       <c r="H47" s="29"/>
       <c r="I47" s="30"/>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="44"/>
@@ -3569,9 +3315,9 @@
       <c r="H48" s="34"/>
       <c r="I48" s="35"/>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="45"/>
@@ -3582,9 +3328,9 @@
       <c r="H49" s="29"/>
       <c r="I49" s="30"/>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="44"/>
@@ -3595,9 +3341,9 @@
       <c r="H50" s="34"/>
       <c r="I50" s="35"/>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="45"/>
@@ -3608,9 +3354,9 @@
       <c r="H51" s="29"/>
       <c r="I51" s="30"/>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="44"/>
@@ -3621,9 +3367,9 @@
       <c r="H52" s="34"/>
       <c r="I52" s="35"/>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="45"/>
@@ -3634,9 +3380,9 @@
       <c r="H53" s="29"/>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="44"/>
@@ -3647,9 +3393,9 @@
       <c r="H54" s="34"/>
       <c r="I54" s="35"/>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="45"/>
@@ -3660,9 +3406,9 @@
       <c r="H55" s="29"/>
       <c r="I55" s="30"/>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="44"/>
@@ -3673,9 +3419,9 @@
       <c r="H56" s="34"/>
       <c r="I56" s="35"/>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="45"/>
@@ -3686,9 +3432,9 @@
       <c r="H57" s="29"/>
       <c r="I57" s="30"/>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="44"/>
@@ -3699,9 +3445,9 @@
       <c r="H58" s="34"/>
       <c r="I58" s="35"/>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="45"/>
@@ -3712,9 +3458,9 @@
       <c r="H59" s="29"/>
       <c r="I59" s="30"/>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="44"/>
@@ -3725,9 +3471,9 @@
       <c r="H60" s="34"/>
       <c r="I60" s="35"/>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="45"/>
@@ -3927,57 +3673,57 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C79" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D79" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79" t="s">
         <v>159</v>
       </c>
-      <c r="D79" t="s">
-        <v>78</v>
-      </c>
-      <c r="E79" t="s">
-        <v>160</v>
-      </c>
       <c r="F79" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" t="s">
         <v>85</v>
       </c>
-      <c r="D83" t="s">
-        <v>86</v>
-      </c>
       <c r="E83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" t="s">
         <v>87</v>
       </c>
-      <c r="D84" t="s">
-        <v>88</v>
-      </c>
       <c r="E84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.25">
@@ -3985,37 +3731,30 @@
         <v>69</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:I61">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Spoofing"/>
-        <filter val="Spoofing / Info Disclosure"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C2:I61"/>
   <mergeCells count="9">
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
@@ -4038,8 +3777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54:M54"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4058,7 +3797,7 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -4094,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E5" s="64" t="s">
         <v>45</v>
@@ -4243,7 +3982,7 @@
       </c>
       <c r="C9" s="78" t="str">
         <f>'Table of Threats'!D6</f>
-        <v>Tamper</v>
+        <v>Tampering</v>
       </c>
       <c r="D9" s="81" t="str">
         <f>'Table of Threats'!E6</f>
@@ -4733,209 +4472,95 @@
       <c r="B20" s="19"/>
       <c r="C20" s="77"/>
       <c r="D20" s="82"/>
-      <c r="E20" s="38">
-        <v>0</v>
-      </c>
-      <c r="F20" s="29">
-        <v>0</v>
-      </c>
-      <c r="G20" s="29">
-        <v>0</v>
-      </c>
-      <c r="H20" s="30">
-        <v>0</v>
-      </c>
-      <c r="I20" s="31">
-        <v>0</v>
-      </c>
-      <c r="J20" s="29">
-        <v>0</v>
-      </c>
-      <c r="K20" s="32">
-        <v>0</v>
-      </c>
-      <c r="L20" s="32">
-        <v>0</v>
-      </c>
-      <c r="M20" s="68">
-        <f t="shared" ref="M20:M23" si="1">AVERAGE(E20:L20)</f>
-        <v>0</v>
-      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="68"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="20"/>
       <c r="C21" s="78"/>
       <c r="D21" s="80"/>
-      <c r="E21" s="33">
-        <v>0</v>
-      </c>
-      <c r="F21" s="34">
-        <v>0</v>
-      </c>
-      <c r="G21" s="34">
-        <v>0</v>
-      </c>
-      <c r="H21" s="35">
-        <v>0</v>
-      </c>
-      <c r="I21" s="36">
-        <v>0</v>
-      </c>
-      <c r="J21" s="34">
-        <v>0</v>
-      </c>
-      <c r="K21" s="37">
-        <v>0</v>
-      </c>
-      <c r="L21" s="37">
-        <v>0</v>
-      </c>
-      <c r="M21" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="69"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="19"/>
       <c r="C22" s="77"/>
       <c r="D22" s="82"/>
-      <c r="E22" s="38">
-        <v>0</v>
-      </c>
-      <c r="F22" s="29">
-        <v>0</v>
-      </c>
-      <c r="G22" s="29">
-        <v>0</v>
-      </c>
-      <c r="H22" s="30">
-        <v>0</v>
-      </c>
-      <c r="I22" s="31">
-        <v>0</v>
-      </c>
-      <c r="J22" s="29">
-        <v>0</v>
-      </c>
-      <c r="K22" s="32">
-        <v>0</v>
-      </c>
-      <c r="L22" s="32">
-        <v>0</v>
-      </c>
-      <c r="M22" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="68"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="20"/>
       <c r="C23" s="78"/>
       <c r="D23" s="80"/>
-      <c r="E23" s="33">
-        <v>0</v>
-      </c>
-      <c r="F23" s="34">
-        <v>0</v>
-      </c>
-      <c r="G23" s="34">
-        <v>0</v>
-      </c>
-      <c r="H23" s="35">
-        <v>0</v>
-      </c>
-      <c r="I23" s="36">
-        <v>0</v>
-      </c>
-      <c r="J23" s="34">
-        <v>0</v>
-      </c>
-      <c r="K23" s="37">
-        <v>0</v>
-      </c>
-      <c r="L23" s="37">
-        <v>0</v>
-      </c>
-      <c r="M23" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="74"/>
       <c r="C24" s="77"/>
       <c r="D24" s="82"/>
-      <c r="E24" s="38">
-        <v>0</v>
-      </c>
-      <c r="F24" s="29">
-        <v>0</v>
-      </c>
-      <c r="G24" s="29">
-        <v>0</v>
-      </c>
-      <c r="H24" s="30">
-        <v>0</v>
-      </c>
-      <c r="I24" s="31">
-        <v>0</v>
-      </c>
-      <c r="J24" s="29">
-        <v>0</v>
-      </c>
-      <c r="K24" s="32">
-        <v>0</v>
-      </c>
-      <c r="L24" s="32">
-        <v>0</v>
-      </c>
-      <c r="M24" s="68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="68"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="76"/>
       <c r="C25" s="79"/>
       <c r="D25" s="83"/>
-      <c r="E25" s="39">
-        <v>0</v>
-      </c>
-      <c r="F25" s="40">
-        <v>0</v>
-      </c>
-      <c r="G25" s="40">
-        <v>0</v>
-      </c>
-      <c r="H25" s="41">
-        <v>0</v>
-      </c>
-      <c r="I25" s="42">
-        <v>0</v>
-      </c>
-      <c r="J25" s="40">
-        <v>0</v>
-      </c>
-      <c r="K25" s="43">
-        <v>0</v>
-      </c>
-      <c r="L25" s="43">
-        <v>0</v>
-      </c>
-      <c r="M25" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="70"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -4969,7 +4594,7 @@
       </c>
       <c r="C30" s="53"/>
       <c r="D30" s="56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E30" s="64" t="s">
         <v>48</v>
@@ -5104,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="68">
-        <f t="shared" ref="M33:M54" si="2">AVERAGE(E33:L33)*2</f>
+        <f t="shared" ref="M33:M54" si="1">AVERAGE(E33:L33)*2</f>
         <v>2.75</v>
       </c>
     </row>
@@ -5113,15 +4738,15 @@
         <v>7</v>
       </c>
       <c r="B34" s="75" t="str">
-        <f t="shared" ref="B34:D34" si="3">B9</f>
+        <f t="shared" ref="B34:D34" si="2">B9</f>
         <v>003</v>
       </c>
       <c r="C34" s="78" t="str">
-        <f t="shared" si="3"/>
-        <v>Tamper</v>
+        <f t="shared" si="2"/>
+        <v>Tampering</v>
       </c>
       <c r="D34" s="87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Malware infested Update</v>
       </c>
       <c r="E34" s="33">
@@ -5149,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -5158,15 +4783,15 @@
         <v>8</v>
       </c>
       <c r="B35" s="74" t="str">
-        <f t="shared" ref="B35:D35" si="4">B10</f>
+        <f t="shared" ref="B35:D35" si="3">B10</f>
         <v>004</v>
       </c>
       <c r="C35" s="77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>DOS</v>
       </c>
       <c r="D35" s="85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Theft or Loss of USB</v>
       </c>
       <c r="E35" s="38">
@@ -5194,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -5203,15 +4828,15 @@
         <v>9</v>
       </c>
       <c r="B36" s="75" t="str">
-        <f t="shared" ref="B36:D36" si="5">B11</f>
+        <f t="shared" ref="B36:D36" si="4">B11</f>
         <v>005</v>
       </c>
       <c r="C36" s="78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Information Disclosure</v>
       </c>
       <c r="D36" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>password guess attack</v>
       </c>
       <c r="E36" s="33">
@@ -5239,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -5248,15 +4873,15 @@
         <v>10</v>
       </c>
       <c r="B37" s="74" t="str">
-        <f t="shared" ref="B37:D37" si="6">B12</f>
+        <f t="shared" ref="B37:D37" si="5">B12</f>
         <v>010</v>
       </c>
       <c r="C37" s="77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Tampering</v>
       </c>
       <c r="D37" s="85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Spoof updated SW with older version which may have vulnerabilities, but is signed with an authentic key</v>
       </c>
       <c r="E37" s="38">
@@ -5284,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5293,15 +4918,15 @@
         <v>11</v>
       </c>
       <c r="B38" s="75" t="str">
-        <f t="shared" ref="B38:D38" si="7">B13</f>
+        <f t="shared" ref="B38:D38" si="6">B13</f>
         <v>012</v>
       </c>
       <c r="C38" s="78" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Information Disclosure</v>
       </c>
       <c r="D38" s="87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>App is used on a computer with a keystroke logger</v>
       </c>
       <c r="E38" s="33">
@@ -5329,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5338,15 +4963,15 @@
         <v>12</v>
       </c>
       <c r="B39" s="74" t="str">
-        <f t="shared" ref="B39:D39" si="8">B14</f>
+        <f t="shared" ref="B39:D39" si="7">B14</f>
         <v>014</v>
       </c>
       <c r="C39" s="77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Tampering</v>
       </c>
       <c r="D39" s="85" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Modify device to “zero” factory public key, enabling malicious SW update</v>
       </c>
       <c r="E39" s="38">
@@ -5374,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5383,15 +5008,15 @@
         <v>13</v>
       </c>
       <c r="B40" s="75" t="str">
-        <f t="shared" ref="B40:D40" si="9">B15</f>
+        <f t="shared" ref="B40:D40" si="8">B15</f>
         <v>017</v>
       </c>
       <c r="C40" s="78" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>DoS</v>
       </c>
       <c r="D40" s="87" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>Remove power from device after it resets the counter but before it overwrites header and password file</v>
       </c>
       <c r="E40" s="33">
@@ -5419,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5428,15 +5053,15 @@
         <v>14</v>
       </c>
       <c r="B41" s="74" t="str">
-        <f t="shared" ref="B41:D41" si="10">B16</f>
+        <f t="shared" ref="B41:D41" si="9">B16</f>
         <v>018</v>
       </c>
       <c r="C41" s="77" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Elevation of Privilege</v>
       </c>
       <c r="D41" s="85" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Request device reset and remove power after the header file is rewritten but before the password file is rewritten to allow access to encrypted password file for offline attacks.</v>
       </c>
       <c r="E41" s="38">
@@ -5464,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -5473,15 +5098,15 @@
         <v>15</v>
       </c>
       <c r="B42" s="75" t="str">
-        <f t="shared" ref="B42:D42" si="11">B17</f>
+        <f t="shared" ref="B42:D42" si="10">B17</f>
         <v>019</v>
       </c>
       <c r="C42" s="78" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Information Disclosure</v>
       </c>
       <c r="D42" s="87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Fuzz USB commands to discover readable and/or writeable device memory</v>
       </c>
       <c r="E42" s="33">
@@ -5509,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5518,15 +5143,15 @@
         <v>16</v>
       </c>
       <c r="B43" s="74" t="str">
-        <f t="shared" ref="B43:D43" si="12">B18</f>
+        <f t="shared" ref="B43:D43" si="11">B18</f>
         <v>020</v>
       </c>
       <c r="C43" s="77" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Elevation of Privilege</v>
       </c>
       <c r="D43" s="85" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Fuzz USB commands to cause unpredictable behavior and/or discover point of entry to gain execution</v>
       </c>
       <c r="E43" s="38">
@@ -5554,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -5563,15 +5188,15 @@
         <v>17</v>
       </c>
       <c r="B44" s="75" t="str">
-        <f t="shared" ref="B44:D44" si="13">B19</f>
+        <f t="shared" ref="B44:D44" si="12">B19</f>
         <v>021</v>
       </c>
       <c r="C44" s="78" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Information Disclosure</v>
       </c>
       <c r="D44" s="87" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Reset the device, obtain secure session with own credentials, and excavate available memory locations for old users’ password files</v>
       </c>
       <c r="E44" s="33">
@@ -5599,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5776,7 +5401,7 @@
     <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="59"/>
@@ -5872,7 +5497,7 @@
         <v>3.625</v>
       </c>
       <c r="K62" s="14">
-        <f t="shared" ref="K62:K84" si="14">M32</f>
+        <f t="shared" ref="K62:K84" si="13">M32</f>
         <v>9</v>
       </c>
       <c r="L62" s="14"/>
@@ -5895,7 +5520,7 @@
         <v>2.875</v>
       </c>
       <c r="K63" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2.75</v>
       </c>
       <c r="L63" s="15"/>
@@ -5918,7 +5543,7 @@
         <v>4.5</v>
       </c>
       <c r="K64" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="L64" s="16"/>
@@ -5941,7 +5566,7 @@
         <v>5</v>
       </c>
       <c r="K65" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="L65" s="15"/>
@@ -5964,7 +5589,7 @@
         <v>3.75</v>
       </c>
       <c r="K66" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="L66" s="16"/>
@@ -5987,7 +5612,7 @@
         <v>#REF!</v>
       </c>
       <c r="K67" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L67" s="15"/>
@@ -6010,7 +5635,7 @@
         <v>#REF!</v>
       </c>
       <c r="K68" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L68" s="16"/>
@@ -6033,7 +5658,7 @@
         <v>#REF!</v>
       </c>
       <c r="K69" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L69" s="15"/>
@@ -6056,7 +5681,7 @@
         <v>#REF!</v>
       </c>
       <c r="K70" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L70" s="16"/>
@@ -6079,7 +5704,7 @@
         <v>4.5</v>
       </c>
       <c r="K71" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="L71" s="15"/>
@@ -6102,7 +5727,7 @@
         <v>#REF!</v>
       </c>
       <c r="K72" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L72" s="16"/>
@@ -6125,7 +5750,7 @@
         <v>5</v>
       </c>
       <c r="K73" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="L73" s="15"/>
@@ -6148,7 +5773,7 @@
         <v>#REF!</v>
       </c>
       <c r="K74" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L74" s="16"/>
@@ -6171,7 +5796,7 @@
         <v>2.125</v>
       </c>
       <c r="K75" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L75" s="15"/>
@@ -6194,7 +5819,7 @@
         <v>#REF!</v>
       </c>
       <c r="K76" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L76" s="16"/>
@@ -6217,7 +5842,7 @@
         <v>#REF!</v>
       </c>
       <c r="K77" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L77" s="15"/>
@@ -6240,7 +5865,7 @@
         <v>3.75</v>
       </c>
       <c r="K78" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L78" s="16"/>
@@ -6263,7 +5888,7 @@
         <v>3.75</v>
       </c>
       <c r="K79" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L79" s="15"/>
@@ -6286,7 +5911,7 @@
         <v>3</v>
       </c>
       <c r="K80" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L80" s="16"/>
@@ -6309,7 +5934,7 @@
         <v>3</v>
       </c>
       <c r="K81" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L81" s="15"/>
@@ -6332,7 +5957,7 @@
         <v>3</v>
       </c>
       <c r="K82" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L82" s="16"/>
@@ -6351,11 +5976,11 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="15">
-        <f t="shared" ref="J83:J84" si="15">M24</f>
+        <f t="shared" ref="J83:J84" si="14">M24</f>
         <v>0</v>
       </c>
       <c r="K83" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L83" s="15"/>
@@ -6374,11 +5999,11 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K84" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L84" s="17"/>
@@ -6472,7 +6097,7 @@
         <v>39</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" s="56" t="s">
         <v>40</v>
@@ -6843,18 +6468,5 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel table/threat_risk_tables_main1.xlsx
+++ b/excel table/threat_risk_tables_main1.xlsx
@@ -2119,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,6 +2134,7 @@
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="11" max="11" width="156.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2822,7 +2823,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>168</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>171</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>172</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>183</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>184</v>
       </c>
@@ -3249,7 +3250,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B44" s="20"/>
@@ -3259,11 +3260,11 @@
       <c r="F44" s="44"/>
       <c r="G44" s="44"/>
       <c r="H44" s="34"/>
-      <c r="I44" s="35"/>
+      <c r="I44" s="90"/>
       <c r="K44" s="44"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B45" s="19"/>
@@ -3273,11 +3274,11 @@
       <c r="F45" s="45"/>
       <c r="G45" s="45"/>
       <c r="H45" s="29"/>
-      <c r="I45" s="30"/>
+      <c r="I45" s="89"/>
       <c r="K45" s="45"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="7" t="s">
         <v>187</v>
       </c>
       <c r="B46" s="20"/>
@@ -3287,10 +3288,10 @@
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="35"/>
+      <c r="I46" s="90"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B47" s="19"/>
@@ -3300,10 +3301,10 @@
       <c r="F47" s="45"/>
       <c r="G47" s="45"/>
       <c r="H47" s="29"/>
-      <c r="I47" s="30"/>
+      <c r="I47" s="89"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="7" t="s">
         <v>189</v>
       </c>
       <c r="B48" s="20"/>
@@ -3313,10 +3314,10 @@
       <c r="F48" s="44"/>
       <c r="G48" s="44"/>
       <c r="H48" s="34"/>
-      <c r="I48" s="35"/>
+      <c r="I48" s="90"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B49" s="19"/>
@@ -3326,10 +3327,10 @@
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
       <c r="H49" s="29"/>
-      <c r="I49" s="30"/>
+      <c r="I49" s="89"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B50" s="20"/>
@@ -3339,10 +3340,10 @@
       <c r="F50" s="44"/>
       <c r="G50" s="44"/>
       <c r="H50" s="34"/>
-      <c r="I50" s="35"/>
+      <c r="I50" s="90"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B51" s="19"/>
@@ -3352,10 +3353,10 @@
       <c r="F51" s="45"/>
       <c r="G51" s="45"/>
       <c r="H51" s="29"/>
-      <c r="I51" s="30"/>
+      <c r="I51" s="89"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="7" t="s">
         <v>193</v>
       </c>
       <c r="B52" s="20"/>
@@ -3365,10 +3366,10 @@
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
       <c r="H52" s="34"/>
-      <c r="I52" s="35"/>
+      <c r="I52" s="90"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B53" s="19"/>
@@ -3378,10 +3379,10 @@
       <c r="F53" s="45"/>
       <c r="G53" s="45"/>
       <c r="H53" s="29"/>
-      <c r="I53" s="30"/>
+      <c r="I53" s="89"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="7" t="s">
         <v>195</v>
       </c>
       <c r="B54" s="20"/>
@@ -3391,10 +3392,10 @@
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
       <c r="H54" s="34"/>
-      <c r="I54" s="35"/>
+      <c r="I54" s="90"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B55" s="19"/>
@@ -3404,10 +3405,10 @@
       <c r="F55" s="45"/>
       <c r="G55" s="45"/>
       <c r="H55" s="29"/>
-      <c r="I55" s="30"/>
+      <c r="I55" s="89"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="7" t="s">
         <v>197</v>
       </c>
       <c r="B56" s="20"/>
@@ -3417,10 +3418,10 @@
       <c r="F56" s="44"/>
       <c r="G56" s="44"/>
       <c r="H56" s="34"/>
-      <c r="I56" s="35"/>
+      <c r="I56" s="90"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B57" s="19"/>
@@ -3430,10 +3431,10 @@
       <c r="F57" s="45"/>
       <c r="G57" s="45"/>
       <c r="H57" s="29"/>
-      <c r="I57" s="30"/>
+      <c r="I57" s="89"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B58" s="20"/>
@@ -3443,10 +3444,10 @@
       <c r="F58" s="44"/>
       <c r="G58" s="44"/>
       <c r="H58" s="34"/>
-      <c r="I58" s="35"/>
+      <c r="I58" s="90"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="4" t="s">
         <v>200</v>
       </c>
       <c r="B59" s="19"/>
@@ -3456,7 +3457,7 @@
       <c r="F59" s="45"/>
       <c r="G59" s="45"/>
       <c r="H59" s="29"/>
-      <c r="I59" s="30"/>
+      <c r="I59" s="89"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">

--- a/excel table/threat_risk_tables_main1.xlsx
+++ b/excel table/threat_risk_tables_main1.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="3" r:id="rId1"/>
     <sheet name="Table of Threats" sheetId="1" r:id="rId2"/>
     <sheet name="Risk Tables" sheetId="5" r:id="rId3"/>
-    <sheet name="Bug Table" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Threat Summary Table" sheetId="7" r:id="rId4"/>
+    <sheet name="Bug Table" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table of Threats'!$C$2:$I$61</definedName>
@@ -36,7 +37,7 @@
     <author>Patrick</author>
   </authors>
   <commentList>
-    <comment ref="J62" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="284">
   <si>
     <t>Diagram Element</t>
   </si>
@@ -199,9 +200,6 @@
     <t>Risk Title</t>
   </si>
   <si>
-    <t>Mitigation Cost</t>
-  </si>
-  <si>
     <t>Likelihood Factors</t>
   </si>
   <si>
@@ -815,6 +813,111 @@
   </si>
   <si>
     <t>Threat Title</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Likelihood</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Risk Category</t>
+  </si>
+  <si>
+    <t>Risk Label</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Med-High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Med Low</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Low                  (0-1)</t>
+  </si>
+  <si>
+    <t>Medium-Low (2-3)</t>
+  </si>
+  <si>
+    <t>Medium        (4-5)</t>
+  </si>
+  <si>
+    <t>Med-High       (6-7)</t>
+  </si>
+  <si>
+    <t>High                (8-9)</t>
+  </si>
+  <si>
+    <t>Low                    (1-0)</t>
+  </si>
+  <si>
+    <t>Medium-Low   (2-3)</t>
+  </si>
+  <si>
+    <t>Medium           (4-5)</t>
+  </si>
+  <si>
+    <t>Med-High         (6-7)</t>
+  </si>
+  <si>
+    <t>Threat  Type</t>
+  </si>
+  <si>
+    <t>Risk Cat</t>
+  </si>
+  <si>
+    <t>Reset Counter Tamper</t>
+  </si>
+  <si>
+    <t>Nonunique USB Identifier</t>
+  </si>
+  <si>
+    <t>Malware Infested Update</t>
+  </si>
+  <si>
+    <t>Lucky Guess Attack</t>
+  </si>
+  <si>
+    <t>Use current Authenticators on older patch</t>
+  </si>
+  <si>
+    <t>keystroke logger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">force "zero" public key during manufacture </t>
+  </si>
+  <si>
+    <t>interupt power before device reset</t>
+  </si>
+  <si>
+    <t>remove power before password wipe</t>
+  </si>
+  <si>
+    <t>fuzz USB - memory</t>
+  </si>
+  <si>
+    <t>fuzz USB - entry</t>
+  </si>
+  <si>
+    <t>Excavate old data</t>
   </si>
 </sst>
 </file>
@@ -822,9 +925,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,8 +972,53 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF9999"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -907,8 +1055,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1214,11 +1398,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1352,58 +1577,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1463,13 +1649,327 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9900"/>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1479,6 +1979,336 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>321466</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>273845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>904872</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>762001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C289C4-76BA-4F25-A0E4-DEEBA373A204}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5679279" y="4857751"/>
+          <a:ext cx="583406" cy="488156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>345278</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>250032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952499</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>821532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDEE4B1-CCA6-44E7-8B3B-52E8E692A4B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524372" y="4833938"/>
+          <a:ext cx="607221" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>2,11,12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>392906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1035845</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>952499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DCB631-6B95-4362-87A6-9C2C50A877E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239125" y="3940969"/>
+          <a:ext cx="511970" cy="559593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>3,4,6,7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>892968</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>773906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65FFBA1F-35F6-43DA-BBC8-1073E9549279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8024812" y="4869656"/>
+          <a:ext cx="583406" cy="488156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1166813</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1012029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>500064</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>535778</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BE6DE9E-E6A1-4C32-B0E6-547661C16BE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7703344" y="3524248"/>
+          <a:ext cx="511970" cy="559593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>1,5,9,10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1794,46 +2624,46 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="78" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1845,10 +2675,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>108</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>109</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1860,10 +2690,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1875,10 +2705,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1890,10 +2720,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="49" t="s">
         <v>115</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>116</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -2117,9 +2947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
@@ -2139,510 +2970,510 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="H2" s="56" t="s">
+      <c r="F2" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="78" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+    </row>
+    <row r="4" spans="1:9" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="46" t="s">
+      <c r="G4" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="G4" s="46" t="s">
-        <v>223</v>
-      </c>
       <c r="H4" s="24"/>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="E5" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>227</v>
-      </c>
       <c r="G5" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="89" t="s">
+      <c r="I5" s="76" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="44" t="s">
+      <c r="F6" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>73</v>
-      </c>
       <c r="G6" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H6" s="34"/>
-      <c r="I6" s="90" t="s">
+      <c r="I6" s="77" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="89" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="44" t="s">
+      <c r="F8" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="44" t="s">
-        <v>76</v>
-      </c>
       <c r="G8" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H8" s="34"/>
-      <c r="I8" s="90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I8" s="77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="45" t="s">
-        <v>79</v>
-      </c>
       <c r="F9" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="89" t="s">
+      <c r="I9" s="76" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="44" t="s">
         <v>81</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>82</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H10" s="34"/>
-      <c r="I10" s="90" t="s">
+      <c r="I10" s="77" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="45" t="s">
+      <c r="F11" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="45" t="s">
-        <v>119</v>
-      </c>
       <c r="G11" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="89" t="s">
+      <c r="I11" s="76" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>121</v>
-      </c>
       <c r="G12" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H12" s="34"/>
-      <c r="I12" s="90" t="s">
+      <c r="I12" s="77" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="45" t="s">
+      <c r="F13" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="45" t="s">
-        <v>124</v>
-      </c>
       <c r="G13" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="89" t="s">
+      <c r="I13" s="76" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="44" t="s">
+      <c r="F14" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="44" t="s">
-        <v>127</v>
-      </c>
       <c r="G14" s="44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H14" s="34"/>
-      <c r="I14" s="90" t="s">
+      <c r="I14" s="77" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="89" t="s">
+      <c r="I15" s="76" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="E16" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>131</v>
-      </c>
       <c r="F16" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="44"/>
       <c r="H16" s="34"/>
-      <c r="I16" s="90" t="s">
+      <c r="I16" s="77" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="45" t="s">
+      <c r="F17" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="45" t="s">
-        <v>134</v>
-      </c>
       <c r="G17" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H17" s="29"/>
-      <c r="I17" s="89" t="s">
+      <c r="I17" s="76" t="s">
         <v>18</v>
       </c>
       <c r="K17" s="45" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="44" t="s">
+      <c r="F18" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>244</v>
+      <c r="G18" s="53" t="s">
+        <v>243</v>
       </c>
       <c r="H18" s="34"/>
-      <c r="I18" s="90" t="s">
+      <c r="I18" s="77" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="45" t="s">
+      <c r="F19" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="45" t="s">
-        <v>140</v>
-      </c>
       <c r="G19" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="89" t="s">
+      <c r="I19" s="76" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="F20" s="44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H20" s="34"/>
-      <c r="I20" s="90" t="s">
+      <c r="I20" s="77" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -2650,59 +3481,59 @@
         <v>22</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="E21" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="45" t="s">
-        <v>146</v>
-      </c>
       <c r="F21" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G21" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H21" s="29"/>
-      <c r="I21" s="89" t="s">
+      <c r="I21" s="76" t="s">
         <v>22</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="44" t="s">
+      <c r="F22" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="44" t="s">
-        <v>149</v>
-      </c>
       <c r="G22" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H22" s="34"/>
-      <c r="I22" s="90" t="s">
+      <c r="I22" s="77" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -2710,548 +3541,548 @@
         <v>24</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="45" t="s">
-        <v>151</v>
-      </c>
       <c r="G23" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H23" s="29"/>
-      <c r="I23" s="89" t="s">
+      <c r="I23" s="76" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="44" t="s">
+      <c r="F24" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="44" t="s">
-        <v>154</v>
-      </c>
       <c r="G24" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H24" s="34"/>
-      <c r="I24" s="90" t="s">
+      <c r="I24" s="77" t="s">
         <v>25</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H25" s="29"/>
-      <c r="I25" s="89" t="s">
+      <c r="I25" s="76" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="45" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="D26" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>157</v>
-      </c>
       <c r="F26" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G26" s="44"/>
       <c r="H26" s="34"/>
-      <c r="I26" s="90" t="s">
+      <c r="I26" s="77" t="s">
         <v>27</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="45" t="s">
         <v>158</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>159</v>
       </c>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="29"/>
-      <c r="I27" s="89" t="s">
+      <c r="I27" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="K27" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K27" s="45" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="B28" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="44"/>
       <c r="H28" s="34"/>
-      <c r="I28" s="90" t="s">
+      <c r="I28" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="K28" s="44"/>
+    </row>
+    <row r="29" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="K28" s="44"/>
-    </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="B29" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="45" t="s">
+      <c r="F29" s="45" t="s">
         <v>163</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>164</v>
       </c>
       <c r="G29" s="45"/>
       <c r="H29" s="29"/>
-      <c r="I29" s="89" t="s">
+      <c r="I29" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="K29" s="45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="45" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="B30" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="44" t="s">
+      <c r="F30" s="44" t="s">
         <v>166</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>167</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="34"/>
-      <c r="I30" s="90" t="s">
+      <c r="I30" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" s="44" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="K30" s="44" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="B31" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" s="45" t="s">
         <v>203</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="F31" s="45" t="s">
-        <v>204</v>
       </c>
       <c r="G31" s="45"/>
       <c r="H31" s="29"/>
-      <c r="I31" s="89" t="s">
+      <c r="I31" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K31" s="45" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="B32" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="44" t="s">
         <v>205</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="44" t="s">
-        <v>206</v>
       </c>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
       <c r="H32" s="34"/>
-      <c r="I32" s="90" t="s">
+      <c r="I32" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="K32" s="44"/>
+    </row>
+    <row r="33" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="K32" s="44"/>
-    </row>
-    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="B33" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F33" s="45"/>
       <c r="G33" s="45"/>
       <c r="H33" s="29"/>
-      <c r="I33" s="89" t="s">
+      <c r="I33" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="K33" s="45"/>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K33" s="45"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="B34" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
       <c r="H34" s="34"/>
-      <c r="I34" s="90" t="s">
+      <c r="I34" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="K34" s="44"/>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="K34" s="44"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="B35" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F35" s="45"/>
       <c r="G35" s="45"/>
       <c r="H35" s="29"/>
-      <c r="I35" s="89" t="s">
+      <c r="I35" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="K35" s="45"/>
+    </row>
+    <row r="36" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K35" s="45"/>
-    </row>
-    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="B36" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="90" t="s">
+      <c r="I36" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="K36" s="44"/>
+    </row>
+    <row r="37" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="K36" s="44"/>
-    </row>
-    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="B37" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F37" s="45"/>
       <c r="G37" s="45"/>
       <c r="H37" s="29"/>
-      <c r="I37" s="89" t="s">
+      <c r="I37" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="K37" s="45"/>
+    </row>
+    <row r="38" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K37" s="45"/>
-    </row>
-    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="B38" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44"/>
       <c r="H38" s="34"/>
-      <c r="I38" s="90" t="s">
+      <c r="I38" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="K38" s="44"/>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="K38" s="44"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="B39" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F39" s="45"/>
       <c r="G39" s="45"/>
       <c r="H39" s="29"/>
-      <c r="I39" s="89" t="s">
+      <c r="I39" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="K39" s="45"/>
+    </row>
+    <row r="40" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K39" s="45"/>
-    </row>
-    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="B40" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F40" s="44"/>
       <c r="G40" s="44"/>
       <c r="H40" s="34"/>
-      <c r="I40" s="90" t="s">
+      <c r="I40" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="K40" s="44"/>
+    </row>
+    <row r="41" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="K40" s="44"/>
-    </row>
-    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="B41" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G41" s="45"/>
       <c r="H41" s="29"/>
-      <c r="I41" s="89" t="s">
+      <c r="I41" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="K41" s="45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K41" s="45" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="B42" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F42" s="44"/>
       <c r="G42" s="44"/>
       <c r="H42" s="34"/>
-      <c r="I42" s="90" t="s">
+      <c r="I42" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="K42" s="44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="K42" s="44" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="B43" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" s="45">
         <v>1.7</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F43" s="45"/>
       <c r="G43" s="45"/>
       <c r="H43" s="29"/>
-      <c r="I43" s="89" t="s">
+      <c r="I43" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="K43" s="45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K43" s="45" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="44"/>
@@ -3260,12 +4091,12 @@
       <c r="F44" s="44"/>
       <c r="G44" s="44"/>
       <c r="H44" s="34"/>
-      <c r="I44" s="90"/>
+      <c r="I44" s="77"/>
       <c r="K44" s="44"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="45"/>
@@ -3274,12 +4105,12 @@
       <c r="F45" s="45"/>
       <c r="G45" s="45"/>
       <c r="H45" s="29"/>
-      <c r="I45" s="89"/>
+      <c r="I45" s="76"/>
       <c r="K45" s="45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="44"/>
@@ -3288,11 +4119,11 @@
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="90"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I46" s="77"/>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="45"/>
@@ -3301,11 +4132,11 @@
       <c r="F47" s="45"/>
       <c r="G47" s="45"/>
       <c r="H47" s="29"/>
-      <c r="I47" s="89"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I47" s="76"/>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="44"/>
@@ -3314,11 +4145,11 @@
       <c r="F48" s="44"/>
       <c r="G48" s="44"/>
       <c r="H48" s="34"/>
-      <c r="I48" s="90"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="77"/>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="45"/>
@@ -3327,11 +4158,11 @@
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
       <c r="H49" s="29"/>
-      <c r="I49" s="89"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="76"/>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="44"/>
@@ -3340,11 +4171,11 @@
       <c r="F50" s="44"/>
       <c r="G50" s="44"/>
       <c r="H50" s="34"/>
-      <c r="I50" s="90"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="77"/>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="45"/>
@@ -3353,11 +4184,11 @@
       <c r="F51" s="45"/>
       <c r="G51" s="45"/>
       <c r="H51" s="29"/>
-      <c r="I51" s="89"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="76"/>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="44"/>
@@ -3366,11 +4197,11 @@
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
       <c r="H52" s="34"/>
-      <c r="I52" s="90"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="77"/>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="45"/>
@@ -3379,11 +4210,11 @@
       <c r="F53" s="45"/>
       <c r="G53" s="45"/>
       <c r="H53" s="29"/>
-      <c r="I53" s="89"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="76"/>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="44"/>
@@ -3392,11 +4223,11 @@
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
       <c r="H54" s="34"/>
-      <c r="I54" s="90"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="77"/>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="45"/>
@@ -3405,11 +4236,11 @@
       <c r="F55" s="45"/>
       <c r="G55" s="45"/>
       <c r="H55" s="29"/>
-      <c r="I55" s="89"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="76"/>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="44"/>
@@ -3418,11 +4249,11 @@
       <c r="F56" s="44"/>
       <c r="G56" s="44"/>
       <c r="H56" s="34"/>
-      <c r="I56" s="90"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="77"/>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="45"/>
@@ -3431,11 +4262,11 @@
       <c r="F57" s="45"/>
       <c r="G57" s="45"/>
       <c r="H57" s="29"/>
-      <c r="I57" s="89"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="76"/>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="44"/>
@@ -3444,11 +4275,11 @@
       <c r="F58" s="44"/>
       <c r="G58" s="44"/>
       <c r="H58" s="34"/>
-      <c r="I58" s="90"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="77"/>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="45"/>
@@ -3457,11 +4288,11 @@
       <c r="F59" s="45"/>
       <c r="G59" s="45"/>
       <c r="H59" s="29"/>
-      <c r="I59" s="89"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="76"/>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="44"/>
@@ -3472,9 +4303,9 @@
       <c r="H60" s="34"/>
       <c r="I60" s="35"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="45"/>
@@ -3674,88 +4505,94 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C79" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" t="s">
+        <v>76</v>
+      </c>
+      <c r="E79" t="s">
         <v>158</v>
       </c>
-      <c r="D79" t="s">
-        <v>77</v>
-      </c>
-      <c r="E79" t="s">
-        <v>159</v>
-      </c>
       <c r="F79" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" t="s">
         <v>84</v>
       </c>
-      <c r="D83" t="s">
-        <v>85</v>
-      </c>
       <c r="E83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" t="s">
         <v>86</v>
       </c>
-      <c r="D84" t="s">
-        <v>87</v>
-      </c>
       <c r="E84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:I61"/>
+  <autoFilter ref="C2:I61">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Elevation of Privilege"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="9">
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
@@ -3775,11 +4612,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3797,105 +4634,105 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="B2" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="82"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="E5" s="64" t="s">
+      <c r="D5" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="64" t="s">
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="56" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
       <c r="E6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="G6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="I6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="22" t="s">
+      <c r="K6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="22" t="s">
+      <c r="L6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="57"/>
+      <c r="M6" s="79"/>
     </row>
     <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="58" t="str">
         <f>'Table of Threats'!A4</f>
         <v>001</v>
       </c>
-      <c r="C7" s="73" t="str">
+      <c r="C7" s="60" t="str">
         <f>'Table of Threats'!D4</f>
         <v>Repudiation / Tamper</v>
       </c>
-      <c r="D7" s="72" t="str">
+      <c r="D7" s="59" t="str">
         <f>'Table of Threats'!E4</f>
         <v>An attacker can tamper with the reset counter and cause the system to never reset, enabling a brute force attack.  The reset counter serves as a log of failed password attempts</v>
       </c>
@@ -3923,7 +4760,7 @@
       <c r="L7" s="27">
         <v>9</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="54">
         <f>AVERAGE(E7:L7)</f>
         <v>3.625</v>
       </c>
@@ -3936,11 +4773,11 @@
         <f>'Table of Threats'!A5</f>
         <v>002</v>
       </c>
-      <c r="C8" s="77" t="str">
+      <c r="C8" s="64" t="str">
         <f>'Table of Threats'!D5</f>
         <v>Repudiation/Spoofing</v>
       </c>
-      <c r="D8" s="82" t="str">
+      <c r="D8" s="69" t="str">
         <f>'Table of Threats'!E5</f>
         <v>Webserver needs to use unique USB identifier as an authenticator</v>
       </c>
@@ -3968,8 +4805,8 @@
       <c r="L8" s="32">
         <v>1</v>
       </c>
-      <c r="M8" s="68">
-        <f t="shared" ref="M8:M25" si="0">AVERAGE(E8:L8)</f>
+      <c r="M8" s="55">
+        <f>AVERAGE(E8:L8)</f>
         <v>2.875</v>
       </c>
     </row>
@@ -3981,11 +4818,11 @@
         <f>'Table of Threats'!A6</f>
         <v>003</v>
       </c>
-      <c r="C9" s="78" t="str">
+      <c r="C9" s="65" t="str">
         <f>'Table of Threats'!D6</f>
         <v>Tampering</v>
       </c>
-      <c r="D9" s="81" t="str">
+      <c r="D9" s="68" t="str">
         <f>'Table of Threats'!E6</f>
         <v>Malware infested Update</v>
       </c>
@@ -4013,8 +4850,8 @@
       <c r="L9" s="37">
         <v>3</v>
       </c>
-      <c r="M9" s="69">
-        <f t="shared" si="0"/>
+      <c r="M9" s="56">
+        <f>AVERAGE(E9:L9)</f>
         <v>4.5</v>
       </c>
     </row>
@@ -4026,11 +4863,11 @@
         <f>'Table of Threats'!A7</f>
         <v>004</v>
       </c>
-      <c r="C10" s="77" t="str">
+      <c r="C10" s="64" t="str">
         <f>'Table of Threats'!D7</f>
         <v>DOS</v>
       </c>
-      <c r="D10" s="82" t="str">
+      <c r="D10" s="69" t="str">
         <f>'Table of Threats'!E7</f>
         <v>Theft or Loss of USB</v>
       </c>
@@ -4058,8 +4895,8 @@
       <c r="L10" s="32">
         <v>9</v>
       </c>
-      <c r="M10" s="68">
-        <f t="shared" si="0"/>
+      <c r="M10" s="55">
+        <f>AVERAGE(E10:L10)</f>
         <v>5</v>
       </c>
     </row>
@@ -4071,11 +4908,11 @@
         <f>'Table of Threats'!A8</f>
         <v>005</v>
       </c>
-      <c r="C11" s="78" t="str">
+      <c r="C11" s="65" t="str">
         <f>'Table of Threats'!D8</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D11" s="80" t="str">
+      <c r="D11" s="67" t="str">
         <f>'Table of Threats'!E8</f>
         <v>password guess attack</v>
       </c>
@@ -4103,8 +4940,8 @@
       <c r="L11" s="37">
         <v>9</v>
       </c>
-      <c r="M11" s="69">
-        <f t="shared" si="0"/>
+      <c r="M11" s="56">
+        <f>AVERAGE(E11:L11)</f>
         <v>3.75</v>
       </c>
     </row>
@@ -4116,11 +4953,11 @@
         <f>'Table of Threats'!A13</f>
         <v>010</v>
       </c>
-      <c r="C12" s="77" t="str">
+      <c r="C12" s="64" t="str">
         <f>'Table of Threats'!D13</f>
         <v>Tampering</v>
       </c>
-      <c r="D12" s="82" t="str">
+      <c r="D12" s="69" t="str">
         <f>'Table of Threats'!E13</f>
         <v>Spoof updated SW with older version which may have vulnerabilities, but is signed with an authentic key</v>
       </c>
@@ -4148,8 +4985,8 @@
       <c r="L12" s="32">
         <v>3</v>
       </c>
-      <c r="M12" s="68">
-        <f t="shared" si="0"/>
+      <c r="M12" s="55">
+        <f>AVERAGE(E12:L12)</f>
         <v>4.5</v>
       </c>
     </row>
@@ -4161,11 +4998,11 @@
         <f>'Table of Threats'!A15</f>
         <v>012</v>
       </c>
-      <c r="C13" s="78" t="str">
+      <c r="C13" s="65" t="str">
         <f>'Table of Threats'!D15</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D13" s="80" t="str">
+      <c r="D13" s="67" t="str">
         <f>'Table of Threats'!E15</f>
         <v>App is used on a computer with a keystroke logger</v>
       </c>
@@ -4193,8 +5030,8 @@
       <c r="L13" s="37">
         <v>9</v>
       </c>
-      <c r="M13" s="69">
-        <f t="shared" si="0"/>
+      <c r="M13" s="56">
+        <f>AVERAGE(E13:L13)</f>
         <v>5</v>
       </c>
     </row>
@@ -4206,11 +5043,11 @@
         <f>'Table of Threats'!A17</f>
         <v>014</v>
       </c>
-      <c r="C14" s="77" t="str">
+      <c r="C14" s="64" t="str">
         <f>'Table of Threats'!D17</f>
         <v>Tampering</v>
       </c>
-      <c r="D14" s="82" t="str">
+      <c r="D14" s="69" t="str">
         <f>'Table of Threats'!E17</f>
         <v>Modify device to “zero” factory public key, enabling malicious SW update</v>
       </c>
@@ -4238,8 +5075,8 @@
       <c r="L14" s="32">
         <v>1</v>
       </c>
-      <c r="M14" s="68">
-        <f t="shared" si="0"/>
+      <c r="M14" s="55">
+        <f>AVERAGE(E14:L14)</f>
         <v>2.125</v>
       </c>
     </row>
@@ -4251,11 +5088,11 @@
         <f>'Table of Threats'!A20</f>
         <v>017</v>
       </c>
-      <c r="C15" s="78" t="str">
+      <c r="C15" s="65" t="str">
         <f>'Table of Threats'!D20</f>
         <v>DoS</v>
       </c>
-      <c r="D15" s="80" t="str">
+      <c r="D15" s="67" t="str">
         <f>'Table of Threats'!E20</f>
         <v>Remove power from device after it resets the counter but before it overwrites header and password file</v>
       </c>
@@ -4283,8 +5120,8 @@
       <c r="L15" s="37">
         <v>9</v>
       </c>
-      <c r="M15" s="69">
-        <f t="shared" si="0"/>
+      <c r="M15" s="56">
+        <f>AVERAGE(E15:L15)</f>
         <v>3.75</v>
       </c>
     </row>
@@ -4296,11 +5133,11 @@
         <f>'Table of Threats'!A21</f>
         <v>018</v>
       </c>
-      <c r="C16" s="77" t="str">
+      <c r="C16" s="64" t="str">
         <f>'Table of Threats'!D21</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="D16" s="82" t="str">
+      <c r="D16" s="69" t="str">
         <f>'Table of Threats'!E21</f>
         <v>Request device reset and remove power after the header file is rewritten but before the password file is rewritten to allow access to encrypted password file for offline attacks.</v>
       </c>
@@ -4328,8 +5165,8 @@
       <c r="L16" s="32">
         <v>9</v>
       </c>
-      <c r="M16" s="68">
-        <f t="shared" si="0"/>
+      <c r="M16" s="55">
+        <f>AVERAGE(E16:L16)</f>
         <v>3.75</v>
       </c>
     </row>
@@ -4341,11 +5178,11 @@
         <f>'Table of Threats'!A22</f>
         <v>019</v>
       </c>
-      <c r="C17" s="78" t="str">
+      <c r="C17" s="65" t="str">
         <f>'Table of Threats'!D22</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D17" s="80" t="str">
+      <c r="D17" s="67" t="str">
         <f>'Table of Threats'!E22</f>
         <v>Fuzz USB commands to discover readable and/or writeable device memory</v>
       </c>
@@ -4373,8 +5210,8 @@
       <c r="L17" s="37">
         <v>9</v>
       </c>
-      <c r="M17" s="69">
-        <f t="shared" si="0"/>
+      <c r="M17" s="56">
+        <f>AVERAGE(E17:L17)</f>
         <v>3</v>
       </c>
     </row>
@@ -4386,11 +5223,11 @@
         <f>'Table of Threats'!A23</f>
         <v>020</v>
       </c>
-      <c r="C18" s="77" t="str">
+      <c r="C18" s="64" t="str">
         <f>'Table of Threats'!D23</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="D18" s="82" t="str">
+      <c r="D18" s="69" t="str">
         <f>'Table of Threats'!E23</f>
         <v>Fuzz USB commands to cause unpredictable behavior and/or discover point of entry to gain execution</v>
       </c>
@@ -4418,8 +5255,8 @@
       <c r="L18" s="32">
         <v>9</v>
       </c>
-      <c r="M18" s="68">
-        <f t="shared" si="0"/>
+      <c r="M18" s="55">
+        <f>AVERAGE(E18:L18)</f>
         <v>3</v>
       </c>
     </row>
@@ -4431,11 +5268,11 @@
         <f>'Table of Threats'!A24</f>
         <v>021</v>
       </c>
-      <c r="C19" s="78" t="str">
+      <c r="C19" s="65" t="str">
         <f>'Table of Threats'!D24</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D19" s="80" t="str">
+      <c r="D19" s="67" t="str">
         <f>'Table of Threats'!E24</f>
         <v>Reset the device, obtain secure session with own credentials, and excavate available memory locations for old users’ password files</v>
       </c>
@@ -4463,16 +5300,16 @@
       <c r="L19" s="37">
         <v>9</v>
       </c>
-      <c r="M19" s="69">
-        <f t="shared" si="0"/>
+      <c r="M19" s="56">
+        <f>AVERAGE(E19:L19)</f>
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="82"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="38"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -4481,13 +5318,13 @@
       <c r="J20" s="29"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
-      <c r="M20" s="68"/>
+      <c r="M20" s="55"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="80"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="33"/>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
@@ -4496,13 +5333,13 @@
       <c r="J21" s="34"/>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
-      <c r="M21" s="69"/>
+      <c r="M21" s="56"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="82"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="38"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
@@ -4511,13 +5348,13 @@
       <c r="J22" s="29"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
-      <c r="M22" s="68"/>
+      <c r="M22" s="55"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="80"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="33"/>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
@@ -4526,13 +5363,13 @@
       <c r="J23" s="34"/>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
-      <c r="M23" s="69"/>
+      <c r="M23" s="56"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="82"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="38"/>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -4541,13 +5378,13 @@
       <c r="J24" s="29"/>
       <c r="K24" s="32"/>
       <c r="L24" s="32"/>
-      <c r="M24" s="68"/>
+      <c r="M24" s="55"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="83"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="70"/>
       <c r="E25" s="39"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
@@ -4556,107 +5393,109 @@
       <c r="J25" s="40"/>
       <c r="K25" s="43"/>
       <c r="L25" s="43"/>
-      <c r="M25" s="70"/>
+      <c r="M25" s="57"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="60"/>
+      <c r="B27" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="82"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="63"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="85"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="E30" s="64" t="s">
+      <c r="D30" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="E30" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="64" t="s">
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="56" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="31" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="57"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="G31" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="H31" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="I31" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="22" t="s">
+      <c r="J31" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="J31" s="22" t="s">
+      <c r="K31" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="L31" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="L31" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" s="57"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="79"/>
+    </row>
+    <row r="32" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="71" t="str">
+      <c r="B32" s="58" t="str">
         <f>B7</f>
         <v>001</v>
       </c>
-      <c r="C32" s="73" t="str">
+      <c r="C32" s="60" t="str">
         <f>C7</f>
         <v>Repudiation / Tamper</v>
       </c>
-      <c r="D32" s="84" t="str">
+      <c r="D32" s="71" t="str">
         <f>D7</f>
         <v>An attacker can tamper with the reset counter and cause the system to never reset, enabling a brute force attack.  The reset counter serves as a log of failed password attempts</v>
       </c>
@@ -4684,24 +5523,24 @@
       <c r="L32" s="27">
         <v>0</v>
       </c>
-      <c r="M32" s="67">
+      <c r="M32" s="54">
         <f>AVERAGE(E32:L32)*2</f>
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="74" t="str">
+      <c r="B33" s="61" t="str">
         <f>B8</f>
         <v>002</v>
       </c>
-      <c r="C33" s="77" t="str">
+      <c r="C33" s="64" t="str">
         <f>C8</f>
         <v>Repudiation/Spoofing</v>
       </c>
-      <c r="D33" s="85" t="str">
+      <c r="D33" s="72" t="str">
         <f>D8</f>
         <v>Webserver needs to use unique USB identifier as an authenticator</v>
       </c>
@@ -4729,8 +5568,8 @@
       <c r="L33" s="32">
         <v>0</v>
       </c>
-      <c r="M33" s="68">
-        <f t="shared" ref="M33:M54" si="1">AVERAGE(E33:L33)*2</f>
+      <c r="M33" s="55">
+        <f>AVERAGE(E33:L33)*2</f>
         <v>2.75</v>
       </c>
     </row>
@@ -4738,16 +5577,16 @@
       <c r="A34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="75" t="str">
-        <f t="shared" ref="B34:D34" si="2">B9</f>
+      <c r="B34" s="62" t="str">
+        <f>B9</f>
         <v>003</v>
       </c>
-      <c r="C34" s="78" t="str">
-        <f t="shared" si="2"/>
+      <c r="C34" s="65" t="str">
+        <f>C9</f>
         <v>Tampering</v>
       </c>
-      <c r="D34" s="87" t="str">
-        <f t="shared" si="2"/>
+      <c r="D34" s="74" t="str">
+        <f>D9</f>
         <v>Malware infested Update</v>
       </c>
       <c r="E34" s="33">
@@ -4774,8 +5613,8 @@
       <c r="L34" s="37">
         <v>0</v>
       </c>
-      <c r="M34" s="69">
-        <f t="shared" si="1"/>
+      <c r="M34" s="56">
+        <f>AVERAGE(E34:L34)*2</f>
         <v>9</v>
       </c>
     </row>
@@ -4783,16 +5622,16 @@
       <c r="A35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="74" t="str">
-        <f t="shared" ref="B35:D35" si="3">B10</f>
+      <c r="B35" s="61" t="str">
+        <f>B10</f>
         <v>004</v>
       </c>
-      <c r="C35" s="77" t="str">
-        <f t="shared" si="3"/>
+      <c r="C35" s="64" t="str">
+        <f>C10</f>
         <v>DOS</v>
       </c>
-      <c r="D35" s="85" t="str">
-        <f t="shared" si="3"/>
+      <c r="D35" s="72" t="str">
+        <f>D10</f>
         <v>Theft or Loss of USB</v>
       </c>
       <c r="E35" s="38">
@@ -4819,8 +5658,8 @@
       <c r="L35" s="32">
         <v>0</v>
       </c>
-      <c r="M35" s="68">
-        <f t="shared" si="1"/>
+      <c r="M35" s="55">
+        <f>AVERAGE(E35:L35)*2</f>
         <v>9</v>
       </c>
     </row>
@@ -4828,16 +5667,16 @@
       <c r="A36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="75" t="str">
-        <f t="shared" ref="B36:D36" si="4">B11</f>
+      <c r="B36" s="62" t="str">
+        <f>B11</f>
         <v>005</v>
       </c>
-      <c r="C36" s="78" t="str">
-        <f t="shared" si="4"/>
+      <c r="C36" s="65" t="str">
+        <f>C11</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D36" s="87" t="str">
-        <f t="shared" si="4"/>
+      <c r="D36" s="74" t="str">
+        <f>D11</f>
         <v>password guess attack</v>
       </c>
       <c r="E36" s="33">
@@ -4864,8 +5703,8 @@
       <c r="L36" s="37">
         <v>0</v>
       </c>
-      <c r="M36" s="69">
-        <f t="shared" si="1"/>
+      <c r="M36" s="56">
+        <f>AVERAGE(E36:L36)*2</f>
         <v>9</v>
       </c>
     </row>
@@ -4873,29 +5712,29 @@
       <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="74" t="str">
-        <f t="shared" ref="B37:D37" si="5">B12</f>
+      <c r="B37" s="61" t="str">
+        <f>B12</f>
         <v>010</v>
       </c>
-      <c r="C37" s="77" t="str">
-        <f t="shared" si="5"/>
+      <c r="C37" s="64" t="str">
+        <f>C12</f>
         <v>Tampering</v>
       </c>
-      <c r="D37" s="85" t="str">
-        <f t="shared" si="5"/>
+      <c r="D37" s="72" t="str">
+        <f>D12</f>
         <v>Spoof updated SW with older version which may have vulnerabilities, but is signed with an authentic key</v>
       </c>
       <c r="E37" s="38">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F37" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G37" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H37" s="30">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I37" s="31">
         <v>0</v>
@@ -4909,38 +5748,38 @@
       <c r="L37" s="32">
         <v>0</v>
       </c>
-      <c r="M37" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="M37" s="55">
+        <f>AVERAGE(E37:L37)*2</f>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="75" t="str">
-        <f t="shared" ref="B38:D38" si="6">B13</f>
+      <c r="B38" s="62" t="str">
+        <f>B13</f>
         <v>012</v>
       </c>
-      <c r="C38" s="78" t="str">
-        <f t="shared" si="6"/>
+      <c r="C38" s="65" t="str">
+        <f>C13</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D38" s="87" t="str">
-        <f t="shared" si="6"/>
+      <c r="D38" s="74" t="str">
+        <f>D13</f>
         <v>App is used on a computer with a keystroke logger</v>
       </c>
       <c r="E38" s="33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F38" s="34">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G38" s="34">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H38" s="35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I38" s="36">
         <v>0</v>
@@ -4954,38 +5793,38 @@
       <c r="L38" s="37">
         <v>0</v>
       </c>
-      <c r="M38" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="56">
+        <f>AVERAGE(E38:L38)*2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="74" t="str">
-        <f t="shared" ref="B39:D39" si="7">B14</f>
+      <c r="B39" s="61" t="str">
+        <f>B14</f>
         <v>014</v>
       </c>
-      <c r="C39" s="77" t="str">
-        <f t="shared" si="7"/>
+      <c r="C39" s="64" t="str">
+        <f>C14</f>
         <v>Tampering</v>
       </c>
-      <c r="D39" s="85" t="str">
-        <f t="shared" si="7"/>
+      <c r="D39" s="72" t="str">
+        <f>D14</f>
         <v>Modify device to “zero” factory public key, enabling malicious SW update</v>
       </c>
       <c r="E39" s="38">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F39" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G39" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H39" s="30">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I39" s="31">
         <v>0</v>
@@ -4999,38 +5838,38 @@
       <c r="L39" s="32">
         <v>0</v>
       </c>
-      <c r="M39" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="55">
+        <f>AVERAGE(E39:L39)*2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="75" t="str">
-        <f t="shared" ref="B40:D40" si="8">B15</f>
+      <c r="B40" s="62" t="str">
+        <f>B15</f>
         <v>017</v>
       </c>
-      <c r="C40" s="78" t="str">
-        <f t="shared" si="8"/>
+      <c r="C40" s="65" t="str">
+        <f>C15</f>
         <v>DoS</v>
       </c>
-      <c r="D40" s="87" t="str">
-        <f t="shared" si="8"/>
+      <c r="D40" s="74" t="str">
+        <f>D15</f>
         <v>Remove power from device after it resets the counter but before it overwrites header and password file</v>
       </c>
       <c r="E40" s="33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F40" s="34">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G40" s="34">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H40" s="35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I40" s="36">
         <v>0</v>
@@ -5044,25 +5883,25 @@
       <c r="L40" s="37">
         <v>0</v>
       </c>
-      <c r="M40" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="M40" s="56">
+        <f>AVERAGE(E40:L40)*2</f>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="74" t="str">
-        <f t="shared" ref="B41:D41" si="9">B16</f>
+      <c r="B41" s="61" t="str">
+        <f>B16</f>
         <v>018</v>
       </c>
-      <c r="C41" s="77" t="str">
-        <f t="shared" si="9"/>
+      <c r="C41" s="64" t="str">
+        <f>C16</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="D41" s="85" t="str">
-        <f t="shared" si="9"/>
+      <c r="D41" s="72" t="str">
+        <f>D16</f>
         <v>Request device reset and remove power after the header file is rewritten but before the password file is rewritten to allow access to encrypted password file for offline attacks.</v>
       </c>
       <c r="E41" s="38">
@@ -5089,29 +5928,29 @@
       <c r="L41" s="32">
         <v>0</v>
       </c>
-      <c r="M41" s="68">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M41" s="55">
+        <f>AVERAGE(E41:L41)*2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="75" t="str">
-        <f t="shared" ref="B42:D42" si="10">B17</f>
+      <c r="B42" s="62" t="str">
+        <f>B17</f>
         <v>019</v>
       </c>
-      <c r="C42" s="78" t="str">
-        <f t="shared" si="10"/>
+      <c r="C42" s="65" t="str">
+        <f>C17</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D42" s="87" t="str">
-        <f t="shared" si="10"/>
+      <c r="D42" s="74" t="str">
+        <f>D17</f>
         <v>Fuzz USB commands to discover readable and/or writeable device memory</v>
       </c>
       <c r="E42" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" s="34">
         <v>0</v>
@@ -5120,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I42" s="36">
         <v>0</v>
@@ -5134,35 +5973,35 @@
       <c r="L42" s="37">
         <v>0</v>
       </c>
-      <c r="M42" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="M42" s="56">
+        <f>AVERAGE(E42:L42)*2</f>
+        <v>2.75</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="74" t="str">
-        <f t="shared" ref="B43:D43" si="11">B18</f>
+      <c r="B43" s="61" t="str">
+        <f>B18</f>
         <v>020</v>
       </c>
-      <c r="C43" s="77" t="str">
-        <f t="shared" si="11"/>
+      <c r="C43" s="64" t="str">
+        <f>C18</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="D43" s="85" t="str">
-        <f t="shared" si="11"/>
+      <c r="D43" s="72" t="str">
+        <f>D18</f>
         <v>Fuzz USB commands to cause unpredictable behavior and/or discover point of entry to gain execution</v>
       </c>
       <c r="E43" s="38">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F43" s="29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G43" s="29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H43" s="30">
         <v>9</v>
@@ -5179,38 +6018,38 @@
       <c r="L43" s="32">
         <v>0</v>
       </c>
-      <c r="M43" s="68">
-        <f t="shared" si="1"/>
-        <v>9</v>
+      <c r="M43" s="55">
+        <f>AVERAGE(E43:L43)*2</f>
+        <v>2.75</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="75" t="str">
-        <f t="shared" ref="B44:D44" si="12">B19</f>
+      <c r="B44" s="62" t="str">
+        <f>B19</f>
         <v>021</v>
       </c>
-      <c r="C44" s="78" t="str">
-        <f t="shared" si="12"/>
+      <c r="C44" s="65" t="str">
+        <f>C19</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D44" s="87" t="str">
-        <f t="shared" si="12"/>
+      <c r="D44" s="74" t="str">
+        <f>D19</f>
         <v>Reset the device, obtain secure session with own credentials, and excavate available memory locations for old users’ password files</v>
       </c>
       <c r="E44" s="33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F44" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I44" s="36">
         <v>0</v>
@@ -5224,18 +6063,18 @@
       <c r="L44" s="37">
         <v>0</v>
       </c>
-      <c r="M44" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="M44" s="56">
+        <f>AVERAGE(E44:L44)*2</f>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="74"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="85"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="72"/>
       <c r="E45" s="38"/>
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
@@ -5244,15 +6083,15 @@
       <c r="J45" s="29"/>
       <c r="K45" s="32"/>
       <c r="L45" s="32"/>
-      <c r="M45" s="68"/>
+      <c r="M45" s="55"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="87"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="74"/>
       <c r="E46" s="33"/>
       <c r="F46" s="34"/>
       <c r="G46" s="34"/>
@@ -5261,15 +6100,15 @@
       <c r="J46" s="34"/>
       <c r="K46" s="37"/>
       <c r="L46" s="37"/>
-      <c r="M46" s="69"/>
+      <c r="M46" s="56"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="74"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="85"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="72"/>
       <c r="E47" s="38"/>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
@@ -5278,15 +6117,15 @@
       <c r="J47" s="29"/>
       <c r="K47" s="32"/>
       <c r="L47" s="32"/>
-      <c r="M47" s="68"/>
+      <c r="M47" s="55"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="75"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="87"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="74"/>
       <c r="E48" s="33"/>
       <c r="F48" s="34"/>
       <c r="G48" s="34"/>
@@ -5295,15 +6134,15 @@
       <c r="J48" s="34"/>
       <c r="K48" s="37"/>
       <c r="L48" s="37"/>
-      <c r="M48" s="69"/>
+      <c r="M48" s="56"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="74"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="85"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="72"/>
       <c r="E49" s="38"/>
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
@@ -5312,15 +6151,15 @@
       <c r="J49" s="29"/>
       <c r="K49" s="32"/>
       <c r="L49" s="32"/>
-      <c r="M49" s="68"/>
+      <c r="M49" s="55"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="75"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="87"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="74"/>
       <c r="E50" s="33"/>
       <c r="F50" s="34"/>
       <c r="G50" s="34"/>
@@ -5329,15 +6168,15 @@
       <c r="J50" s="34"/>
       <c r="K50" s="37"/>
       <c r="L50" s="37"/>
-      <c r="M50" s="69"/>
+      <c r="M50" s="56"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="74"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="85"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="72"/>
       <c r="E51" s="38"/>
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
@@ -5346,15 +6185,15 @@
       <c r="J51" s="29"/>
       <c r="K51" s="32"/>
       <c r="L51" s="32"/>
-      <c r="M51" s="68"/>
+      <c r="M51" s="55"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="75"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="87"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="74"/>
       <c r="E52" s="33"/>
       <c r="F52" s="34"/>
       <c r="G52" s="34"/>
@@ -5363,15 +6202,15 @@
       <c r="J52" s="34"/>
       <c r="K52" s="37"/>
       <c r="L52" s="37"/>
-      <c r="M52" s="69"/>
+      <c r="M52" s="56"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="74"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="85"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="72"/>
       <c r="E53" s="38"/>
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
@@ -5380,15 +6219,15 @@
       <c r="J53" s="29"/>
       <c r="K53" s="32"/>
       <c r="L53" s="32"/>
-      <c r="M53" s="68"/>
+      <c r="M53" s="55"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="76"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="86"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="73"/>
       <c r="E54" s="39"/>
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
@@ -5397,660 +6236,598 @@
       <c r="J54" s="40"/>
       <c r="K54" s="43"/>
       <c r="L54" s="43"/>
-      <c r="M54" s="70"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="60"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="61"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="63"/>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="G60" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="I60" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="J60" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="K60" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="L60" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="M60" s="56" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="57"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="14">
-        <f>M7</f>
-        <v>3.625</v>
-      </c>
-      <c r="K62" s="14">
-        <f t="shared" ref="K62:K84" si="13">M32</f>
-        <v>9</v>
-      </c>
-      <c r="L62" s="14"/>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="15">
-        <f>M8</f>
-        <v>2.875</v>
-      </c>
-      <c r="K63" s="15">
-        <f t="shared" si="13"/>
-        <v>2.75</v>
-      </c>
-      <c r="L63" s="15"/>
-      <c r="M63" s="6"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="16">
-        <f>M9</f>
-        <v>4.5</v>
-      </c>
-      <c r="K64" s="16">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="L64" s="16"/>
-      <c r="M64" s="9"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="15">
-        <f>M10</f>
-        <v>5</v>
-      </c>
-      <c r="K65" s="15">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="L65" s="15"/>
-      <c r="M65" s="6"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="16">
-        <f>M11</f>
-        <v>3.75</v>
-      </c>
-      <c r="K66" s="16">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="L66" s="16"/>
-      <c r="M66" s="9"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K67" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="15"/>
-      <c r="M67" s="6"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K68" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="16"/>
-      <c r="M68" s="9"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K69" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="15"/>
-      <c r="M69" s="6"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K70" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="16"/>
-      <c r="M70" s="9"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="15">
-        <f>M12</f>
-        <v>4.5</v>
-      </c>
-      <c r="K71" s="15">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="L71" s="15"/>
-      <c r="M71" s="6"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K72" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="16"/>
-      <c r="M72" s="9"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="15">
-        <f>M13</f>
-        <v>5</v>
-      </c>
-      <c r="K73" s="15">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="L73" s="15"/>
-      <c r="M73" s="6"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K74" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="16"/>
-      <c r="M74" s="9"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="15">
-        <f>M14</f>
-        <v>2.125</v>
-      </c>
-      <c r="K75" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L75" s="15"/>
-      <c r="M75" s="6"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K76" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L76" s="16"/>
-      <c r="M76" s="9"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K77" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="15"/>
-      <c r="M77" s="6"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="16">
-        <f>M15</f>
-        <v>3.75</v>
-      </c>
-      <c r="K78" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L78" s="16"/>
-      <c r="M78" s="9"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="15">
-        <f>M16</f>
-        <v>3.75</v>
-      </c>
-      <c r="K79" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L79" s="15"/>
-      <c r="M79" s="6"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="16">
-        <f>M17</f>
-        <v>3</v>
-      </c>
-      <c r="K80" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L80" s="16"/>
-      <c r="M80" s="9"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="15">
-        <f>M18</f>
-        <v>3</v>
-      </c>
-      <c r="K81" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L81" s="15"/>
-      <c r="M81" s="6"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="16">
-        <f>M19</f>
-        <v>3</v>
-      </c>
-      <c r="K82" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L82" s="16"/>
-      <c r="M82" s="9"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="15">
-        <f t="shared" ref="J83:J84" si="14">M24</f>
-        <v>0</v>
-      </c>
-      <c r="K83" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L83" s="15"/>
-      <c r="M83" s="6"/>
-    </row>
-    <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="13"/>
+      <c r="M54" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B57:K58"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
+  <mergeCells count="16">
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="B27:K28"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:L30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A62:A84 A32:A54 A7:A19" numberStoredAsText="1"/>
+    <ignoredError sqref="A32:A54 A7:A19" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="8" width="7.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="106"/>
+      <c r="F5" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="127" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+    </row>
+    <row r="7" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="109" t="str">
+        <f>'Risk Tables'!C7</f>
+        <v>Repudiation / Tamper</v>
+      </c>
+      <c r="D7" s="113" t="str">
+        <f>'Risk Tables'!D7</f>
+        <v>An attacker can tamper with the reset counter and cause the system to never reset, enabling a brute force attack.  The reset counter serves as a log of failed password attempts</v>
+      </c>
+      <c r="E7" s="114"/>
+      <c r="F7" s="124">
+        <f>'Risk Tables'!M7</f>
+        <v>3.625</v>
+      </c>
+      <c r="G7" s="124">
+        <f>'Risk Tables'!M32</f>
+        <v>9</v>
+      </c>
+      <c r="H7" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="110" t="str">
+        <f>'Risk Tables'!C8</f>
+        <v>Repudiation/Spoofing</v>
+      </c>
+      <c r="D8" s="115" t="str">
+        <f>'Risk Tables'!D8</f>
+        <v>Webserver needs to use unique USB identifier as an authenticator</v>
+      </c>
+      <c r="E8" s="116"/>
+      <c r="F8" s="125">
+        <f>'Risk Tables'!M8</f>
+        <v>2.875</v>
+      </c>
+      <c r="G8" s="125">
+        <f>'Risk Tables'!M33</f>
+        <v>2.75</v>
+      </c>
+      <c r="H8" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="111" t="str">
+        <f>'Risk Tables'!C9</f>
+        <v>Tampering</v>
+      </c>
+      <c r="D9" s="117" t="str">
+        <f>'Risk Tables'!D9</f>
+        <v>Malware infested Update</v>
+      </c>
+      <c r="E9" s="118"/>
+      <c r="F9" s="126">
+        <f>'Risk Tables'!M9</f>
+        <v>4.5</v>
+      </c>
+      <c r="G9" s="126">
+        <f>'Risk Tables'!M34</f>
+        <v>9</v>
+      </c>
+      <c r="H9" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="110" t="str">
+        <f>'Risk Tables'!C10</f>
+        <v>DOS</v>
+      </c>
+      <c r="D10" s="115" t="str">
+        <f>'Risk Tables'!D10</f>
+        <v>Theft or Loss of USB</v>
+      </c>
+      <c r="E10" s="116"/>
+      <c r="F10" s="125">
+        <f>'Risk Tables'!M10</f>
+        <v>5</v>
+      </c>
+      <c r="G10" s="125">
+        <f>'Risk Tables'!M35</f>
+        <v>9</v>
+      </c>
+      <c r="H10" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="111" t="str">
+        <f>'Risk Tables'!C11</f>
+        <v>Information Disclosure</v>
+      </c>
+      <c r="D11" s="117" t="str">
+        <f>'Risk Tables'!D11</f>
+        <v>password guess attack</v>
+      </c>
+      <c r="E11" s="118"/>
+      <c r="F11" s="126">
+        <f>'Risk Tables'!M11</f>
+        <v>3.75</v>
+      </c>
+      <c r="G11" s="126">
+        <f>'Risk Tables'!M36</f>
+        <v>9</v>
+      </c>
+      <c r="H11" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="110" t="str">
+        <f>'Risk Tables'!C12</f>
+        <v>Tampering</v>
+      </c>
+      <c r="D12" s="115" t="str">
+        <f>'Risk Tables'!D12</f>
+        <v>Spoof updated SW with older version which may have vulnerabilities, but is signed with an authentic key</v>
+      </c>
+      <c r="E12" s="116"/>
+      <c r="F12" s="125">
+        <f>'Risk Tables'!M12</f>
+        <v>4.5</v>
+      </c>
+      <c r="G12" s="125">
+        <f>'Risk Tables'!M37</f>
+        <v>9</v>
+      </c>
+      <c r="H12" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="111" t="str">
+        <f>'Risk Tables'!C13</f>
+        <v>Information Disclosure</v>
+      </c>
+      <c r="D13" s="117" t="str">
+        <f>'Risk Tables'!D13</f>
+        <v>App is used on a computer with a keystroke logger</v>
+      </c>
+      <c r="E13" s="118"/>
+      <c r="F13" s="126">
+        <f>'Risk Tables'!M13</f>
+        <v>5</v>
+      </c>
+      <c r="G13" s="126">
+        <f>'Risk Tables'!M38</f>
+        <v>9</v>
+      </c>
+      <c r="H13" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="110" t="str">
+        <f>'Risk Tables'!C14</f>
+        <v>Tampering</v>
+      </c>
+      <c r="D14" s="115" t="str">
+        <f>'Risk Tables'!D14</f>
+        <v>Modify device to “zero” factory public key, enabling malicious SW update</v>
+      </c>
+      <c r="E14" s="116"/>
+      <c r="F14" s="125">
+        <f>'Risk Tables'!M14</f>
+        <v>2.125</v>
+      </c>
+      <c r="G14" s="125">
+        <f>'Risk Tables'!M39</f>
+        <v>9</v>
+      </c>
+      <c r="H14" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="111" t="str">
+        <f>'Risk Tables'!C15</f>
+        <v>DoS</v>
+      </c>
+      <c r="D15" s="117" t="str">
+        <f>'Risk Tables'!D15</f>
+        <v>Remove power from device after it resets the counter but before it overwrites header and password file</v>
+      </c>
+      <c r="E15" s="118"/>
+      <c r="F15" s="126">
+        <f>'Risk Tables'!M15</f>
+        <v>3.75</v>
+      </c>
+      <c r="G15" s="126">
+        <f>'Risk Tables'!M40</f>
+        <v>9</v>
+      </c>
+      <c r="H15" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="110" t="str">
+        <f>'Risk Tables'!C16</f>
+        <v>Elevation of Privilege</v>
+      </c>
+      <c r="D16" s="115" t="str">
+        <f>'Risk Tables'!D16</f>
+        <v>Request device reset and remove power after the header file is rewritten but before the password file is rewritten to allow access to encrypted password file for offline attacks.</v>
+      </c>
+      <c r="E16" s="116"/>
+      <c r="F16" s="125">
+        <f>'Risk Tables'!M16</f>
+        <v>3.75</v>
+      </c>
+      <c r="G16" s="125">
+        <f>'Risk Tables'!M41</f>
+        <v>9</v>
+      </c>
+      <c r="H16" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="111" t="str">
+        <f>'Risk Tables'!C17</f>
+        <v>Information Disclosure</v>
+      </c>
+      <c r="D17" s="117" t="str">
+        <f>'Risk Tables'!D17</f>
+        <v>Fuzz USB commands to discover readable and/or writeable device memory</v>
+      </c>
+      <c r="E17" s="118"/>
+      <c r="F17" s="126">
+        <f>'Risk Tables'!M17</f>
+        <v>3</v>
+      </c>
+      <c r="G17" s="126">
+        <f>'Risk Tables'!M42</f>
+        <v>2.75</v>
+      </c>
+      <c r="H17" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="110" t="str">
+        <f>'Risk Tables'!C18</f>
+        <v>Elevation of Privilege</v>
+      </c>
+      <c r="D18" s="115" t="str">
+        <f>'Risk Tables'!D18</f>
+        <v>Fuzz USB commands to cause unpredictable behavior and/or discover point of entry to gain execution</v>
+      </c>
+      <c r="E18" s="116"/>
+      <c r="F18" s="125">
+        <f>'Risk Tables'!M18</f>
+        <v>3</v>
+      </c>
+      <c r="G18" s="125">
+        <f>'Risk Tables'!M43</f>
+        <v>2.75</v>
+      </c>
+      <c r="H18" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="111" t="str">
+        <f>'Risk Tables'!C19</f>
+        <v>Information Disclosure</v>
+      </c>
+      <c r="D19" s="117" t="str">
+        <f>'Risk Tables'!D19</f>
+        <v>Reset the device, obtain secure session with own credentials, and excavate available memory locations for old users’ password files</v>
+      </c>
+      <c r="E19" s="118"/>
+      <c r="F19" s="126">
+        <f>'Risk Tables'!M19</f>
+        <v>3</v>
+      </c>
+      <c r="G19" s="126">
+        <f>'Risk Tables'!M44</f>
+        <v>5</v>
+      </c>
+      <c r="H19" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="110"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="30"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="111"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="35"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="110"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="30"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="111"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="35"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="110"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="111"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="35"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="110"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="30"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="111"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="35"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="110"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="112"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="C2:H3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H7:H29">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B8:B29 B7:G7" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
@@ -6073,48 +6850,48 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="56" t="s">
+      <c r="I2" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="78" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -6458,16 +7235,560 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H34" sqref="C4:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="9" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="91"/>
+    </row>
+    <row r="5" spans="3:9" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="H5" s="92" t="s">
+        <v>264</v>
+      </c>
+      <c r="I5" s="92" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="94"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
+    </row>
+    <row r="7" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="98"/>
+      <c r="D7" s="92" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+    </row>
+    <row r="8" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="98"/>
+      <c r="D8" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="99"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="96"/>
+    </row>
+    <row r="9" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="98"/>
+      <c r="D9" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="95"/>
+    </row>
+    <row r="10" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="100"/>
+      <c r="D10" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="101"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="95"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+    </row>
+    <row r="12" spans="3:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="103" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="103" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="103" t="s">
+        <v>254</v>
+      </c>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+    </row>
+    <row r="13" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="97"/>
+      <c r="E13" s="104">
+        <v>1</v>
+      </c>
+      <c r="F13" s="104" t="s">
+        <v>255</v>
+      </c>
+      <c r="G13" s="104"/>
+    </row>
+    <row r="14" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="96"/>
+      <c r="E14" s="104">
+        <v>2</v>
+      </c>
+      <c r="F14" s="104" t="s">
+        <v>256</v>
+      </c>
+      <c r="G14" s="104"/>
+    </row>
+    <row r="15" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="95"/>
+      <c r="E15" s="104">
+        <v>3</v>
+      </c>
+      <c r="F15" s="104" t="s">
+        <v>257</v>
+      </c>
+      <c r="G15" s="104"/>
+    </row>
+    <row r="16" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="94"/>
+      <c r="E16" s="104">
+        <v>4</v>
+      </c>
+      <c r="F16" s="104" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="104"/>
+    </row>
+    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="99"/>
+      <c r="E17" s="104">
+        <v>5</v>
+      </c>
+      <c r="F17" s="104" t="s">
+        <v>259</v>
+      </c>
+      <c r="G17" s="104"/>
+    </row>
+    <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="101"/>
+      <c r="E18" s="104">
+        <v>6</v>
+      </c>
+      <c r="F18" s="104" t="s">
+        <v>260</v>
+      </c>
+      <c r="G18" s="104"/>
+    </row>
+    <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="131" t="s">
+        <v>250</v>
+      </c>
+      <c r="G21" s="131" t="s">
+        <v>249</v>
+      </c>
+      <c r="H21" s="132" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="133" t="str">
+        <f>'Threat Summary Table'!B7</f>
+        <v>001</v>
+      </c>
+      <c r="D22" s="134" t="str">
+        <f>'Threat Summary Table'!C7</f>
+        <v>Repudiation / Tamper</v>
+      </c>
+      <c r="E22" s="134" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" s="137">
+        <f>'Threat Summary Table'!F7</f>
+        <v>3.625</v>
+      </c>
+      <c r="G22" s="135">
+        <f>'Threat Summary Table'!G7</f>
+        <v>9</v>
+      </c>
+      <c r="H22" s="136">
+        <f>'Threat Summary Table'!H7</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" s="133" t="str">
+        <f>'Threat Summary Table'!B8</f>
+        <v>002</v>
+      </c>
+      <c r="D23" s="134" t="str">
+        <f>'Threat Summary Table'!C8</f>
+        <v>Repudiation/Spoofing</v>
+      </c>
+      <c r="E23" s="134" t="s">
+        <v>273</v>
+      </c>
+      <c r="F23" s="137">
+        <f>'Threat Summary Table'!F8</f>
+        <v>2.875</v>
+      </c>
+      <c r="G23" s="135">
+        <f>'Threat Summary Table'!G8</f>
+        <v>2.75</v>
+      </c>
+      <c r="H23" s="136">
+        <f>'Threat Summary Table'!H8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="133" t="str">
+        <f>'Threat Summary Table'!B9</f>
+        <v>003</v>
+      </c>
+      <c r="D24" s="134" t="str">
+        <f>'Threat Summary Table'!C9</f>
+        <v>Tampering</v>
+      </c>
+      <c r="E24" s="134" t="s">
+        <v>274</v>
+      </c>
+      <c r="F24" s="137">
+        <f>'Threat Summary Table'!F9</f>
+        <v>4.5</v>
+      </c>
+      <c r="G24" s="135">
+        <f>'Threat Summary Table'!G9</f>
+        <v>9</v>
+      </c>
+      <c r="H24" s="136">
+        <f>'Threat Summary Table'!H9</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="133" t="str">
+        <f>'Threat Summary Table'!B10</f>
+        <v>004</v>
+      </c>
+      <c r="D25" s="134" t="str">
+        <f>'Threat Summary Table'!C10</f>
+        <v>DOS</v>
+      </c>
+      <c r="E25" s="134" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="137">
+        <f>'Threat Summary Table'!F10</f>
+        <v>5</v>
+      </c>
+      <c r="G25" s="135">
+        <f>'Threat Summary Table'!G10</f>
+        <v>9</v>
+      </c>
+      <c r="H25" s="136">
+        <f>'Threat Summary Table'!H10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="133" t="str">
+        <f>'Threat Summary Table'!B11</f>
+        <v>005</v>
+      </c>
+      <c r="D26" s="134" t="str">
+        <f>'Threat Summary Table'!C11</f>
+        <v>Information Disclosure</v>
+      </c>
+      <c r="E26" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="137">
+        <f>'Threat Summary Table'!F11</f>
+        <v>3.75</v>
+      </c>
+      <c r="G26" s="135">
+        <f>'Threat Summary Table'!G11</f>
+        <v>9</v>
+      </c>
+      <c r="H26" s="136">
+        <f>'Threat Summary Table'!H11</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C27" s="133" t="str">
+        <f>'Threat Summary Table'!B12</f>
+        <v>006</v>
+      </c>
+      <c r="D27" s="134" t="str">
+        <f>'Threat Summary Table'!C12</f>
+        <v>Tampering</v>
+      </c>
+      <c r="E27" s="134" t="s">
+        <v>276</v>
+      </c>
+      <c r="F27" s="137">
+        <f>'Threat Summary Table'!F12</f>
+        <v>4.5</v>
+      </c>
+      <c r="G27" s="135">
+        <f>'Threat Summary Table'!G12</f>
+        <v>9</v>
+      </c>
+      <c r="H27" s="136">
+        <f>'Threat Summary Table'!H12</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="133" t="str">
+        <f>'Threat Summary Table'!B13</f>
+        <v>007</v>
+      </c>
+      <c r="D28" s="134" t="str">
+        <f>'Threat Summary Table'!C13</f>
+        <v>Information Disclosure</v>
+      </c>
+      <c r="E28" s="134" t="s">
+        <v>277</v>
+      </c>
+      <c r="F28" s="137">
+        <f>'Threat Summary Table'!F13</f>
+        <v>5</v>
+      </c>
+      <c r="G28" s="135">
+        <f>'Threat Summary Table'!G13</f>
+        <v>9</v>
+      </c>
+      <c r="H28" s="136">
+        <f>'Threat Summary Table'!H13</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="133" t="str">
+        <f>'Threat Summary Table'!B14</f>
+        <v>008</v>
+      </c>
+      <c r="D29" s="134" t="str">
+        <f>'Threat Summary Table'!C14</f>
+        <v>Tampering</v>
+      </c>
+      <c r="E29" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="F29" s="137">
+        <f>'Threat Summary Table'!F14</f>
+        <v>2.125</v>
+      </c>
+      <c r="G29" s="135">
+        <f>'Threat Summary Table'!G14</f>
+        <v>9</v>
+      </c>
+      <c r="H29" s="136">
+        <f>'Threat Summary Table'!H14</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C30" s="133" t="str">
+        <f>'Threat Summary Table'!B15</f>
+        <v>009</v>
+      </c>
+      <c r="D30" s="134" t="str">
+        <f>'Threat Summary Table'!C15</f>
+        <v>DoS</v>
+      </c>
+      <c r="E30" s="134" t="s">
+        <v>279</v>
+      </c>
+      <c r="F30" s="137">
+        <f>'Threat Summary Table'!F15</f>
+        <v>3.75</v>
+      </c>
+      <c r="G30" s="135">
+        <f>'Threat Summary Table'!G15</f>
+        <v>9</v>
+      </c>
+      <c r="H30" s="136">
+        <f>'Threat Summary Table'!H15</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C31" s="133" t="str">
+        <f>'Threat Summary Table'!B16</f>
+        <v>010</v>
+      </c>
+      <c r="D31" s="134" t="str">
+        <f>'Threat Summary Table'!C16</f>
+        <v>Elevation of Privilege</v>
+      </c>
+      <c r="E31" s="134" t="s">
+        <v>280</v>
+      </c>
+      <c r="F31" s="137">
+        <f>'Threat Summary Table'!F16</f>
+        <v>3.75</v>
+      </c>
+      <c r="G31" s="135">
+        <f>'Threat Summary Table'!G16</f>
+        <v>9</v>
+      </c>
+      <c r="H31" s="136">
+        <f>'Threat Summary Table'!H16</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" s="133" t="str">
+        <f>'Threat Summary Table'!B17</f>
+        <v>011</v>
+      </c>
+      <c r="D32" s="134" t="str">
+        <f>'Threat Summary Table'!C17</f>
+        <v>Information Disclosure</v>
+      </c>
+      <c r="E32" s="134" t="s">
+        <v>281</v>
+      </c>
+      <c r="F32" s="137">
+        <f>'Threat Summary Table'!F17</f>
+        <v>3</v>
+      </c>
+      <c r="G32" s="135">
+        <f>'Threat Summary Table'!G17</f>
+        <v>2.75</v>
+      </c>
+      <c r="H32" s="136">
+        <f>'Threat Summary Table'!H17</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C33" s="133" t="str">
+        <f>'Threat Summary Table'!B18</f>
+        <v>012</v>
+      </c>
+      <c r="D33" s="134" t="str">
+        <f>'Threat Summary Table'!C18</f>
+        <v>Elevation of Privilege</v>
+      </c>
+      <c r="E33" s="134" t="s">
+        <v>282</v>
+      </c>
+      <c r="F33" s="137">
+        <f>'Threat Summary Table'!F18</f>
+        <v>3</v>
+      </c>
+      <c r="G33" s="135">
+        <f>'Threat Summary Table'!G18</f>
+        <v>2.75</v>
+      </c>
+      <c r="H33" s="136">
+        <f>'Threat Summary Table'!H18</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C34" s="133" t="str">
+        <f>'Threat Summary Table'!B19</f>
+        <v>013</v>
+      </c>
+      <c r="D34" s="134" t="str">
+        <f>'Threat Summary Table'!C19</f>
+        <v>Information Disclosure</v>
+      </c>
+      <c r="E34" s="134" t="s">
+        <v>283</v>
+      </c>
+      <c r="F34" s="137">
+        <f>'Threat Summary Table'!F19</f>
+        <v>3</v>
+      </c>
+      <c r="G34" s="135">
+        <f>'Threat Summary Table'!G19</f>
+        <v>5</v>
+      </c>
+      <c r="H34" s="136">
+        <f>'Threat Summary Table'!H19</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C6:C10"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H22:H34">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel table/threat_risk_tables_main1.xlsx
+++ b/excel table/threat_risk_tables_main1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table of Threats'!$C$2:$I$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table of Threats'!$C$2:$I$59</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="288">
   <si>
     <t>Diagram Element</t>
   </si>
@@ -548,18 +548,12 @@
     <t>john</t>
   </si>
   <si>
-    <t>1.24 Write new key and files to USB memory</t>
-  </si>
-  <si>
     <t>1.2 Plugin USB dev.</t>
   </si>
   <si>
     <t>The real USB is switched with the fake one which has the keylogging function</t>
   </si>
   <si>
-    <t>Mark the USB dev. Physically</t>
-  </si>
-  <si>
     <t>1.7 Update Downloaded</t>
   </si>
   <si>
@@ -773,9 +767,6 @@
     <t>(N) - similar Fu 002</t>
   </si>
   <si>
-    <t>(N) - assume OSi secure and similar passed 003</t>
-  </si>
-  <si>
     <t>(N) - similar MI 002</t>
   </si>
   <si>
@@ -918,6 +909,27 @@
   </si>
   <si>
     <t>Excavate old data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEED CLARIFICATION From John </t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>Mark the USB dev. Physically. Employ Two-factor authenticator such as unique user-chosen picture</t>
+  </si>
+  <si>
+    <t>(N) similar to threat 3</t>
+  </si>
+  <si>
+    <t>attacker hijacks user key in transit</t>
+  </si>
+  <si>
+    <t>(N)</t>
+  </si>
+  <si>
+    <t>(N) similar to MITM attack</t>
   </si>
 </sst>
 </file>
@@ -1650,54 +1662,9 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1710,15 +1677,9 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1731,18 +1692,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1755,30 +1704,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1796,12 +1721,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1825,6 +1744,99 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2624,36 +2636,36 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="107" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2947,11 +2959,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2970,46 +2981,46 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="78" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="78" t="s">
+      <c r="G2" s="107" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="107" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-    </row>
-    <row r="4" spans="1:9" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+    </row>
+    <row r="4" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3017,7 +3028,7 @@
         <v>98</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>96</v>
@@ -3026,17 +3037,17 @@
         <v>97</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -3047,23 +3058,23 @@
         <v>70</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E5" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="45" t="s">
-        <v>226</v>
-      </c>
       <c r="G5" s="45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="76" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -3083,14 +3094,14 @@
         <v>72</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="77" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -3104,20 +3115,20 @@
         <v>73</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="76" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -3137,14 +3148,14 @@
         <v>75</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="77" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -3164,14 +3175,14 @@
         <v>102</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="76" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -3189,14 +3200,14 @@
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="77" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -3216,14 +3227,14 @@
         <v>118</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="76" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -3243,14 +3254,14 @@
         <v>120</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="77" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -3270,14 +3281,14 @@
         <v>123</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="76" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -3297,14 +3308,14 @@
         <v>126</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="77" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -3324,14 +3335,14 @@
         <v>118</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="76" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
@@ -3356,7 +3367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -3376,17 +3387,17 @@
         <v>133</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="76" t="s">
         <v>18</v>
       </c>
       <c r="K17" s="45" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
@@ -3406,17 +3417,17 @@
         <v>136</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="77" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3436,17 +3447,17 @@
         <v>139</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="76" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
@@ -3463,17 +3474,17 @@
         <v>141</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="77" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3496,17 +3507,17 @@
         <v>142</v>
       </c>
       <c r="G21" s="45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="76" t="s">
         <v>22</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -3526,14 +3537,14 @@
         <v>148</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="77" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3556,17 +3567,17 @@
         <v>150</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="76" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="45" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>25</v>
       </c>
@@ -3586,17 +3597,17 @@
         <v>153</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="77" t="s">
         <v>25</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
@@ -3616,17 +3627,17 @@
         <v>136</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="76" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="45" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
@@ -3645,79 +3656,95 @@
       <c r="F26" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="53" t="s">
+        <v>281</v>
+      </c>
       <c r="H26" s="34"/>
       <c r="I26" s="77" t="s">
         <v>27</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>167</v>
+        <v>282</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
+        <v>161</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>220</v>
+      </c>
       <c r="H27" s="29"/>
       <c r="I27" s="76" t="s">
         <v>167</v>
       </c>
       <c r="K27" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
+        <v>162</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>284</v>
+      </c>
       <c r="H28" s="34"/>
       <c r="I28" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="K28" s="44"/>
-    </row>
-    <row r="29" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="G29" s="45"/>
       <c r="H29" s="29"/>
@@ -3725,80 +3752,72 @@
         <v>169</v>
       </c>
       <c r="K29" s="45" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>166</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="F30" s="44"/>
       <c r="G30" s="44"/>
       <c r="H30" s="34"/>
       <c r="I30" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="K30" s="44" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="44"/>
+    </row>
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>68</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="F31" s="45" t="s">
-        <v>203</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="F31" s="45"/>
       <c r="G31" s="45"/>
       <c r="H31" s="29"/>
       <c r="I31" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="K31" s="45" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="45"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D32" s="34" t="s">
         <v>68</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
@@ -3808,15 +3827,15 @@
       </c>
       <c r="K32" s="44"/>
     </row>
-    <row r="33" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>68</v>
@@ -3832,15 +3851,15 @@
       </c>
       <c r="K33" s="45"/>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D34" s="34" t="s">
         <v>68</v>
@@ -3856,15 +3875,15 @@
       </c>
       <c r="K34" s="44"/>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>68</v>
@@ -3880,15 +3899,15 @@
       </c>
       <c r="K35" s="45"/>
     </row>
-    <row r="36" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D36" s="34" t="s">
         <v>68</v>
@@ -3904,15 +3923,15 @@
       </c>
       <c r="K36" s="44"/>
     </row>
-    <row r="37" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>68</v>
@@ -3928,15 +3947,15 @@
       </c>
       <c r="K37" s="45"/>
     </row>
-    <row r="38" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D38" s="34" t="s">
         <v>68</v>
@@ -3952,45 +3971,51 @@
       </c>
       <c r="K38" s="44"/>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>68</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
+        <v>285</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>286</v>
+      </c>
       <c r="H39" s="29"/>
       <c r="I39" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="K39" s="45"/>
-    </row>
-    <row r="40" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D40" s="34" t="s">
         <v>68</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F40" s="44"/>
       <c r="G40" s="44"/>
@@ -3998,89 +4023,67 @@
       <c r="I40" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="K40" s="44"/>
-    </row>
-    <row r="41" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="45">
+        <v>1.7</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="F41" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="G41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45" t="s">
+        <v>287</v>
+      </c>
       <c r="H41" s="29"/>
       <c r="I41" s="76" t="s">
         <v>181</v>
       </c>
       <c r="K41" s="45" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>218</v>
-      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="44"/>
       <c r="F42" s="44"/>
       <c r="G42" s="44"/>
       <c r="H42" s="34"/>
-      <c r="I42" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="K42" s="44" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="77"/>
+      <c r="K42" s="44"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="45">
-        <v>1.7</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>219</v>
-      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="45"/>
       <c r="G43" s="45"/>
       <c r="H43" s="29"/>
-      <c r="I43" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="K43" s="45" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="76"/>
+      <c r="K43" s="45"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>184</v>
       </c>
@@ -4092,9 +4095,8 @@
       <c r="G44" s="44"/>
       <c r="H44" s="34"/>
       <c r="I44" s="77"/>
-      <c r="K44" s="44"/>
-    </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>185</v>
       </c>
@@ -4106,9 +4108,8 @@
       <c r="G45" s="45"/>
       <c r="H45" s="29"/>
       <c r="I45" s="76"/>
-      <c r="K45" s="45"/>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>186</v>
       </c>
@@ -4121,7 +4122,7 @@
       <c r="H46" s="34"/>
       <c r="I46" s="77"/>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>187</v>
       </c>
@@ -4134,7 +4135,7 @@
       <c r="H47" s="29"/>
       <c r="I47" s="76"/>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>188</v>
       </c>
@@ -4147,7 +4148,7 @@
       <c r="H48" s="34"/>
       <c r="I48" s="77"/>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>189</v>
       </c>
@@ -4160,7 +4161,7 @@
       <c r="H49" s="29"/>
       <c r="I49" s="76"/>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>190</v>
       </c>
@@ -4173,7 +4174,7 @@
       <c r="H50" s="34"/>
       <c r="I50" s="77"/>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>191</v>
       </c>
@@ -4186,7 +4187,7 @@
       <c r="H51" s="29"/>
       <c r="I51" s="76"/>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>192</v>
       </c>
@@ -4199,7 +4200,7 @@
       <c r="H52" s="34"/>
       <c r="I52" s="77"/>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>193</v>
       </c>
@@ -4212,7 +4213,7 @@
       <c r="H53" s="29"/>
       <c r="I53" s="76"/>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>194</v>
       </c>
@@ -4225,7 +4226,7 @@
       <c r="H54" s="34"/>
       <c r="I54" s="77"/>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>195</v>
       </c>
@@ -4238,7 +4239,7 @@
       <c r="H55" s="29"/>
       <c r="I55" s="76"/>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>196</v>
       </c>
@@ -4251,7 +4252,7 @@
       <c r="H56" s="34"/>
       <c r="I56" s="77"/>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>197</v>
       </c>
@@ -4264,8 +4265,8 @@
       <c r="H57" s="29"/>
       <c r="I57" s="76"/>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B58" s="20"/>
@@ -4275,10 +4276,10 @@
       <c r="F58" s="44"/>
       <c r="G58" s="44"/>
       <c r="H58" s="34"/>
-      <c r="I58" s="77"/>
-    </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="I58" s="35"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B59" s="19"/>
@@ -4288,12 +4289,10 @@
       <c r="F59" s="45"/>
       <c r="G59" s="45"/>
       <c r="H59" s="29"/>
-      <c r="I59" s="76"/>
-    </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>200</v>
-      </c>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
       <c r="B60" s="20"/>
       <c r="C60" s="44"/>
       <c r="D60" s="34"/>
@@ -4303,10 +4302,8 @@
       <c r="H60" s="34"/>
       <c r="I60" s="35"/>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>201</v>
-      </c>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
       <c r="B61" s="19"/>
       <c r="C61" s="45"/>
       <c r="D61" s="29"/>
@@ -4482,117 +4479,89 @@
       <c r="I76" s="35"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="30"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="35"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C79" s="52" t="s">
+      <c r="C77" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D77" t="s">
         <v>76</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E77" t="s">
         <v>158</v>
       </c>
-      <c r="F79" s="52" t="s">
+      <c r="F77" s="52" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C80" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" s="52" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="D82" t="s">
+        <v>86</v>
       </c>
       <c r="E82" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" s="52" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D83" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E83" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" s="52" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D84" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" s="52" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D85" t="s">
-        <v>87</v>
-      </c>
-      <c r="E85" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" s="52" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>88</v>
-      </c>
-      <c r="E86" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C87" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D87" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C88" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D88" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:I61">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Elevation of Privilege"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C2:I59"/>
   <mergeCells count="9">
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
@@ -4606,7 +4575,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A4:A26 A62 A27:A61 I4:I5 I6:I43" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:A26 A60 A42:A59 I4:I5 I6:I26 I27:I41 A27:A41" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4615,8 +4584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4634,66 +4603,66 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="82"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="114"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="E5" s="86" t="s">
+      <c r="D5" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="86" t="s">
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="78" t="s">
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="107" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
       <c r="E6" s="22" t="s">
         <v>50</v>
       </c>
@@ -4718,7 +4687,7 @@
       <c r="L6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="79"/>
+      <c r="M6" s="108"/>
     </row>
     <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4761,7 +4730,7 @@
         <v>9</v>
       </c>
       <c r="M7" s="54">
-        <f>AVERAGE(E7:L7)</f>
+        <f t="shared" ref="M7:M20" si="0">AVERAGE(E7:L7)</f>
         <v>3.625</v>
       </c>
     </row>
@@ -4806,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="55">
-        <f>AVERAGE(E8:L8)</f>
+        <f t="shared" si="0"/>
         <v>2.875</v>
       </c>
     </row>
@@ -4851,7 +4820,7 @@
         <v>3</v>
       </c>
       <c r="M9" s="56">
-        <f>AVERAGE(E9:L9)</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
@@ -4896,7 +4865,7 @@
         <v>9</v>
       </c>
       <c r="M10" s="55">
-        <f>AVERAGE(E10:L10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -4941,7 +4910,7 @@
         <v>9</v>
       </c>
       <c r="M11" s="56">
-        <f>AVERAGE(E11:L11)</f>
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
     </row>
@@ -4986,7 +4955,7 @@
         <v>3</v>
       </c>
       <c r="M12" s="55">
-        <f>AVERAGE(E12:L12)</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
@@ -5031,7 +5000,7 @@
         <v>9</v>
       </c>
       <c r="M13" s="56">
-        <f>AVERAGE(E13:L13)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -5076,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="55">
-        <f>AVERAGE(E14:L14)</f>
+        <f t="shared" si="0"/>
         <v>2.125</v>
       </c>
     </row>
@@ -5121,7 +5090,7 @@
         <v>9</v>
       </c>
       <c r="M15" s="56">
-        <f>AVERAGE(E15:L15)</f>
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
     </row>
@@ -5166,7 +5135,7 @@
         <v>9</v>
       </c>
       <c r="M16" s="55">
-        <f>AVERAGE(E16:L16)</f>
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
     </row>
@@ -5211,7 +5180,7 @@
         <v>9</v>
       </c>
       <c r="M17" s="56">
-        <f>AVERAGE(E17:L17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -5256,7 +5225,7 @@
         <v>9</v>
       </c>
       <c r="M18" s="55">
-        <f>AVERAGE(E18:L18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -5301,28 +5270,58 @@
         <v>9</v>
       </c>
       <c r="M19" s="56">
-        <f>AVERAGE(E19:L19)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="55"/>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="19" t="str">
+        <f>'Table of Threats'!A27</f>
+        <v>024</v>
+      </c>
+      <c r="C20" s="64" t="str">
+        <f>'Table of Threats'!D27</f>
+        <v>Spoofing</v>
+      </c>
+      <c r="D20" s="69" t="str">
+        <f>'Table of Threats'!E27</f>
+        <v>The real USB is switched with the fake one which has the keylogging function</v>
+      </c>
+      <c r="E20" s="38">
+        <v>6</v>
+      </c>
+      <c r="F20" s="29">
+        <v>4</v>
+      </c>
+      <c r="G20" s="29">
+        <v>0</v>
+      </c>
+      <c r="H20" s="30">
+        <v>2</v>
+      </c>
+      <c r="I20" s="31">
+        <v>7</v>
+      </c>
+      <c r="J20" s="29">
+        <v>2</v>
+      </c>
+      <c r="K20" s="32">
+        <v>6</v>
+      </c>
+      <c r="L20" s="32">
+        <v>9</v>
+      </c>
+      <c r="M20" s="55">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="65"/>
       <c r="D21" s="67"/>
       <c r="E21" s="33"/>
@@ -5337,7 +5336,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="64"/>
       <c r="D22" s="69"/>
       <c r="E22" s="38"/>
@@ -5352,7 +5351,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="65"/>
       <c r="D23" s="67"/>
       <c r="E23" s="33"/>
@@ -5397,66 +5396,66 @@
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="82"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="111"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="114"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="E30" s="86" t="s">
+      <c r="D30" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="E30" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="86" t="s">
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="78" t="s">
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="107" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="79"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
       <c r="E31" s="22" t="s">
         <v>58</v>
       </c>
@@ -5481,22 +5480,22 @@
       <c r="L31" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M31" s="79"/>
+      <c r="M31" s="108"/>
     </row>
     <row r="32" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="58" t="str">
-        <f>B7</f>
+        <f t="shared" ref="B32:D44" si="1">B7</f>
         <v>001</v>
       </c>
       <c r="C32" s="60" t="str">
-        <f>C7</f>
+        <f t="shared" si="1"/>
         <v>Repudiation / Tamper</v>
       </c>
       <c r="D32" s="71" t="str">
-        <f>D7</f>
+        <f t="shared" si="1"/>
         <v>An attacker can tamper with the reset counter and cause the system to never reset, enabling a brute force attack.  The reset counter serves as a log of failed password attempts</v>
       </c>
       <c r="E32" s="23">
@@ -5524,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="54">
-        <f>AVERAGE(E32:L32)*2</f>
+        <f t="shared" ref="M32:M45" si="2">AVERAGE(E32:L32)*2</f>
         <v>9</v>
       </c>
     </row>
@@ -5533,15 +5532,15 @@
         <v>6</v>
       </c>
       <c r="B33" s="61" t="str">
-        <f>B8</f>
+        <f t="shared" si="1"/>
         <v>002</v>
       </c>
       <c r="C33" s="64" t="str">
-        <f>C8</f>
+        <f t="shared" si="1"/>
         <v>Repudiation/Spoofing</v>
       </c>
       <c r="D33" s="72" t="str">
-        <f>D8</f>
+        <f t="shared" si="1"/>
         <v>Webserver needs to use unique USB identifier as an authenticator</v>
       </c>
       <c r="E33" s="28">
@@ -5569,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="55">
-        <f>AVERAGE(E33:L33)*2</f>
+        <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
     </row>
@@ -5578,15 +5577,15 @@
         <v>7</v>
       </c>
       <c r="B34" s="62" t="str">
-        <f>B9</f>
+        <f t="shared" si="1"/>
         <v>003</v>
       </c>
       <c r="C34" s="65" t="str">
-        <f>C9</f>
+        <f t="shared" si="1"/>
         <v>Tampering</v>
       </c>
       <c r="D34" s="74" t="str">
-        <f>D9</f>
+        <f t="shared" si="1"/>
         <v>Malware infested Update</v>
       </c>
       <c r="E34" s="33">
@@ -5614,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="56">
-        <f>AVERAGE(E34:L34)*2</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -5623,15 +5622,15 @@
         <v>8</v>
       </c>
       <c r="B35" s="61" t="str">
-        <f>B10</f>
+        <f t="shared" si="1"/>
         <v>004</v>
       </c>
       <c r="C35" s="64" t="str">
-        <f>C10</f>
+        <f t="shared" si="1"/>
         <v>DOS</v>
       </c>
       <c r="D35" s="72" t="str">
-        <f>D10</f>
+        <f t="shared" si="1"/>
         <v>Theft or Loss of USB</v>
       </c>
       <c r="E35" s="38">
@@ -5659,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="55">
-        <f>AVERAGE(E35:L35)*2</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -5668,15 +5667,15 @@
         <v>9</v>
       </c>
       <c r="B36" s="62" t="str">
-        <f>B11</f>
+        <f t="shared" si="1"/>
         <v>005</v>
       </c>
       <c r="C36" s="65" t="str">
-        <f>C11</f>
+        <f t="shared" si="1"/>
         <v>Information Disclosure</v>
       </c>
       <c r="D36" s="74" t="str">
-        <f>D11</f>
+        <f t="shared" si="1"/>
         <v>password guess attack</v>
       </c>
       <c r="E36" s="33">
@@ -5704,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="56">
-        <f>AVERAGE(E36:L36)*2</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -5713,15 +5712,15 @@
         <v>10</v>
       </c>
       <c r="B37" s="61" t="str">
-        <f>B12</f>
+        <f t="shared" si="1"/>
         <v>010</v>
       </c>
       <c r="C37" s="64" t="str">
-        <f>C12</f>
+        <f t="shared" si="1"/>
         <v>Tampering</v>
       </c>
       <c r="D37" s="72" t="str">
-        <f>D12</f>
+        <f t="shared" si="1"/>
         <v>Spoof updated SW with older version which may have vulnerabilities, but is signed with an authentic key</v>
       </c>
       <c r="E37" s="38">
@@ -5749,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="55">
-        <f>AVERAGE(E37:L37)*2</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -5758,15 +5757,15 @@
         <v>11</v>
       </c>
       <c r="B38" s="62" t="str">
-        <f>B13</f>
+        <f t="shared" si="1"/>
         <v>012</v>
       </c>
       <c r="C38" s="65" t="str">
-        <f>C13</f>
+        <f t="shared" si="1"/>
         <v>Information Disclosure</v>
       </c>
       <c r="D38" s="74" t="str">
-        <f>D13</f>
+        <f t="shared" si="1"/>
         <v>App is used on a computer with a keystroke logger</v>
       </c>
       <c r="E38" s="33">
@@ -5794,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="56">
-        <f>AVERAGE(E38:L38)*2</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -5803,15 +5802,15 @@
         <v>12</v>
       </c>
       <c r="B39" s="61" t="str">
-        <f>B14</f>
+        <f t="shared" si="1"/>
         <v>014</v>
       </c>
       <c r="C39" s="64" t="str">
-        <f>C14</f>
+        <f t="shared" si="1"/>
         <v>Tampering</v>
       </c>
       <c r="D39" s="72" t="str">
-        <f>D14</f>
+        <f t="shared" si="1"/>
         <v>Modify device to “zero” factory public key, enabling malicious SW update</v>
       </c>
       <c r="E39" s="38">
@@ -5839,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="55">
-        <f>AVERAGE(E39:L39)*2</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -5848,15 +5847,15 @@
         <v>13</v>
       </c>
       <c r="B40" s="62" t="str">
-        <f>B15</f>
+        <f t="shared" si="1"/>
         <v>017</v>
       </c>
       <c r="C40" s="65" t="str">
-        <f>C15</f>
+        <f t="shared" si="1"/>
         <v>DoS</v>
       </c>
       <c r="D40" s="74" t="str">
-        <f>D15</f>
+        <f t="shared" si="1"/>
         <v>Remove power from device after it resets the counter but before it overwrites header and password file</v>
       </c>
       <c r="E40" s="33">
@@ -5884,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="56">
-        <f>AVERAGE(E40:L40)*2</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -5893,15 +5892,15 @@
         <v>14</v>
       </c>
       <c r="B41" s="61" t="str">
-        <f>B16</f>
+        <f t="shared" si="1"/>
         <v>018</v>
       </c>
       <c r="C41" s="64" t="str">
-        <f>C16</f>
+        <f t="shared" si="1"/>
         <v>Elevation of Privilege</v>
       </c>
       <c r="D41" s="72" t="str">
-        <f>D16</f>
+        <f t="shared" si="1"/>
         <v>Request device reset and remove power after the header file is rewritten but before the password file is rewritten to allow access to encrypted password file for offline attacks.</v>
       </c>
       <c r="E41" s="38">
@@ -5929,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="55">
-        <f>AVERAGE(E41:L41)*2</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -5938,15 +5937,15 @@
         <v>15</v>
       </c>
       <c r="B42" s="62" t="str">
-        <f>B17</f>
+        <f t="shared" si="1"/>
         <v>019</v>
       </c>
       <c r="C42" s="65" t="str">
-        <f>C17</f>
+        <f t="shared" si="1"/>
         <v>Information Disclosure</v>
       </c>
       <c r="D42" s="74" t="str">
-        <f>D17</f>
+        <f t="shared" si="1"/>
         <v>Fuzz USB commands to discover readable and/or writeable device memory</v>
       </c>
       <c r="E42" s="33">
@@ -5974,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="56">
-        <f>AVERAGE(E42:L42)*2</f>
+        <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
     </row>
@@ -5983,15 +5982,15 @@
         <v>16</v>
       </c>
       <c r="B43" s="61" t="str">
-        <f>B18</f>
+        <f t="shared" si="1"/>
         <v>020</v>
       </c>
       <c r="C43" s="64" t="str">
-        <f>C18</f>
+        <f t="shared" si="1"/>
         <v>Elevation of Privilege</v>
       </c>
       <c r="D43" s="72" t="str">
-        <f>D18</f>
+        <f t="shared" si="1"/>
         <v>Fuzz USB commands to cause unpredictable behavior and/or discover point of entry to gain execution</v>
       </c>
       <c r="E43" s="38">
@@ -6019,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="55">
-        <f>AVERAGE(E43:L43)*2</f>
+        <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
     </row>
@@ -6028,15 +6027,15 @@
         <v>17</v>
       </c>
       <c r="B44" s="62" t="str">
-        <f>B19</f>
+        <f t="shared" si="1"/>
         <v>021</v>
       </c>
       <c r="C44" s="65" t="str">
-        <f>C19</f>
+        <f t="shared" si="1"/>
         <v>Information Disclosure</v>
       </c>
       <c r="D44" s="74" t="str">
-        <f>D19</f>
+        <f t="shared" si="1"/>
         <v>Reset the device, obtain secure session with own credentials, and excavate available memory locations for old users’ password files</v>
       </c>
       <c r="E44" s="33">
@@ -6064,26 +6063,53 @@
         <v>0</v>
       </c>
       <c r="M44" s="56">
-        <f>AVERAGE(E44:L44)*2</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="61"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="55"/>
+      <c r="B45" s="61">
+        <v>24</v>
+      </c>
+      <c r="C45" s="64" t="str">
+        <f>C20</f>
+        <v>Spoofing</v>
+      </c>
+      <c r="D45" s="72" t="str">
+        <f>D20</f>
+        <v>The real USB is switched with the fake one which has the keylogging function</v>
+      </c>
+      <c r="E45" s="38">
+        <v>9</v>
+      </c>
+      <c r="F45" s="29">
+        <v>9</v>
+      </c>
+      <c r="G45" s="29">
+        <v>9</v>
+      </c>
+      <c r="H45" s="30">
+        <v>9</v>
+      </c>
+      <c r="I45" s="31">
+        <v>0</v>
+      </c>
+      <c r="J45" s="29">
+        <v>0</v>
+      </c>
+      <c r="K45" s="32">
+        <v>0</v>
+      </c>
+      <c r="L45" s="32">
+        <v>0</v>
+      </c>
+      <c r="M45" s="55">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
@@ -6240,6 +6266,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:L30"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="B27:K28"/>
     <mergeCell ref="A5:A6"/>
@@ -6250,12 +6282,6 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:L30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6283,72 +6309,72 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="111"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="78" t="s">
-        <v>270</v>
-      </c>
-      <c r="D5" s="105" t="s">
+      <c r="C5" s="107" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="127" t="s">
+      <c r="E5" s="129"/>
+      <c r="F5" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="127" t="s">
+      <c r="G5" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="H5" s="126" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
     </row>
     <row r="7" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="109" t="str">
+      <c r="C7" s="88" t="str">
         <f>'Risk Tables'!C7</f>
         <v>Repudiation / Tamper</v>
       </c>
-      <c r="D7" s="113" t="str">
+      <c r="D7" s="124" t="str">
         <f>'Risk Tables'!D7</f>
         <v>An attacker can tamper with the reset counter and cause the system to never reset, enabling a brute force attack.  The reset counter serves as a log of failed password attempts</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="124">
+      <c r="E7" s="125"/>
+      <c r="F7" s="95">
         <f>'Risk Tables'!M7</f>
         <v>3.625</v>
       </c>
-      <c r="G7" s="124">
+      <c r="G7" s="95">
         <f>'Risk Tables'!M32</f>
         <v>9</v>
       </c>
@@ -6360,20 +6386,20 @@
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="110" t="str">
+      <c r="C8" s="89" t="str">
         <f>'Risk Tables'!C8</f>
         <v>Repudiation/Spoofing</v>
       </c>
-      <c r="D8" s="115" t="str">
+      <c r="D8" s="120" t="str">
         <f>'Risk Tables'!D8</f>
         <v>Webserver needs to use unique USB identifier as an authenticator</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="125">
+      <c r="E8" s="121"/>
+      <c r="F8" s="96">
         <f>'Risk Tables'!M8</f>
         <v>2.875</v>
       </c>
-      <c r="G8" s="125">
+      <c r="G8" s="96">
         <f>'Risk Tables'!M33</f>
         <v>2.75</v>
       </c>
@@ -6385,20 +6411,20 @@
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="111" t="str">
+      <c r="C9" s="90" t="str">
         <f>'Risk Tables'!C9</f>
         <v>Tampering</v>
       </c>
-      <c r="D9" s="117" t="str">
+      <c r="D9" s="118" t="str">
         <f>'Risk Tables'!D9</f>
         <v>Malware infested Update</v>
       </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="126">
+      <c r="E9" s="119"/>
+      <c r="F9" s="97">
         <f>'Risk Tables'!M9</f>
         <v>4.5</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="97">
         <f>'Risk Tables'!M34</f>
         <v>9</v>
       </c>
@@ -6410,20 +6436,20 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="110" t="str">
+      <c r="C10" s="89" t="str">
         <f>'Risk Tables'!C10</f>
         <v>DOS</v>
       </c>
-      <c r="D10" s="115" t="str">
+      <c r="D10" s="120" t="str">
         <f>'Risk Tables'!D10</f>
         <v>Theft or Loss of USB</v>
       </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="125">
+      <c r="E10" s="121"/>
+      <c r="F10" s="96">
         <f>'Risk Tables'!M10</f>
         <v>5</v>
       </c>
-      <c r="G10" s="125">
+      <c r="G10" s="96">
         <f>'Risk Tables'!M35</f>
         <v>9</v>
       </c>
@@ -6435,20 +6461,20 @@
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="111" t="str">
+      <c r="C11" s="90" t="str">
         <f>'Risk Tables'!C11</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D11" s="117" t="str">
+      <c r="D11" s="118" t="str">
         <f>'Risk Tables'!D11</f>
         <v>password guess attack</v>
       </c>
-      <c r="E11" s="118"/>
-      <c r="F11" s="126">
+      <c r="E11" s="119"/>
+      <c r="F11" s="97">
         <f>'Risk Tables'!M11</f>
         <v>3.75</v>
       </c>
-      <c r="G11" s="126">
+      <c r="G11" s="97">
         <f>'Risk Tables'!M36</f>
         <v>9</v>
       </c>
@@ -6460,20 +6486,20 @@
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="110" t="str">
+      <c r="C12" s="89" t="str">
         <f>'Risk Tables'!C12</f>
         <v>Tampering</v>
       </c>
-      <c r="D12" s="115" t="str">
+      <c r="D12" s="120" t="str">
         <f>'Risk Tables'!D12</f>
         <v>Spoof updated SW with older version which may have vulnerabilities, but is signed with an authentic key</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="125">
+      <c r="E12" s="121"/>
+      <c r="F12" s="96">
         <f>'Risk Tables'!M12</f>
         <v>4.5</v>
       </c>
-      <c r="G12" s="125">
+      <c r="G12" s="96">
         <f>'Risk Tables'!M37</f>
         <v>9</v>
       </c>
@@ -6485,20 +6511,20 @@
       <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="111" t="str">
+      <c r="C13" s="90" t="str">
         <f>'Risk Tables'!C13</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D13" s="117" t="str">
+      <c r="D13" s="118" t="str">
         <f>'Risk Tables'!D13</f>
         <v>App is used on a computer with a keystroke logger</v>
       </c>
-      <c r="E13" s="118"/>
-      <c r="F13" s="126">
+      <c r="E13" s="119"/>
+      <c r="F13" s="97">
         <f>'Risk Tables'!M13</f>
         <v>5</v>
       </c>
-      <c r="G13" s="126">
+      <c r="G13" s="97">
         <f>'Risk Tables'!M38</f>
         <v>9</v>
       </c>
@@ -6510,20 +6536,20 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="110" t="str">
+      <c r="C14" s="89" t="str">
         <f>'Risk Tables'!C14</f>
         <v>Tampering</v>
       </c>
-      <c r="D14" s="115" t="str">
+      <c r="D14" s="120" t="str">
         <f>'Risk Tables'!D14</f>
         <v>Modify device to “zero” factory public key, enabling malicious SW update</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="125">
+      <c r="E14" s="121"/>
+      <c r="F14" s="96">
         <f>'Risk Tables'!M14</f>
         <v>2.125</v>
       </c>
-      <c r="G14" s="125">
+      <c r="G14" s="96">
         <f>'Risk Tables'!M39</f>
         <v>9</v>
       </c>
@@ -6535,20 +6561,20 @@
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="111" t="str">
+      <c r="C15" s="90" t="str">
         <f>'Risk Tables'!C15</f>
         <v>DoS</v>
       </c>
-      <c r="D15" s="117" t="str">
+      <c r="D15" s="118" t="str">
         <f>'Risk Tables'!D15</f>
         <v>Remove power from device after it resets the counter but before it overwrites header and password file</v>
       </c>
-      <c r="E15" s="118"/>
-      <c r="F15" s="126">
+      <c r="E15" s="119"/>
+      <c r="F15" s="97">
         <f>'Risk Tables'!M15</f>
         <v>3.75</v>
       </c>
-      <c r="G15" s="126">
+      <c r="G15" s="97">
         <f>'Risk Tables'!M40</f>
         <v>9</v>
       </c>
@@ -6560,20 +6586,20 @@
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="110" t="str">
+      <c r="C16" s="89" t="str">
         <f>'Risk Tables'!C16</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="D16" s="115" t="str">
+      <c r="D16" s="120" t="str">
         <f>'Risk Tables'!D16</f>
         <v>Request device reset and remove power after the header file is rewritten but before the password file is rewritten to allow access to encrypted password file for offline attacks.</v>
       </c>
-      <c r="E16" s="116"/>
-      <c r="F16" s="125">
+      <c r="E16" s="121"/>
+      <c r="F16" s="96">
         <f>'Risk Tables'!M16</f>
         <v>3.75</v>
       </c>
-      <c r="G16" s="125">
+      <c r="G16" s="96">
         <f>'Risk Tables'!M41</f>
         <v>9</v>
       </c>
@@ -6585,20 +6611,20 @@
       <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="111" t="str">
+      <c r="C17" s="90" t="str">
         <f>'Risk Tables'!C17</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D17" s="117" t="str">
+      <c r="D17" s="118" t="str">
         <f>'Risk Tables'!D17</f>
         <v>Fuzz USB commands to discover readable and/or writeable device memory</v>
       </c>
-      <c r="E17" s="118"/>
-      <c r="F17" s="126">
+      <c r="E17" s="119"/>
+      <c r="F17" s="97">
         <f>'Risk Tables'!M17</f>
         <v>3</v>
       </c>
-      <c r="G17" s="126">
+      <c r="G17" s="97">
         <f>'Risk Tables'!M42</f>
         <v>2.75</v>
       </c>
@@ -6610,20 +6636,20 @@
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="110" t="str">
+      <c r="C18" s="89" t="str">
         <f>'Risk Tables'!C18</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="D18" s="115" t="str">
+      <c r="D18" s="120" t="str">
         <f>'Risk Tables'!D18</f>
         <v>Fuzz USB commands to cause unpredictable behavior and/or discover point of entry to gain execution</v>
       </c>
-      <c r="E18" s="116"/>
-      <c r="F18" s="125">
+      <c r="E18" s="121"/>
+      <c r="F18" s="96">
         <f>'Risk Tables'!M18</f>
         <v>3</v>
       </c>
-      <c r="G18" s="125">
+      <c r="G18" s="96">
         <f>'Risk Tables'!M43</f>
         <v>2.75</v>
       </c>
@@ -6635,20 +6661,20 @@
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="111" t="str">
+      <c r="C19" s="90" t="str">
         <f>'Risk Tables'!C19</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D19" s="117" t="str">
+      <c r="D19" s="118" t="str">
         <f>'Risk Tables'!D19</f>
         <v>Reset the device, obtain secure session with own credentials, and excavate available memory locations for old users’ password files</v>
       </c>
-      <c r="E19" s="118"/>
-      <c r="F19" s="126">
+      <c r="E19" s="119"/>
+      <c r="F19" s="97">
         <f>'Risk Tables'!M19</f>
         <v>3</v>
       </c>
-      <c r="G19" s="126">
+      <c r="G19" s="97">
         <f>'Risk Tables'!M44</f>
         <v>5</v>
       </c>
@@ -6660,124 +6686,127 @@
       <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="30"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
       <c r="H21" s="35"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="30"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
       <c r="H23" s="35"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
       <c r="H24" s="30"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
       <c r="H25" s="35"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
       <c r="H26" s="30"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
       <c r="H27" s="35"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
       <c r="H28" s="30"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
       <c r="H29" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -6785,19 +6814,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:H29">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -6850,48 +6876,48 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="107" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -7239,7 +7265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H34" sqref="C4:I34"/>
     </sheetView>
   </sheetViews>
@@ -7250,515 +7276,515 @@
   <sheetData>
     <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="132" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="134"/>
+    </row>
+    <row r="5" spans="3:9" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="135" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="82"/>
+    </row>
+    <row r="7" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="136"/>
+      <c r="D7" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+    </row>
+    <row r="8" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="136"/>
+      <c r="D8" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="83"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="81"/>
+    </row>
+    <row r="9" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="136"/>
+      <c r="D9" s="78" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
+    </row>
+    <row r="10" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="137"/>
+      <c r="D10" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="84"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="80"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+    </row>
+    <row r="12" spans="3:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="86" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="86" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="91"/>
-    </row>
-    <row r="5" spans="3:9" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="92" t="s">
-        <v>261</v>
-      </c>
-      <c r="F5" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="G5" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="H5" s="92" t="s">
-        <v>264</v>
-      </c>
-      <c r="I5" s="92" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="93" t="s">
+      <c r="F12" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="D6" s="92" t="s">
-        <v>265</v>
-      </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="97"/>
-    </row>
-    <row r="7" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="98"/>
-      <c r="D7" s="92" t="s">
-        <v>269</v>
-      </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-    </row>
-    <row r="8" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="98"/>
-      <c r="D8" s="92" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="99"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="96"/>
-    </row>
-    <row r="9" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="98"/>
-      <c r="D9" s="92" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="95"/>
-    </row>
-    <row r="10" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="100"/>
-      <c r="D10" s="92" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="95"/>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-    </row>
-    <row r="12" spans="3:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="103" t="s">
+      <c r="G12" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+    </row>
+    <row r="13" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="82"/>
+      <c r="E13" s="87">
+        <v>1</v>
+      </c>
+      <c r="F13" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="F12" s="103" t="s">
+      <c r="G13" s="87"/>
+    </row>
+    <row r="14" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="81"/>
+      <c r="E14" s="87">
+        <v>2</v>
+      </c>
+      <c r="F14" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="G12" s="103" t="s">
+      <c r="G14" s="87"/>
+    </row>
+    <row r="15" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="80"/>
+      <c r="E15" s="87">
+        <v>3</v>
+      </c>
+      <c r="F15" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-    </row>
-    <row r="13" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="97"/>
-      <c r="E13" s="104">
-        <v>1</v>
-      </c>
-      <c r="F13" s="104" t="s">
+      <c r="G15" s="87"/>
+    </row>
+    <row r="16" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="79"/>
+      <c r="E16" s="87">
+        <v>4</v>
+      </c>
+      <c r="F16" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="G13" s="104"/>
-    </row>
-    <row r="14" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="96"/>
-      <c r="E14" s="104">
-        <v>2</v>
-      </c>
-      <c r="F14" s="104" t="s">
+      <c r="G16" s="87"/>
+    </row>
+    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="83"/>
+      <c r="E17" s="87">
+        <v>5</v>
+      </c>
+      <c r="F17" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="G14" s="104"/>
-    </row>
-    <row r="15" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="95"/>
-      <c r="E15" s="104">
-        <v>3</v>
-      </c>
-      <c r="F15" s="104" t="s">
+      <c r="G17" s="87"/>
+    </row>
+    <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="84"/>
+      <c r="E18" s="87">
+        <v>6</v>
+      </c>
+      <c r="F18" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="G15" s="104"/>
-    </row>
-    <row r="16" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="94"/>
-      <c r="E16" s="104">
-        <v>4</v>
-      </c>
-      <c r="F16" s="104" t="s">
-        <v>258</v>
-      </c>
-      <c r="G16" s="104"/>
-    </row>
-    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="99"/>
-      <c r="E17" s="104">
-        <v>5</v>
-      </c>
-      <c r="F17" s="104" t="s">
-        <v>259</v>
-      </c>
-      <c r="G17" s="104"/>
-    </row>
-    <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="101"/>
-      <c r="E18" s="104">
-        <v>6</v>
-      </c>
-      <c r="F18" s="104" t="s">
-        <v>260</v>
-      </c>
-      <c r="G18" s="104"/>
+      <c r="G18" s="87"/>
     </row>
     <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="130" t="s">
+      <c r="D21" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="130" t="s">
+      <c r="E21" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="131" t="s">
-        <v>250</v>
-      </c>
-      <c r="G21" s="131" t="s">
-        <v>249</v>
-      </c>
-      <c r="H21" s="132" t="s">
-        <v>271</v>
+      <c r="F21" s="100" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="100" t="s">
+        <v>246</v>
+      </c>
+      <c r="H21" s="101" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="133" t="str">
+      <c r="C22" s="102" t="str">
         <f>'Threat Summary Table'!B7</f>
         <v>001</v>
       </c>
-      <c r="D22" s="134" t="str">
+      <c r="D22" s="103" t="str">
         <f>'Threat Summary Table'!C7</f>
         <v>Repudiation / Tamper</v>
       </c>
-      <c r="E22" s="134" t="s">
-        <v>272</v>
-      </c>
-      <c r="F22" s="137">
+      <c r="E22" s="103" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="106">
         <f>'Threat Summary Table'!F7</f>
         <v>3.625</v>
       </c>
-      <c r="G22" s="135">
+      <c r="G22" s="104">
         <f>'Threat Summary Table'!G7</f>
         <v>9</v>
       </c>
-      <c r="H22" s="136">
+      <c r="H22" s="105">
         <f>'Threat Summary Table'!H7</f>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="133" t="str">
+      <c r="C23" s="102" t="str">
         <f>'Threat Summary Table'!B8</f>
         <v>002</v>
       </c>
-      <c r="D23" s="134" t="str">
+      <c r="D23" s="103" t="str">
         <f>'Threat Summary Table'!C8</f>
         <v>Repudiation/Spoofing</v>
       </c>
-      <c r="E23" s="134" t="s">
-        <v>273</v>
-      </c>
-      <c r="F23" s="137">
+      <c r="E23" s="103" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23" s="106">
         <f>'Threat Summary Table'!F8</f>
         <v>2.875</v>
       </c>
-      <c r="G23" s="135">
+      <c r="G23" s="104">
         <f>'Threat Summary Table'!G8</f>
         <v>2.75</v>
       </c>
-      <c r="H23" s="136">
+      <c r="H23" s="105">
         <f>'Threat Summary Table'!H8</f>
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="133" t="str">
+      <c r="C24" s="102" t="str">
         <f>'Threat Summary Table'!B9</f>
         <v>003</v>
       </c>
-      <c r="D24" s="134" t="str">
+      <c r="D24" s="103" t="str">
         <f>'Threat Summary Table'!C9</f>
         <v>Tampering</v>
       </c>
-      <c r="E24" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="F24" s="137">
+      <c r="E24" s="103" t="s">
+        <v>271</v>
+      </c>
+      <c r="F24" s="106">
         <f>'Threat Summary Table'!F9</f>
         <v>4.5</v>
       </c>
-      <c r="G24" s="135">
+      <c r="G24" s="104">
         <f>'Threat Summary Table'!G9</f>
         <v>9</v>
       </c>
-      <c r="H24" s="136">
+      <c r="H24" s="105">
         <f>'Threat Summary Table'!H9</f>
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="133" t="str">
+      <c r="C25" s="102" t="str">
         <f>'Threat Summary Table'!B10</f>
         <v>004</v>
       </c>
-      <c r="D25" s="134" t="str">
+      <c r="D25" s="103" t="str">
         <f>'Threat Summary Table'!C10</f>
         <v>DOS</v>
       </c>
-      <c r="E25" s="134" t="s">
-        <v>228</v>
-      </c>
-      <c r="F25" s="137">
+      <c r="E25" s="103" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="106">
         <f>'Threat Summary Table'!F10</f>
         <v>5</v>
       </c>
-      <c r="G25" s="135">
+      <c r="G25" s="104">
         <f>'Threat Summary Table'!G10</f>
         <v>9</v>
       </c>
-      <c r="H25" s="136">
+      <c r="H25" s="105">
         <f>'Threat Summary Table'!H10</f>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="133" t="str">
+      <c r="C26" s="102" t="str">
         <f>'Threat Summary Table'!B11</f>
         <v>005</v>
       </c>
-      <c r="D26" s="134" t="str">
+      <c r="D26" s="103" t="str">
         <f>'Threat Summary Table'!C11</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="E26" s="134" t="s">
-        <v>275</v>
-      </c>
-      <c r="F26" s="137">
+      <c r="E26" s="103" t="s">
+        <v>272</v>
+      </c>
+      <c r="F26" s="106">
         <f>'Threat Summary Table'!F11</f>
         <v>3.75</v>
       </c>
-      <c r="G26" s="135">
+      <c r="G26" s="104">
         <f>'Threat Summary Table'!G11</f>
         <v>9</v>
       </c>
-      <c r="H26" s="136">
+      <c r="H26" s="105">
         <f>'Threat Summary Table'!H11</f>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C27" s="133" t="str">
+      <c r="C27" s="102" t="str">
         <f>'Threat Summary Table'!B12</f>
         <v>006</v>
       </c>
-      <c r="D27" s="134" t="str">
+      <c r="D27" s="103" t="str">
         <f>'Threat Summary Table'!C12</f>
         <v>Tampering</v>
       </c>
-      <c r="E27" s="134" t="s">
-        <v>276</v>
-      </c>
-      <c r="F27" s="137">
+      <c r="E27" s="103" t="s">
+        <v>273</v>
+      </c>
+      <c r="F27" s="106">
         <f>'Threat Summary Table'!F12</f>
         <v>4.5</v>
       </c>
-      <c r="G27" s="135">
+      <c r="G27" s="104">
         <f>'Threat Summary Table'!G12</f>
         <v>9</v>
       </c>
-      <c r="H27" s="136">
+      <c r="H27" s="105">
         <f>'Threat Summary Table'!H12</f>
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="133" t="str">
+      <c r="C28" s="102" t="str">
         <f>'Threat Summary Table'!B13</f>
         <v>007</v>
       </c>
-      <c r="D28" s="134" t="str">
+      <c r="D28" s="103" t="str">
         <f>'Threat Summary Table'!C13</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="E28" s="134" t="s">
-        <v>277</v>
-      </c>
-      <c r="F28" s="137">
+      <c r="E28" s="103" t="s">
+        <v>274</v>
+      </c>
+      <c r="F28" s="106">
         <f>'Threat Summary Table'!F13</f>
         <v>5</v>
       </c>
-      <c r="G28" s="135">
+      <c r="G28" s="104">
         <f>'Threat Summary Table'!G13</f>
         <v>9</v>
       </c>
-      <c r="H28" s="136">
+      <c r="H28" s="105">
         <f>'Threat Summary Table'!H13</f>
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="133" t="str">
+      <c r="C29" s="102" t="str">
         <f>'Threat Summary Table'!B14</f>
         <v>008</v>
       </c>
-      <c r="D29" s="134" t="str">
+      <c r="D29" s="103" t="str">
         <f>'Threat Summary Table'!C14</f>
         <v>Tampering</v>
       </c>
-      <c r="E29" s="134" t="s">
-        <v>278</v>
-      </c>
-      <c r="F29" s="137">
+      <c r="E29" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="F29" s="106">
         <f>'Threat Summary Table'!F14</f>
         <v>2.125</v>
       </c>
-      <c r="G29" s="135">
+      <c r="G29" s="104">
         <f>'Threat Summary Table'!G14</f>
         <v>9</v>
       </c>
-      <c r="H29" s="136">
+      <c r="H29" s="105">
         <f>'Threat Summary Table'!H14</f>
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C30" s="133" t="str">
+      <c r="C30" s="102" t="str">
         <f>'Threat Summary Table'!B15</f>
         <v>009</v>
       </c>
-      <c r="D30" s="134" t="str">
+      <c r="D30" s="103" t="str">
         <f>'Threat Summary Table'!C15</f>
         <v>DoS</v>
       </c>
-      <c r="E30" s="134" t="s">
-        <v>279</v>
-      </c>
-      <c r="F30" s="137">
+      <c r="E30" s="103" t="s">
+        <v>276</v>
+      </c>
+      <c r="F30" s="106">
         <f>'Threat Summary Table'!F15</f>
         <v>3.75</v>
       </c>
-      <c r="G30" s="135">
+      <c r="G30" s="104">
         <f>'Threat Summary Table'!G15</f>
         <v>9</v>
       </c>
-      <c r="H30" s="136">
+      <c r="H30" s="105">
         <f>'Threat Summary Table'!H15</f>
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C31" s="133" t="str">
+      <c r="C31" s="102" t="str">
         <f>'Threat Summary Table'!B16</f>
         <v>010</v>
       </c>
-      <c r="D31" s="134" t="str">
+      <c r="D31" s="103" t="str">
         <f>'Threat Summary Table'!C16</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="E31" s="134" t="s">
-        <v>280</v>
-      </c>
-      <c r="F31" s="137">
+      <c r="E31" s="103" t="s">
+        <v>277</v>
+      </c>
+      <c r="F31" s="106">
         <f>'Threat Summary Table'!F16</f>
         <v>3.75</v>
       </c>
-      <c r="G31" s="135">
+      <c r="G31" s="104">
         <f>'Threat Summary Table'!G16</f>
         <v>9</v>
       </c>
-      <c r="H31" s="136">
+      <c r="H31" s="105">
         <f>'Threat Summary Table'!H16</f>
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C32" s="133" t="str">
+      <c r="C32" s="102" t="str">
         <f>'Threat Summary Table'!B17</f>
         <v>011</v>
       </c>
-      <c r="D32" s="134" t="str">
+      <c r="D32" s="103" t="str">
         <f>'Threat Summary Table'!C17</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="E32" s="134" t="s">
-        <v>281</v>
-      </c>
-      <c r="F32" s="137">
+      <c r="E32" s="103" t="s">
+        <v>278</v>
+      </c>
+      <c r="F32" s="106">
         <f>'Threat Summary Table'!F17</f>
         <v>3</v>
       </c>
-      <c r="G32" s="135">
+      <c r="G32" s="104">
         <f>'Threat Summary Table'!G17</f>
         <v>2.75</v>
       </c>
-      <c r="H32" s="136">
+      <c r="H32" s="105">
         <f>'Threat Summary Table'!H17</f>
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C33" s="133" t="str">
+      <c r="C33" s="102" t="str">
         <f>'Threat Summary Table'!B18</f>
         <v>012</v>
       </c>
-      <c r="D33" s="134" t="str">
+      <c r="D33" s="103" t="str">
         <f>'Threat Summary Table'!C18</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="E33" s="134" t="s">
-        <v>282</v>
-      </c>
-      <c r="F33" s="137">
+      <c r="E33" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="F33" s="106">
         <f>'Threat Summary Table'!F18</f>
         <v>3</v>
       </c>
-      <c r="G33" s="135">
+      <c r="G33" s="104">
         <f>'Threat Summary Table'!G18</f>
         <v>2.75</v>
       </c>
-      <c r="H33" s="136">
+      <c r="H33" s="105">
         <f>'Threat Summary Table'!H18</f>
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C34" s="133" t="str">
+      <c r="C34" s="102" t="str">
         <f>'Threat Summary Table'!B19</f>
         <v>013</v>
       </c>
-      <c r="D34" s="134" t="str">
+      <c r="D34" s="103" t="str">
         <f>'Threat Summary Table'!C19</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="E34" s="134" t="s">
-        <v>283</v>
-      </c>
-      <c r="F34" s="137">
+      <c r="E34" s="103" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="106">
         <f>'Threat Summary Table'!F19</f>
         <v>3</v>
       </c>
-      <c r="G34" s="135">
+      <c r="G34" s="104">
         <f>'Threat Summary Table'!G19</f>
         <v>5</v>
       </c>
-      <c r="H34" s="136">
+      <c r="H34" s="105">
         <f>'Threat Summary Table'!H19</f>
         <v>4</v>
       </c>

--- a/excel table/threat_risk_tables_main1.xlsx
+++ b/excel table/threat_risk_tables_main1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="3" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="310">
   <si>
     <t>Diagram Element</t>
   </si>
@@ -683,9 +683,6 @@
     <t>Logs May be visible to a low privilege attacker</t>
   </si>
   <si>
-    <t>Attack can alter logs because they lack strong integrity controls</t>
-  </si>
-  <si>
     <t>Log entries can be created without timestamps</t>
   </si>
   <si>
@@ -701,12 +698,6 @@
     <t>An attacker can get arbitrary data into logs from unauthenticated outsiders without validation</t>
   </si>
   <si>
-    <t>An attacker can edit logs and there's no way to tell</t>
-  </si>
-  <si>
-    <t>An attacker can say I didn't do that and you'd have no way to prove them wrong</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -930,6 +921,81 @@
   </si>
   <si>
     <t>(N) similar to MITM attack</t>
+  </si>
+  <si>
+    <t>5. Webserver Log</t>
+  </si>
+  <si>
+    <t>logs should be encrypted</t>
+  </si>
+  <si>
+    <t>5. Webserver log</t>
+  </si>
+  <si>
+    <t>timestamp log</t>
+  </si>
+  <si>
+    <t>rate limit logs</t>
+  </si>
+  <si>
+    <t>secure log directory, obscure log directory</t>
+  </si>
+  <si>
+    <t>do not use shared keys for logs</t>
+  </si>
+  <si>
+    <t>authenticate users and use ACLs with multilayer permissions on the log</t>
+  </si>
+  <si>
+    <t>5 Webserver FTP directory</t>
+  </si>
+  <si>
+    <t>An attacker can replace a valid image with a tampered image</t>
+  </si>
+  <si>
+    <t>use ACLs and directory permissions</t>
+  </si>
+  <si>
+    <t>5. Webserver Unique Key Database</t>
+  </si>
+  <si>
+    <t>An attack can modify the list of valid USB identifiers and insert or delete identifiers</t>
+  </si>
+  <si>
+    <t>use ACL, encryption and permissions on the DB</t>
+  </si>
+  <si>
+    <t>use strong cryptography</t>
+  </si>
+  <si>
+    <t>Attacker can alter logs because they lack strong integrity controls</t>
+  </si>
+  <si>
+    <t>(N) not a risk but rather design rule</t>
+  </si>
+  <si>
+    <t>(N) not a risk but a design rule</t>
+  </si>
+  <si>
+    <t>(N) not a risk but design rule</t>
+  </si>
+  <si>
+    <t>(A) Group together under one threat risk: ACL, encryption and permission</t>
+  </si>
+  <si>
+    <t>Lack of ACL, encryption and permissions can allow an attacker to access, and tamper with log and file information</t>
+  </si>
+  <si>
+    <t>An attacker can read the software update image while in transit</t>
+  </si>
+  <si>
+    <t>encrypt the image while in transit with a strong cryptographic technique</t>
+  </si>
+  <si>
+    <t>a malformed SQL attack may result in elevation of privilege</t>
+  </si>
+  <si>
+    <t>validation of input</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1745,6 +1811,12 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1778,48 +1850,48 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1837,6 +1909,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2636,36 +2717,36 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="109" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2961,8 +3042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2981,44 +3062,44 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="107" t="s">
+      <c r="C2" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="107" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="107" t="s">
+      <c r="G2" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="107" t="s">
+      <c r="I2" s="109" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
     </row>
     <row r="4" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3028,7 +3109,7 @@
         <v>98</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>96</v>
@@ -3037,10 +3118,10 @@
         <v>97</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="75" t="s">
@@ -3058,16 +3139,16 @@
         <v>70</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="76" t="s">
@@ -3094,7 +3175,7 @@
         <v>72</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="77" t="s">
@@ -3115,13 +3196,13 @@
         <v>73</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="76" t="s">
@@ -3148,7 +3229,7 @@
         <v>75</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="77" t="s">
@@ -3175,7 +3256,7 @@
         <v>102</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="76" t="s">
@@ -3200,7 +3281,7 @@
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="77" t="s">
@@ -3227,7 +3308,7 @@
         <v>118</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="76" t="s">
@@ -3254,7 +3335,7 @@
         <v>120</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="77" t="s">
@@ -3281,7 +3362,7 @@
         <v>123</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="76" t="s">
@@ -3308,7 +3389,7 @@
         <v>126</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="77" t="s">
@@ -3335,7 +3416,7 @@
         <v>118</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="76" t="s">
@@ -3387,14 +3468,14 @@
         <v>133</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="76" t="s">
         <v>18</v>
       </c>
       <c r="K17" s="45" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3417,14 +3498,14 @@
         <v>136</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="77" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3447,14 +3528,14 @@
         <v>139</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="76" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3474,17 +3555,17 @@
         <v>141</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="77" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3507,14 +3588,14 @@
         <v>142</v>
       </c>
       <c r="G21" s="45" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="76" t="s">
         <v>22</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3537,14 +3618,14 @@
         <v>148</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="77" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="44" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3567,14 +3648,14 @@
         <v>150</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="76" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="45" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3597,14 +3678,14 @@
         <v>153</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="77" t="s">
         <v>25</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3627,14 +3708,14 @@
         <v>136</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="76" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="45" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3657,19 +3738,19 @@
         <v>118</v>
       </c>
       <c r="G26" s="53" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="77" t="s">
         <v>27</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>87</v>
@@ -3684,17 +3765,17 @@
         <v>161</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="76" t="s">
         <v>167</v>
       </c>
       <c r="K27" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3717,14 +3798,14 @@
         <v>164</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H28" s="34"/>
       <c r="I28" s="77" t="s">
         <v>168</v>
       </c>
       <c r="K28" s="44" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3746,13 +3827,15 @@
       <c r="F29" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="G29" s="45"/>
+      <c r="G29" s="45" t="s">
+        <v>217</v>
+      </c>
       <c r="H29" s="29"/>
       <c r="I29" s="76" t="s">
         <v>169</v>
       </c>
       <c r="K29" s="45" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3771,8 +3854,12 @@
       <c r="E30" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
+      <c r="F30" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>217</v>
+      </c>
       <c r="H30" s="34"/>
       <c r="I30" s="77" t="s">
         <v>170</v>
@@ -3787,16 +3874,20 @@
         <v>98</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>68</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
+        <v>300</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>301</v>
+      </c>
       <c r="H31" s="29"/>
       <c r="I31" s="76" t="s">
         <v>171</v>
@@ -3811,16 +3902,20 @@
         <v>98</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="D32" s="34" t="s">
         <v>68</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
+        <v>205</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>303</v>
+      </c>
       <c r="H32" s="34"/>
       <c r="I32" s="77" t="s">
         <v>172</v>
@@ -3835,16 +3930,20 @@
         <v>98</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>68</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
+        <v>206</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>302</v>
+      </c>
       <c r="H33" s="29"/>
       <c r="I33" s="76" t="s">
         <v>173</v>
@@ -3859,16 +3958,20 @@
         <v>98</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="D34" s="34" t="s">
         <v>68</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+        <v>207</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="G34" s="142" t="s">
+        <v>304</v>
+      </c>
       <c r="H34" s="34"/>
       <c r="I34" s="77" t="s">
         <v>174</v>
@@ -3883,16 +3986,18 @@
         <v>98</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>68</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
+        <v>208</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" s="142"/>
       <c r="H35" s="29"/>
       <c r="I35" s="76" t="s">
         <v>175</v>
@@ -3907,23 +4012,25 @@
         <v>98</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="D36" s="34" t="s">
         <v>68</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
+        <v>209</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="G36" s="142"/>
       <c r="H36" s="34"/>
       <c r="I36" s="77" t="s">
         <v>176</v>
       </c>
       <c r="K36" s="44"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>174</v>
       </c>
@@ -3931,16 +4038,18 @@
         <v>98</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
+        <v>294</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="G37" s="142"/>
       <c r="H37" s="29"/>
       <c r="I37" s="76" t="s">
         <v>177</v>
@@ -3951,19 +4060,19 @@
       <c r="A38" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="B38" s="20"/>
       <c r="C38" s="44" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="F38" s="44"/>
+        <v>297</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>298</v>
+      </c>
       <c r="G38" s="44"/>
       <c r="H38" s="34"/>
       <c r="I38" s="77" t="s">
@@ -3979,26 +4088,26 @@
         <v>98</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>68</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H39" s="29"/>
       <c r="I39" s="76" t="s">
         <v>179</v>
       </c>
       <c r="K39" s="45" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -4015,7 +4124,7 @@
         <v>68</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F40" s="44"/>
       <c r="G40" s="44"/>
@@ -4024,7 +4133,7 @@
         <v>180</v>
       </c>
       <c r="K40" s="44" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -4041,46 +4150,74 @@
         <v>76</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F41" s="45"/>
       <c r="G41" s="45" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="76" t="s">
         <v>181</v>
       </c>
       <c r="K41" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
+      <c r="B42" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>217</v>
+      </c>
       <c r="H42" s="34"/>
-      <c r="I42" s="77"/>
+      <c r="I42" s="77" t="s">
+        <v>182</v>
+      </c>
       <c r="K42" s="44"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
+      <c r="B43" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="G43" s="45" t="s">
+        <v>217</v>
+      </c>
       <c r="H43" s="29"/>
-      <c r="I43" s="76"/>
+      <c r="I43" s="76" t="s">
+        <v>183</v>
+      </c>
       <c r="K43" s="45"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -4562,7 +4699,8 @@
     </row>
   </sheetData>
   <autoFilter ref="C2:I59"/>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="G34:G37"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="F2:F3"/>
@@ -4575,17 +4713,17 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A4:A26 A60 A42:A59 I4:I5 I6:I26 I27:I41 A27:A41" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:A26 A60 A42:A59 I4:I5 I6:I26 I27:I41 A27:A41 I42:I43" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4603,66 +4741,66 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="114"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="116"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="115" t="s">
+      <c r="D5" s="109" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="115" t="s">
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="107" t="s">
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="109" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
       <c r="E6" s="22" t="s">
         <v>50</v>
       </c>
@@ -4687,7 +4825,7 @@
       <c r="L6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="108"/>
+      <c r="M6" s="110"/>
     </row>
     <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4730,7 +4868,7 @@
         <v>9</v>
       </c>
       <c r="M7" s="54">
-        <f t="shared" ref="M7:M20" si="0">AVERAGE(E7:L7)</f>
+        <f t="shared" ref="M7:M25" si="0">AVERAGE(E7:L7)</f>
         <v>3.625</v>
       </c>
     </row>
@@ -5319,920 +5457,1205 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="56"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="55"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="56"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="55"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="57"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="109" t="s">
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="20" t="str">
+        <f>'Table of Threats'!A29</f>
+        <v>026</v>
+      </c>
+      <c r="C21" s="65" t="str">
+        <f>'Table of Threats'!D29</f>
+        <v>Repudiation</v>
+      </c>
+      <c r="D21" s="107" t="str">
+        <f>'Table of Threats'!E29</f>
+        <v>Logs May be visible to a low privilege attacker</v>
+      </c>
+      <c r="E21" s="33">
+        <v>6</v>
+      </c>
+      <c r="F21" s="34">
+        <v>4</v>
+      </c>
+      <c r="G21" s="34">
+        <v>0</v>
+      </c>
+      <c r="H21" s="35">
+        <v>2</v>
+      </c>
+      <c r="I21" s="36">
+        <v>7</v>
+      </c>
+      <c r="J21" s="34">
+        <v>9</v>
+      </c>
+      <c r="K21" s="37">
+        <v>9</v>
+      </c>
+      <c r="L21" s="37">
+        <v>9</v>
+      </c>
+      <c r="M21" s="56">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="19" t="str">
+        <f>'Table of Threats'!A30</f>
+        <v>027</v>
+      </c>
+      <c r="C22" s="64" t="str">
+        <f>'Table of Threats'!D30</f>
+        <v>Repudiation</v>
+      </c>
+      <c r="D22" s="140" t="str">
+        <f>'Table of Threats'!E30</f>
+        <v>Weak Digital Signature may allow an attacker to alter digital signature</v>
+      </c>
+      <c r="E22" s="38">
+        <v>6</v>
+      </c>
+      <c r="F22" s="29">
+        <v>4</v>
+      </c>
+      <c r="G22" s="29">
+        <v>0</v>
+      </c>
+      <c r="H22" s="30">
+        <v>2</v>
+      </c>
+      <c r="I22" s="31">
+        <v>7</v>
+      </c>
+      <c r="J22" s="29">
+        <v>3</v>
+      </c>
+      <c r="K22" s="32">
+        <v>5</v>
+      </c>
+      <c r="L22" s="32">
+        <v>1</v>
+      </c>
+      <c r="M22" s="55">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="20" t="str">
+        <f>'Table of Threats'!A34</f>
+        <v>031</v>
+      </c>
+      <c r="C23" s="65" t="str">
+        <f>'Table of Threats'!D34</f>
+        <v>Repudiation</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="E23" s="33">
+        <v>6</v>
+      </c>
+      <c r="F23" s="34">
+        <v>4</v>
+      </c>
+      <c r="G23" s="34">
+        <v>0</v>
+      </c>
+      <c r="H23" s="35">
+        <v>2</v>
+      </c>
+      <c r="I23" s="36">
+        <v>3</v>
+      </c>
+      <c r="J23" s="34">
+        <v>3</v>
+      </c>
+      <c r="K23" s="37">
+        <v>3</v>
+      </c>
+      <c r="L23" s="37">
+        <v>3</v>
+      </c>
+      <c r="M23" s="56">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="19" t="str">
+        <f>'Table of Threats'!A42</f>
+        <v>042</v>
+      </c>
+      <c r="C24" s="64" t="str">
+        <f>'Table of Threats'!D42</f>
+        <v>Information Disclosure</v>
+      </c>
+      <c r="D24" s="69" t="str">
+        <f>'Table of Threats'!E42</f>
+        <v>An attacker can read the software update image while in transit</v>
+      </c>
+      <c r="E24" s="38">
+        <v>6</v>
+      </c>
+      <c r="F24" s="29">
+        <v>4</v>
+      </c>
+      <c r="G24" s="29">
+        <v>0</v>
+      </c>
+      <c r="H24" s="30">
+        <v>2</v>
+      </c>
+      <c r="I24" s="31">
+        <v>9</v>
+      </c>
+      <c r="J24" s="29">
+        <v>7</v>
+      </c>
+      <c r="K24" s="32">
+        <v>4</v>
+      </c>
+      <c r="L24" s="32">
+        <v>9</v>
+      </c>
+      <c r="M24" s="55">
+        <f t="shared" si="0"/>
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="20" t="str">
+        <f>'Table of Threats'!A43</f>
+        <v>043</v>
+      </c>
+      <c r="C25" s="65" t="str">
+        <f>'Table of Threats'!D43</f>
+        <v>Elevation of Privilege</v>
+      </c>
+      <c r="D25" s="67" t="str">
+        <f>'Table of Threats'!E43</f>
+        <v>a malformed SQL attack may result in elevation of privilege</v>
+      </c>
+      <c r="E25" s="33">
+        <v>6</v>
+      </c>
+      <c r="F25" s="34">
+        <v>4</v>
+      </c>
+      <c r="G25" s="34">
+        <v>0</v>
+      </c>
+      <c r="H25" s="35">
+        <v>2</v>
+      </c>
+      <c r="I25" s="36">
+        <v>2</v>
+      </c>
+      <c r="J25" s="34">
+        <v>9</v>
+      </c>
+      <c r="K25" s="37">
+        <v>2</v>
+      </c>
+      <c r="L25" s="37">
+        <v>3</v>
+      </c>
+      <c r="M25" s="56">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="55"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="57"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="111"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="112"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="114"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="113"/>
+    </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="107" t="s">
+      <c r="B30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="116"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="107" t="s">
+      <c r="B32" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="107" t="s">
+      <c r="C32" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="E30" s="115" t="s">
+      <c r="D32" s="109" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="115" t="s">
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="107" t="s">
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
+      <c r="M32" s="109" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="108"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="22" t="s">
+    <row r="33" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="110"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F33" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G33" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H33" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="22" t="s">
+      <c r="I33" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J31" s="22" t="s">
+      <c r="J33" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="K33" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="L31" s="22" t="s">
+      <c r="L33" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M31" s="108"/>
-    </row>
-    <row r="32" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="M33" s="110"/>
+    </row>
+    <row r="34" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="58" t="str">
-        <f t="shared" ref="B32:D44" si="1">B7</f>
+      <c r="B34" s="58" t="str">
+        <f>B7</f>
         <v>001</v>
       </c>
-      <c r="C32" s="60" t="str">
+      <c r="C34" s="60" t="str">
+        <f>C7</f>
+        <v>Repudiation / Tamper</v>
+      </c>
+      <c r="D34" s="71" t="str">
+        <f>D7</f>
+        <v>An attacker can tamper with the reset counter and cause the system to never reset, enabling a brute force attack.  The reset counter serves as a log of failed password attempts</v>
+      </c>
+      <c r="E34" s="23">
+        <v>9</v>
+      </c>
+      <c r="F34" s="24">
+        <v>9</v>
+      </c>
+      <c r="G34" s="24">
+        <v>9</v>
+      </c>
+      <c r="H34" s="25">
+        <v>9</v>
+      </c>
+      <c r="I34" s="26">
+        <v>0</v>
+      </c>
+      <c r="J34" s="24">
+        <v>0</v>
+      </c>
+      <c r="K34" s="27">
+        <v>0</v>
+      </c>
+      <c r="L34" s="27">
+        <v>0</v>
+      </c>
+      <c r="M34" s="54">
+        <f t="shared" ref="M34:M52" si="1">AVERAGE(E34:L34)*2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="61" t="str">
+        <f>B8</f>
+        <v>002</v>
+      </c>
+      <c r="C35" s="64" t="str">
+        <f>C8</f>
+        <v>Repudiation/Spoofing</v>
+      </c>
+      <c r="D35" s="72" t="str">
+        <f>D8</f>
+        <v>Webserver needs to use unique USB identifier as an authenticator</v>
+      </c>
+      <c r="E35" s="28">
+        <v>3</v>
+      </c>
+      <c r="F35" s="29">
+        <v>0</v>
+      </c>
+      <c r="G35" s="29">
+        <v>1</v>
+      </c>
+      <c r="H35" s="30">
+        <v>7</v>
+      </c>
+      <c r="I35" s="31">
+        <v>0</v>
+      </c>
+      <c r="J35" s="29">
+        <v>0</v>
+      </c>
+      <c r="K35" s="32">
+        <v>0</v>
+      </c>
+      <c r="L35" s="32">
+        <v>0</v>
+      </c>
+      <c r="M35" s="55">
         <f t="shared" si="1"/>
-        <v>Repudiation / Tamper</v>
-      </c>
-      <c r="D32" s="71" t="str">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="62" t="str">
+        <f>B9</f>
+        <v>003</v>
+      </c>
+      <c r="C36" s="65" t="str">
+        <f>C9</f>
+        <v>Tampering</v>
+      </c>
+      <c r="D36" s="74" t="str">
+        <f>D9</f>
+        <v>Malware infested Update</v>
+      </c>
+      <c r="E36" s="33">
+        <v>9</v>
+      </c>
+      <c r="F36" s="34">
+        <v>9</v>
+      </c>
+      <c r="G36" s="34">
+        <v>9</v>
+      </c>
+      <c r="H36" s="35">
+        <v>9</v>
+      </c>
+      <c r="I36" s="36">
+        <v>0</v>
+      </c>
+      <c r="J36" s="34">
+        <v>0</v>
+      </c>
+      <c r="K36" s="37">
+        <v>0</v>
+      </c>
+      <c r="L36" s="37">
+        <v>0</v>
+      </c>
+      <c r="M36" s="56">
         <f t="shared" si="1"/>
-        <v>An attacker can tamper with the reset counter and cause the system to never reset, enabling a brute force attack.  The reset counter serves as a log of failed password attempts</v>
-      </c>
-      <c r="E32" s="23">
-        <v>9</v>
-      </c>
-      <c r="F32" s="24">
-        <v>9</v>
-      </c>
-      <c r="G32" s="24">
-        <v>9</v>
-      </c>
-      <c r="H32" s="25">
-        <v>9</v>
-      </c>
-      <c r="I32" s="26">
-        <v>0</v>
-      </c>
-      <c r="J32" s="24">
-        <v>0</v>
-      </c>
-      <c r="K32" s="27">
-        <v>0</v>
-      </c>
-      <c r="L32" s="27">
-        <v>0</v>
-      </c>
-      <c r="M32" s="54">
-        <f t="shared" ref="M32:M45" si="2">AVERAGE(E32:L32)*2</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="61" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="61" t="str">
+        <f>B10</f>
+        <v>004</v>
+      </c>
+      <c r="C37" s="64" t="str">
+        <f>C10</f>
+        <v>DOS</v>
+      </c>
+      <c r="D37" s="72" t="str">
+        <f>D10</f>
+        <v>Theft or Loss of USB</v>
+      </c>
+      <c r="E37" s="38">
+        <v>9</v>
+      </c>
+      <c r="F37" s="29">
+        <v>9</v>
+      </c>
+      <c r="G37" s="29">
+        <v>9</v>
+      </c>
+      <c r="H37" s="30">
+        <v>9</v>
+      </c>
+      <c r="I37" s="31">
+        <v>0</v>
+      </c>
+      <c r="J37" s="29">
+        <v>0</v>
+      </c>
+      <c r="K37" s="32">
+        <v>0</v>
+      </c>
+      <c r="L37" s="32">
+        <v>0</v>
+      </c>
+      <c r="M37" s="55">
         <f t="shared" si="1"/>
-        <v>002</v>
-      </c>
-      <c r="C33" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>Repudiation/Spoofing</v>
-      </c>
-      <c r="D33" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Webserver needs to use unique USB identifier as an authenticator</v>
-      </c>
-      <c r="E33" s="28">
-        <v>3</v>
-      </c>
-      <c r="F33" s="29">
-        <v>0</v>
-      </c>
-      <c r="G33" s="29">
-        <v>1</v>
-      </c>
-      <c r="H33" s="30">
-        <v>7</v>
-      </c>
-      <c r="I33" s="31">
-        <v>0</v>
-      </c>
-      <c r="J33" s="29">
-        <v>0</v>
-      </c>
-      <c r="K33" s="32">
-        <v>0</v>
-      </c>
-      <c r="L33" s="32">
-        <v>0</v>
-      </c>
-      <c r="M33" s="55">
-        <f t="shared" si="2"/>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>003</v>
-      </c>
-      <c r="C34" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>Tampering</v>
-      </c>
-      <c r="D34" s="74" t="str">
-        <f t="shared" si="1"/>
-        <v>Malware infested Update</v>
-      </c>
-      <c r="E34" s="33">
-        <v>9</v>
-      </c>
-      <c r="F34" s="34">
-        <v>9</v>
-      </c>
-      <c r="G34" s="34">
-        <v>9</v>
-      </c>
-      <c r="H34" s="35">
-        <v>9</v>
-      </c>
-      <c r="I34" s="36">
-        <v>0</v>
-      </c>
-      <c r="J34" s="34">
-        <v>0</v>
-      </c>
-      <c r="K34" s="37">
-        <v>0</v>
-      </c>
-      <c r="L34" s="37">
-        <v>0</v>
-      </c>
-      <c r="M34" s="56">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v>004</v>
-      </c>
-      <c r="C35" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>DOS</v>
-      </c>
-      <c r="D35" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Theft or Loss of USB</v>
-      </c>
-      <c r="E35" s="38">
-        <v>9</v>
-      </c>
-      <c r="F35" s="29">
-        <v>9</v>
-      </c>
-      <c r="G35" s="29">
-        <v>9</v>
-      </c>
-      <c r="H35" s="30">
-        <v>9</v>
-      </c>
-      <c r="I35" s="31">
-        <v>0</v>
-      </c>
-      <c r="J35" s="29">
-        <v>0</v>
-      </c>
-      <c r="K35" s="32">
-        <v>0</v>
-      </c>
-      <c r="L35" s="32">
-        <v>0</v>
-      </c>
-      <c r="M35" s="55">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>005</v>
-      </c>
-      <c r="C36" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>Information Disclosure</v>
-      </c>
-      <c r="D36" s="74" t="str">
-        <f t="shared" si="1"/>
-        <v>password guess attack</v>
-      </c>
-      <c r="E36" s="33">
-        <v>9</v>
-      </c>
-      <c r="F36" s="34">
-        <v>9</v>
-      </c>
-      <c r="G36" s="34">
-        <v>9</v>
-      </c>
-      <c r="H36" s="35">
-        <v>9</v>
-      </c>
-      <c r="I36" s="36">
-        <v>0</v>
-      </c>
-      <c r="J36" s="34">
-        <v>0</v>
-      </c>
-      <c r="K36" s="37">
-        <v>0</v>
-      </c>
-      <c r="L36" s="37">
-        <v>0</v>
-      </c>
-      <c r="M36" s="56">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v>010</v>
-      </c>
-      <c r="C37" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>Tampering</v>
-      </c>
-      <c r="D37" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Spoof updated SW with older version which may have vulnerabilities, but is signed with an authentic key</v>
-      </c>
-      <c r="E37" s="38">
-        <v>9</v>
-      </c>
-      <c r="F37" s="29">
-        <v>9</v>
-      </c>
-      <c r="G37" s="29">
-        <v>9</v>
-      </c>
-      <c r="H37" s="30">
-        <v>9</v>
-      </c>
-      <c r="I37" s="31">
-        <v>0</v>
-      </c>
-      <c r="J37" s="29">
-        <v>0</v>
-      </c>
-      <c r="K37" s="32">
-        <v>0</v>
-      </c>
-      <c r="L37" s="32">
-        <v>0</v>
-      </c>
-      <c r="M37" s="55">
-        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="62" t="str">
+        <f>B11</f>
+        <v>005</v>
+      </c>
+      <c r="C38" s="65" t="str">
+        <f>C11</f>
+        <v>Information Disclosure</v>
+      </c>
+      <c r="D38" s="74" t="str">
+        <f>D11</f>
+        <v>password guess attack</v>
+      </c>
+      <c r="E38" s="33">
+        <v>9</v>
+      </c>
+      <c r="F38" s="34">
+        <v>9</v>
+      </c>
+      <c r="G38" s="34">
+        <v>9</v>
+      </c>
+      <c r="H38" s="35">
+        <v>9</v>
+      </c>
+      <c r="I38" s="36">
+        <v>0</v>
+      </c>
+      <c r="J38" s="34">
+        <v>0</v>
+      </c>
+      <c r="K38" s="37">
+        <v>0</v>
+      </c>
+      <c r="L38" s="37">
+        <v>0</v>
+      </c>
+      <c r="M38" s="56">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="61" t="str">
+        <f>B12</f>
+        <v>010</v>
+      </c>
+      <c r="C39" s="64" t="str">
+        <f>C12</f>
+        <v>Tampering</v>
+      </c>
+      <c r="D39" s="72" t="str">
+        <f>D12</f>
+        <v>Spoof updated SW with older version which may have vulnerabilities, but is signed with an authentic key</v>
+      </c>
+      <c r="E39" s="38">
+        <v>9</v>
+      </c>
+      <c r="F39" s="29">
+        <v>9</v>
+      </c>
+      <c r="G39" s="29">
+        <v>9</v>
+      </c>
+      <c r="H39" s="30">
+        <v>9</v>
+      </c>
+      <c r="I39" s="31">
+        <v>0</v>
+      </c>
+      <c r="J39" s="29">
+        <v>0</v>
+      </c>
+      <c r="K39" s="32">
+        <v>0</v>
+      </c>
+      <c r="L39" s="32">
+        <v>0</v>
+      </c>
+      <c r="M39" s="55">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="62" t="str">
+      <c r="B40" s="62" t="str">
+        <f>B13</f>
+        <v>012</v>
+      </c>
+      <c r="C40" s="65" t="str">
+        <f>C13</f>
+        <v>Information Disclosure</v>
+      </c>
+      <c r="D40" s="74" t="str">
+        <f>D13</f>
+        <v>App is used on a computer with a keystroke logger</v>
+      </c>
+      <c r="E40" s="33">
+        <v>9</v>
+      </c>
+      <c r="F40" s="34">
+        <v>9</v>
+      </c>
+      <c r="G40" s="34">
+        <v>9</v>
+      </c>
+      <c r="H40" s="35">
+        <v>9</v>
+      </c>
+      <c r="I40" s="36">
+        <v>0</v>
+      </c>
+      <c r="J40" s="34">
+        <v>0</v>
+      </c>
+      <c r="K40" s="37">
+        <v>0</v>
+      </c>
+      <c r="L40" s="37">
+        <v>0</v>
+      </c>
+      <c r="M40" s="56">
         <f t="shared" si="1"/>
-        <v>012</v>
-      </c>
-      <c r="C38" s="65" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="61" t="str">
+        <f>B14</f>
+        <v>014</v>
+      </c>
+      <c r="C41" s="64" t="str">
+        <f>C14</f>
+        <v>Tampering</v>
+      </c>
+      <c r="D41" s="72" t="str">
+        <f>D14</f>
+        <v>Modify device to “zero” factory public key, enabling malicious SW update</v>
+      </c>
+      <c r="E41" s="38">
+        <v>9</v>
+      </c>
+      <c r="F41" s="29">
+        <v>9</v>
+      </c>
+      <c r="G41" s="29">
+        <v>9</v>
+      </c>
+      <c r="H41" s="30">
+        <v>9</v>
+      </c>
+      <c r="I41" s="31">
+        <v>0</v>
+      </c>
+      <c r="J41" s="29">
+        <v>0</v>
+      </c>
+      <c r="K41" s="32">
+        <v>0</v>
+      </c>
+      <c r="L41" s="32">
+        <v>0</v>
+      </c>
+      <c r="M41" s="55">
         <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="62" t="str">
+        <f>B15</f>
+        <v>017</v>
+      </c>
+      <c r="C42" s="65" t="str">
+        <f>C15</f>
+        <v>DoS</v>
+      </c>
+      <c r="D42" s="74" t="str">
+        <f>D15</f>
+        <v>Remove power from device after it resets the counter but before it overwrites header and password file</v>
+      </c>
+      <c r="E42" s="33">
+        <v>9</v>
+      </c>
+      <c r="F42" s="34">
+        <v>9</v>
+      </c>
+      <c r="G42" s="34">
+        <v>9</v>
+      </c>
+      <c r="H42" s="35">
+        <v>9</v>
+      </c>
+      <c r="I42" s="36">
+        <v>0</v>
+      </c>
+      <c r="J42" s="34">
+        <v>0</v>
+      </c>
+      <c r="K42" s="37">
+        <v>0</v>
+      </c>
+      <c r="L42" s="37">
+        <v>0</v>
+      </c>
+      <c r="M42" s="56">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="61" t="str">
+        <f>B16</f>
+        <v>018</v>
+      </c>
+      <c r="C43" s="64" t="str">
+        <f>C16</f>
+        <v>Elevation of Privilege</v>
+      </c>
+      <c r="D43" s="72" t="str">
+        <f>D16</f>
+        <v>Request device reset and remove power after the header file is rewritten but before the password file is rewritten to allow access to encrypted password file for offline attacks.</v>
+      </c>
+      <c r="E43" s="38">
+        <v>9</v>
+      </c>
+      <c r="F43" s="29">
+        <v>9</v>
+      </c>
+      <c r="G43" s="29">
+        <v>9</v>
+      </c>
+      <c r="H43" s="30">
+        <v>9</v>
+      </c>
+      <c r="I43" s="31">
+        <v>0</v>
+      </c>
+      <c r="J43" s="29">
+        <v>0</v>
+      </c>
+      <c r="K43" s="32">
+        <v>0</v>
+      </c>
+      <c r="L43" s="32">
+        <v>0</v>
+      </c>
+      <c r="M43" s="55">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="62" t="str">
+        <f>B17</f>
+        <v>019</v>
+      </c>
+      <c r="C44" s="65" t="str">
+        <f>C17</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D38" s="74" t="str">
+      <c r="D44" s="74" t="str">
+        <f>D17</f>
+        <v>Fuzz USB commands to discover readable and/or writeable device memory</v>
+      </c>
+      <c r="E44" s="33">
+        <v>2</v>
+      </c>
+      <c r="F44" s="34">
+        <v>0</v>
+      </c>
+      <c r="G44" s="34">
+        <v>0</v>
+      </c>
+      <c r="H44" s="35">
+        <v>9</v>
+      </c>
+      <c r="I44" s="36">
+        <v>0</v>
+      </c>
+      <c r="J44" s="34">
+        <v>0</v>
+      </c>
+      <c r="K44" s="37">
+        <v>0</v>
+      </c>
+      <c r="L44" s="37">
+        <v>0</v>
+      </c>
+      <c r="M44" s="56">
         <f t="shared" si="1"/>
-        <v>App is used on a computer with a keystroke logger</v>
-      </c>
-      <c r="E38" s="33">
-        <v>9</v>
-      </c>
-      <c r="F38" s="34">
-        <v>9</v>
-      </c>
-      <c r="G38" s="34">
-        <v>9</v>
-      </c>
-      <c r="H38" s="35">
-        <v>9</v>
-      </c>
-      <c r="I38" s="36">
-        <v>0</v>
-      </c>
-      <c r="J38" s="34">
-        <v>0</v>
-      </c>
-      <c r="K38" s="37">
-        <v>0</v>
-      </c>
-      <c r="L38" s="37">
-        <v>0</v>
-      </c>
-      <c r="M38" s="56">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="61" t="str">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="61" t="str">
+        <f>B18</f>
+        <v>020</v>
+      </c>
+      <c r="C45" s="64" t="str">
+        <f>C18</f>
+        <v>Elevation of Privilege</v>
+      </c>
+      <c r="D45" s="72" t="str">
+        <f>D18</f>
+        <v>Fuzz USB commands to cause unpredictable behavior and/or discover point of entry to gain execution</v>
+      </c>
+      <c r="E45" s="38">
+        <v>2</v>
+      </c>
+      <c r="F45" s="29">
+        <v>0</v>
+      </c>
+      <c r="G45" s="29">
+        <v>0</v>
+      </c>
+      <c r="H45" s="30">
+        <v>9</v>
+      </c>
+      <c r="I45" s="31">
+        <v>0</v>
+      </c>
+      <c r="J45" s="29">
+        <v>0</v>
+      </c>
+      <c r="K45" s="32">
+        <v>0</v>
+      </c>
+      <c r="L45" s="32">
+        <v>0</v>
+      </c>
+      <c r="M45" s="55">
         <f t="shared" si="1"/>
-        <v>014</v>
-      </c>
-      <c r="C39" s="64" t="str">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="62" t="str">
+        <f>B19</f>
+        <v>021</v>
+      </c>
+      <c r="C46" s="65" t="str">
+        <f>C19</f>
+        <v>Information Disclosure</v>
+      </c>
+      <c r="D46" s="74" t="str">
+        <f>D19</f>
+        <v>Reset the device, obtain secure session with own credentials, and excavate available memory locations for old users’ password files</v>
+      </c>
+      <c r="E46" s="33">
+        <v>9</v>
+      </c>
+      <c r="F46" s="34">
+        <v>1</v>
+      </c>
+      <c r="G46" s="34">
+        <v>1</v>
+      </c>
+      <c r="H46" s="35">
+        <v>9</v>
+      </c>
+      <c r="I46" s="36">
+        <v>0</v>
+      </c>
+      <c r="J46" s="34">
+        <v>0</v>
+      </c>
+      <c r="K46" s="37">
+        <v>0</v>
+      </c>
+      <c r="L46" s="37">
+        <v>0</v>
+      </c>
+      <c r="M46" s="56">
         <f t="shared" si="1"/>
-        <v>Tampering</v>
-      </c>
-      <c r="D39" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Modify device to “zero” factory public key, enabling malicious SW update</v>
-      </c>
-      <c r="E39" s="38">
-        <v>9</v>
-      </c>
-      <c r="F39" s="29">
-        <v>9</v>
-      </c>
-      <c r="G39" s="29">
-        <v>9</v>
-      </c>
-      <c r="H39" s="30">
-        <v>9</v>
-      </c>
-      <c r="I39" s="31">
-        <v>0</v>
-      </c>
-      <c r="J39" s="29">
-        <v>0</v>
-      </c>
-      <c r="K39" s="32">
-        <v>0</v>
-      </c>
-      <c r="L39" s="32">
-        <v>0</v>
-      </c>
-      <c r="M39" s="55">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>017</v>
-      </c>
-      <c r="C40" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>DoS</v>
-      </c>
-      <c r="D40" s="74" t="str">
-        <f t="shared" si="1"/>
-        <v>Remove power from device after it resets the counter but before it overwrites header and password file</v>
-      </c>
-      <c r="E40" s="33">
-        <v>9</v>
-      </c>
-      <c r="F40" s="34">
-        <v>9</v>
-      </c>
-      <c r="G40" s="34">
-        <v>9</v>
-      </c>
-      <c r="H40" s="35">
-        <v>9</v>
-      </c>
-      <c r="I40" s="36">
-        <v>0</v>
-      </c>
-      <c r="J40" s="34">
-        <v>0</v>
-      </c>
-      <c r="K40" s="37">
-        <v>0</v>
-      </c>
-      <c r="L40" s="37">
-        <v>0</v>
-      </c>
-      <c r="M40" s="56">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v>018</v>
-      </c>
-      <c r="C41" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>Elevation of Privilege</v>
-      </c>
-      <c r="D41" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Request device reset and remove power after the header file is rewritten but before the password file is rewritten to allow access to encrypted password file for offline attacks.</v>
-      </c>
-      <c r="E41" s="38">
-        <v>9</v>
-      </c>
-      <c r="F41" s="29">
-        <v>9</v>
-      </c>
-      <c r="G41" s="29">
-        <v>9</v>
-      </c>
-      <c r="H41" s="30">
-        <v>9</v>
-      </c>
-      <c r="I41" s="31">
-        <v>0</v>
-      </c>
-      <c r="J41" s="29">
-        <v>0</v>
-      </c>
-      <c r="K41" s="32">
-        <v>0</v>
-      </c>
-      <c r="L41" s="32">
-        <v>0</v>
-      </c>
-      <c r="M41" s="55">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>019</v>
-      </c>
-      <c r="C42" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>Information Disclosure</v>
-      </c>
-      <c r="D42" s="74" t="str">
-        <f t="shared" si="1"/>
-        <v>Fuzz USB commands to discover readable and/or writeable device memory</v>
-      </c>
-      <c r="E42" s="33">
-        <v>2</v>
-      </c>
-      <c r="F42" s="34">
-        <v>0</v>
-      </c>
-      <c r="G42" s="34">
-        <v>0</v>
-      </c>
-      <c r="H42" s="35">
-        <v>9</v>
-      </c>
-      <c r="I42" s="36">
-        <v>0</v>
-      </c>
-      <c r="J42" s="34">
-        <v>0</v>
-      </c>
-      <c r="K42" s="37">
-        <v>0</v>
-      </c>
-      <c r="L42" s="37">
-        <v>0</v>
-      </c>
-      <c r="M42" s="56">
-        <f t="shared" si="2"/>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v>020</v>
-      </c>
-      <c r="C43" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>Elevation of Privilege</v>
-      </c>
-      <c r="D43" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>Fuzz USB commands to cause unpredictable behavior and/or discover point of entry to gain execution</v>
-      </c>
-      <c r="E43" s="38">
-        <v>2</v>
-      </c>
-      <c r="F43" s="29">
-        <v>0</v>
-      </c>
-      <c r="G43" s="29">
-        <v>0</v>
-      </c>
-      <c r="H43" s="30">
-        <v>9</v>
-      </c>
-      <c r="I43" s="31">
-        <v>0</v>
-      </c>
-      <c r="J43" s="29">
-        <v>0</v>
-      </c>
-      <c r="K43" s="32">
-        <v>0</v>
-      </c>
-      <c r="L43" s="32">
-        <v>0</v>
-      </c>
-      <c r="M43" s="55">
-        <f t="shared" si="2"/>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>021</v>
-      </c>
-      <c r="C44" s="65" t="str">
-        <f t="shared" si="1"/>
-        <v>Information Disclosure</v>
-      </c>
-      <c r="D44" s="74" t="str">
-        <f t="shared" si="1"/>
-        <v>Reset the device, obtain secure session with own credentials, and excavate available memory locations for old users’ password files</v>
-      </c>
-      <c r="E44" s="33">
-        <v>9</v>
-      </c>
-      <c r="F44" s="34">
-        <v>1</v>
-      </c>
-      <c r="G44" s="34">
-        <v>1</v>
-      </c>
-      <c r="H44" s="35">
-        <v>9</v>
-      </c>
-      <c r="I44" s="36">
-        <v>0</v>
-      </c>
-      <c r="J44" s="34">
-        <v>0</v>
-      </c>
-      <c r="K44" s="37">
-        <v>0</v>
-      </c>
-      <c r="L44" s="37">
-        <v>0</v>
-      </c>
-      <c r="M44" s="56">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="61">
+      <c r="B47" s="61">
         <v>24</v>
       </c>
-      <c r="C45" s="64" t="str">
+      <c r="C47" s="64" t="str">
         <f>C20</f>
         <v>Spoofing</v>
       </c>
-      <c r="D45" s="72" t="str">
+      <c r="D47" s="72" t="str">
         <f>D20</f>
         <v>The real USB is switched with the fake one which has the keylogging function</v>
       </c>
-      <c r="E45" s="38">
-        <v>9</v>
-      </c>
-      <c r="F45" s="29">
-        <v>9</v>
-      </c>
-      <c r="G45" s="29">
-        <v>9</v>
-      </c>
-      <c r="H45" s="30">
-        <v>9</v>
-      </c>
-      <c r="I45" s="31">
-        <v>0</v>
-      </c>
-      <c r="J45" s="29">
-        <v>0</v>
-      </c>
-      <c r="K45" s="32">
-        <v>0</v>
-      </c>
-      <c r="L45" s="32">
-        <v>0</v>
-      </c>
-      <c r="M45" s="55">
+      <c r="E47" s="38">
+        <v>9</v>
+      </c>
+      <c r="F47" s="29">
+        <v>9</v>
+      </c>
+      <c r="G47" s="29">
+        <v>9</v>
+      </c>
+      <c r="H47" s="30">
+        <v>9</v>
+      </c>
+      <c r="I47" s="31">
+        <v>0</v>
+      </c>
+      <c r="J47" s="29">
+        <v>0</v>
+      </c>
+      <c r="K47" s="32">
+        <v>0</v>
+      </c>
+      <c r="L47" s="32">
+        <v>0</v>
+      </c>
+      <c r="M47" s="55">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="20" t="str">
+        <f>'Table of Threats'!A29</f>
+        <v>026</v>
+      </c>
+      <c r="C48" s="65" t="str">
+        <f>'Table of Threats'!D29</f>
+        <v>Repudiation</v>
+      </c>
+      <c r="D48" s="74" t="str">
+        <f>'Table of Threats'!E29</f>
+        <v>Logs May be visible to a low privilege attacker</v>
+      </c>
+      <c r="E48" s="33">
+        <v>6</v>
+      </c>
+      <c r="F48" s="34">
+        <v>1</v>
+      </c>
+      <c r="G48" s="34">
+        <v>0</v>
+      </c>
+      <c r="H48" s="35">
+        <v>7</v>
+      </c>
+      <c r="I48" s="36">
+        <v>0</v>
+      </c>
+      <c r="J48" s="34">
+        <v>0</v>
+      </c>
+      <c r="K48" s="37">
+        <v>0</v>
+      </c>
+      <c r="L48" s="37">
+        <v>0</v>
+      </c>
+      <c r="M48" s="56">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="19" t="str">
+        <f>B22</f>
+        <v>027</v>
+      </c>
+      <c r="C49" s="19" t="str">
+        <f>C22</f>
+        <v>Repudiation</v>
+      </c>
+      <c r="D49" s="108" t="str">
+        <f>D22</f>
+        <v>Weak Digital Signature may allow an attacker to alter digital signature</v>
+      </c>
+      <c r="E49" s="38">
+        <v>9</v>
+      </c>
+      <c r="F49" s="29">
+        <v>9</v>
+      </c>
+      <c r="G49" s="29">
+        <v>9</v>
+      </c>
+      <c r="H49" s="30">
+        <v>9</v>
+      </c>
+      <c r="I49" s="31">
+        <v>0</v>
+      </c>
+      <c r="J49" s="29">
+        <v>0</v>
+      </c>
+      <c r="K49" s="32">
+        <v>0</v>
+      </c>
+      <c r="L49" s="32">
+        <v>0</v>
+      </c>
+      <c r="M49" s="55">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="51" t="str">
+        <f>B23</f>
+        <v>031</v>
+      </c>
+      <c r="C50" s="51" t="str">
+        <f t="shared" ref="C50:D50" si="2">C23</f>
+        <v>Repudiation</v>
+      </c>
+      <c r="D50" s="51" t="str">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="62"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="56"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="61"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="55"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="62"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="56"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+        <v>Lack of ACL, encryption and permissions can allow an attacker to access, and tamper with log and file information</v>
+      </c>
+      <c r="E50" s="33">
+        <v>9</v>
+      </c>
+      <c r="F50" s="34">
+        <v>7</v>
+      </c>
+      <c r="G50" s="34">
+        <v>5</v>
+      </c>
+      <c r="H50" s="35">
+        <v>8</v>
+      </c>
+      <c r="I50" s="36">
+        <v>0</v>
+      </c>
+      <c r="J50" s="34">
+        <v>0</v>
+      </c>
+      <c r="K50" s="37">
+        <v>0</v>
+      </c>
+      <c r="L50" s="37">
+        <v>0</v>
+      </c>
+      <c r="M50" s="56">
+        <f t="shared" si="1"/>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="61"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="55"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="B51" s="141" t="str">
+        <f>B24</f>
+        <v>042</v>
+      </c>
+      <c r="C51" s="141" t="str">
+        <f t="shared" ref="C51:D51" si="3">C24</f>
+        <v>Information Disclosure</v>
+      </c>
+      <c r="D51" s="141" t="str">
+        <f t="shared" si="3"/>
+        <v>An attacker can read the software update image while in transit</v>
+      </c>
+      <c r="E51" s="38">
+        <v>7</v>
+      </c>
+      <c r="F51" s="29">
+        <v>0</v>
+      </c>
+      <c r="G51" s="29">
+        <v>0</v>
+      </c>
+      <c r="H51" s="30">
+        <v>9</v>
+      </c>
+      <c r="I51" s="31">
+        <v>0</v>
+      </c>
+      <c r="J51" s="29">
+        <v>0</v>
+      </c>
+      <c r="K51" s="32">
+        <v>0</v>
+      </c>
+      <c r="L51" s="32">
+        <v>0</v>
+      </c>
+      <c r="M51" s="55">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="62"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="56"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="61"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="55"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="56"/>
+      <c r="B52" s="51" t="str">
+        <f>B25</f>
+        <v>043</v>
+      </c>
+      <c r="C52" s="51" t="str">
+        <f t="shared" ref="C52:D52" si="4">C25</f>
+        <v>Elevation of Privilege</v>
+      </c>
+      <c r="D52" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>a malformed SQL attack may result in elevation of privilege</v>
+      </c>
+      <c r="E52" s="33">
+        <v>7</v>
+      </c>
+      <c r="F52" s="34">
+        <v>5</v>
+      </c>
+      <c r="G52" s="34">
+        <v>5</v>
+      </c>
+      <c r="H52" s="35">
+        <v>9</v>
+      </c>
+      <c r="I52" s="36">
+        <v>0</v>
+      </c>
+      <c r="J52" s="34">
+        <v>0</v>
+      </c>
+      <c r="K52" s="37">
+        <v>0</v>
+      </c>
+      <c r="L52" s="37">
+        <v>0</v>
+      </c>
+      <c r="M52" s="56">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B53" s="61"/>
       <c r="C53" s="64"/>
@@ -6247,46 +6670,80 @@
       <c r="L53" s="32"/>
       <c r="M53" s="55"/>
     </row>
-    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="56"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="61"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="55"/>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="63"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="57"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
     <mergeCell ref="B2:K3"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="I5:L5"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B27:K28"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="B29:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A32:A54 A7:A19" numberStoredAsText="1"/>
+    <ignoredError sqref="A34:A56 A7:A19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6309,53 +6766,53 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="113"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="116"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="107" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="128" t="s">
+      <c r="C5" s="109" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="126" t="s">
+      <c r="E5" s="125"/>
+      <c r="F5" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="126" t="s">
+      <c r="H5" s="122" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
     </row>
     <row r="7" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -6365,17 +6822,17 @@
         <f>'Risk Tables'!C7</f>
         <v>Repudiation / Tamper</v>
       </c>
-      <c r="D7" s="124" t="str">
+      <c r="D7" s="128" t="str">
         <f>'Risk Tables'!D7</f>
         <v>An attacker can tamper with the reset counter and cause the system to never reset, enabling a brute force attack.  The reset counter serves as a log of failed password attempts</v>
       </c>
-      <c r="E7" s="125"/>
+      <c r="E7" s="129"/>
       <c r="F7" s="95">
         <f>'Risk Tables'!M7</f>
         <v>3.625</v>
       </c>
       <c r="G7" s="95">
-        <f>'Risk Tables'!M32</f>
+        <f>'Risk Tables'!M34</f>
         <v>9</v>
       </c>
       <c r="H7" s="25">
@@ -6400,7 +6857,7 @@
         <v>2.875</v>
       </c>
       <c r="G8" s="96">
-        <f>'Risk Tables'!M33</f>
+        <f>'Risk Tables'!M35</f>
         <v>2.75</v>
       </c>
       <c r="H8" s="30">
@@ -6415,17 +6872,17 @@
         <f>'Risk Tables'!C9</f>
         <v>Tampering</v>
       </c>
-      <c r="D9" s="118" t="str">
+      <c r="D9" s="130" t="str">
         <f>'Risk Tables'!D9</f>
         <v>Malware infested Update</v>
       </c>
-      <c r="E9" s="119"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="97">
         <f>'Risk Tables'!M9</f>
         <v>4.5</v>
       </c>
       <c r="G9" s="97">
-        <f>'Risk Tables'!M34</f>
+        <f>'Risk Tables'!M36</f>
         <v>9</v>
       </c>
       <c r="H9" s="35">
@@ -6450,7 +6907,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="96">
-        <f>'Risk Tables'!M35</f>
+        <f>'Risk Tables'!M37</f>
         <v>9</v>
       </c>
       <c r="H10" s="30">
@@ -6465,17 +6922,17 @@
         <f>'Risk Tables'!C11</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D11" s="118" t="str">
+      <c r="D11" s="130" t="str">
         <f>'Risk Tables'!D11</f>
         <v>password guess attack</v>
       </c>
-      <c r="E11" s="119"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="97">
         <f>'Risk Tables'!M11</f>
         <v>3.75</v>
       </c>
       <c r="G11" s="97">
-        <f>'Risk Tables'!M36</f>
+        <f>'Risk Tables'!M38</f>
         <v>9</v>
       </c>
       <c r="H11" s="35">
@@ -6500,7 +6957,7 @@
         <v>4.5</v>
       </c>
       <c r="G12" s="96">
-        <f>'Risk Tables'!M37</f>
+        <f>'Risk Tables'!M39</f>
         <v>9</v>
       </c>
       <c r="H12" s="30">
@@ -6515,17 +6972,17 @@
         <f>'Risk Tables'!C13</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D13" s="118" t="str">
+      <c r="D13" s="130" t="str">
         <f>'Risk Tables'!D13</f>
         <v>App is used on a computer with a keystroke logger</v>
       </c>
-      <c r="E13" s="119"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="97">
         <f>'Risk Tables'!M13</f>
         <v>5</v>
       </c>
       <c r="G13" s="97">
-        <f>'Risk Tables'!M38</f>
+        <f>'Risk Tables'!M40</f>
         <v>9</v>
       </c>
       <c r="H13" s="35">
@@ -6550,7 +7007,7 @@
         <v>2.125</v>
       </c>
       <c r="G14" s="96">
-        <f>'Risk Tables'!M39</f>
+        <f>'Risk Tables'!M41</f>
         <v>9</v>
       </c>
       <c r="H14" s="30">
@@ -6565,17 +7022,17 @@
         <f>'Risk Tables'!C15</f>
         <v>DoS</v>
       </c>
-      <c r="D15" s="118" t="str">
+      <c r="D15" s="130" t="str">
         <f>'Risk Tables'!D15</f>
         <v>Remove power from device after it resets the counter but before it overwrites header and password file</v>
       </c>
-      <c r="E15" s="119"/>
+      <c r="E15" s="131"/>
       <c r="F15" s="97">
         <f>'Risk Tables'!M15</f>
         <v>3.75</v>
       </c>
       <c r="G15" s="97">
-        <f>'Risk Tables'!M40</f>
+        <f>'Risk Tables'!M42</f>
         <v>9</v>
       </c>
       <c r="H15" s="35">
@@ -6600,7 +7057,7 @@
         <v>3.75</v>
       </c>
       <c r="G16" s="96">
-        <f>'Risk Tables'!M41</f>
+        <f>'Risk Tables'!M43</f>
         <v>9</v>
       </c>
       <c r="H16" s="30">
@@ -6615,17 +7072,17 @@
         <f>'Risk Tables'!C17</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D17" s="118" t="str">
+      <c r="D17" s="130" t="str">
         <f>'Risk Tables'!D17</f>
         <v>Fuzz USB commands to discover readable and/or writeable device memory</v>
       </c>
-      <c r="E17" s="119"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="97">
         <f>'Risk Tables'!M17</f>
         <v>3</v>
       </c>
       <c r="G17" s="97">
-        <f>'Risk Tables'!M42</f>
+        <f>'Risk Tables'!M44</f>
         <v>2.75</v>
       </c>
       <c r="H17" s="35">
@@ -6650,7 +7107,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="96">
-        <f>'Risk Tables'!M43</f>
+        <f>'Risk Tables'!M45</f>
         <v>2.75</v>
       </c>
       <c r="H18" s="30">
@@ -6665,17 +7122,17 @@
         <f>'Risk Tables'!C19</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D19" s="118" t="str">
+      <c r="D19" s="130" t="str">
         <f>'Risk Tables'!D19</f>
         <v>Reset the device, obtain secure session with own credentials, and excavate available memory locations for old users’ password files</v>
       </c>
-      <c r="E19" s="119"/>
+      <c r="E19" s="131"/>
       <c r="F19" s="97">
         <f>'Risk Tables'!M19</f>
         <v>3</v>
       </c>
       <c r="G19" s="97">
-        <f>'Risk Tables'!M44</f>
+        <f>'Risk Tables'!M46</f>
         <v>5</v>
       </c>
       <c r="H19" s="35">
@@ -6698,8 +7155,8 @@
         <v>19</v>
       </c>
       <c r="C21" s="90"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="131"/>
       <c r="F21" s="93"/>
       <c r="G21" s="93"/>
       <c r="H21" s="35"/>
@@ -6720,8 +7177,8 @@
         <v>21</v>
       </c>
       <c r="C23" s="90"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="119"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
       <c r="H23" s="35"/>
@@ -6742,8 +7199,8 @@
         <v>23</v>
       </c>
       <c r="C25" s="90"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="119"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
       <c r="F25" s="93"/>
       <c r="G25" s="93"/>
       <c r="H25" s="35"/>
@@ -6764,8 +7221,8 @@
         <v>25</v>
       </c>
       <c r="C27" s="90"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="131"/>
       <c r="F27" s="93"/>
       <c r="G27" s="93"/>
       <c r="H27" s="35"/>
@@ -6786,27 +7243,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="91"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="123"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133"/>
       <c r="F29" s="94"/>
       <c r="G29" s="94"/>
       <c r="H29" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -6819,11 +7268,19 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:H29">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -6876,48 +7333,48 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="107" t="s">
+      <c r="H2" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="107" t="s">
+      <c r="I2" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="107" t="s">
+      <c r="J2" s="109" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -7276,37 +7733,37 @@
   <sheetData>
     <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="132" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="134"/>
+      <c r="E4" s="134" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="136"/>
     </row>
     <row r="5" spans="3:9" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="I5" s="78" t="s">
         <v>259</v>
       </c>
-      <c r="G5" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="H5" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="I5" s="78" t="s">
-        <v>262</v>
-      </c>
     </row>
     <row r="6" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="135" t="s">
-        <v>247</v>
+      <c r="C6" s="137" t="s">
+        <v>244</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E6" s="79"/>
       <c r="F6" s="80"/>
@@ -7315,9 +7772,9 @@
       <c r="I6" s="82"/>
     </row>
     <row r="7" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="136"/>
+      <c r="C7" s="138"/>
       <c r="D7" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E7" s="79"/>
       <c r="F7" s="79"/>
@@ -7326,9 +7783,9 @@
       <c r="I7" s="81"/>
     </row>
     <row r="8" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="136"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="78" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E8" s="83"/>
       <c r="F8" s="79"/>
@@ -7337,9 +7794,9 @@
       <c r="I8" s="81"/>
     </row>
     <row r="9" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="136"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="78" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E9" s="83"/>
       <c r="F9" s="83"/>
@@ -7348,9 +7805,9 @@
       <c r="I9" s="80"/>
     </row>
     <row r="10" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="137"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="78" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E10" s="84"/>
       <c r="F10" s="83"/>
@@ -7369,16 +7826,16 @@
     </row>
     <row r="12" spans="3:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="86" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" s="86" t="s">
         <v>248</v>
-      </c>
-      <c r="E12" s="86" t="s">
-        <v>249</v>
-      </c>
-      <c r="F12" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="G12" s="86" t="s">
-        <v>251</v>
       </c>
       <c r="H12" s="86"/>
       <c r="I12" s="86"/>
@@ -7389,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G13" s="87"/>
     </row>
@@ -7399,7 +7856,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="87" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G14" s="87"/>
     </row>
@@ -7409,7 +7866,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="87" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G15" s="87"/>
     </row>
@@ -7419,7 +7876,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="87" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G16" s="87"/>
     </row>
@@ -7429,7 +7886,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="87" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G17" s="87"/>
     </row>
@@ -7439,7 +7896,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="87" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G18" s="87"/>
     </row>
@@ -7455,13 +7912,13 @@
         <v>43</v>
       </c>
       <c r="F21" s="100" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G21" s="100" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H21" s="101" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7474,7 +7931,7 @@
         <v>Repudiation / Tamper</v>
       </c>
       <c r="E22" s="103" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F22" s="106">
         <f>'Threat Summary Table'!F7</f>
@@ -7499,7 +7956,7 @@
         <v>Repudiation/Spoofing</v>
       </c>
       <c r="E23" s="103" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F23" s="106">
         <f>'Threat Summary Table'!F8</f>
@@ -7524,7 +7981,7 @@
         <v>Tampering</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F24" s="106">
         <f>'Threat Summary Table'!F9</f>
@@ -7549,7 +8006,7 @@
         <v>DOS</v>
       </c>
       <c r="E25" s="103" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F25" s="106">
         <f>'Threat Summary Table'!F10</f>
@@ -7574,7 +8031,7 @@
         <v>Information Disclosure</v>
       </c>
       <c r="E26" s="103" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F26" s="106">
         <f>'Threat Summary Table'!F11</f>
@@ -7599,7 +8056,7 @@
         <v>Tampering</v>
       </c>
       <c r="E27" s="103" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F27" s="106">
         <f>'Threat Summary Table'!F12</f>
@@ -7624,7 +8081,7 @@
         <v>Information Disclosure</v>
       </c>
       <c r="E28" s="103" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F28" s="106">
         <f>'Threat Summary Table'!F13</f>
@@ -7649,7 +8106,7 @@
         <v>Tampering</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F29" s="106">
         <f>'Threat Summary Table'!F14</f>
@@ -7674,7 +8131,7 @@
         <v>DoS</v>
       </c>
       <c r="E30" s="103" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F30" s="106">
         <f>'Threat Summary Table'!F15</f>
@@ -7699,7 +8156,7 @@
         <v>Elevation of Privilege</v>
       </c>
       <c r="E31" s="103" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F31" s="106">
         <f>'Threat Summary Table'!F16</f>
@@ -7724,7 +8181,7 @@
         <v>Information Disclosure</v>
       </c>
       <c r="E32" s="103" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F32" s="106">
         <f>'Threat Summary Table'!F17</f>
@@ -7749,7 +8206,7 @@
         <v>Elevation of Privilege</v>
       </c>
       <c r="E33" s="103" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F33" s="106">
         <f>'Threat Summary Table'!F18</f>
@@ -7774,7 +8231,7 @@
         <v>Information Disclosure</v>
       </c>
       <c r="E34" s="103" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F34" s="106">
         <f>'Threat Summary Table'!F19</f>

--- a/excel table/threat_risk_tables_main1.xlsx
+++ b/excel table/threat_risk_tables_main1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table of Threats'!$C$2:$I$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table of Threats'!$C$2:$H$59</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="310">
   <si>
     <t>Diagram Element</t>
   </si>
@@ -1817,12 +1817,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1850,48 +1859,48 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1909,15 +1918,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2717,36 +2717,36 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="111" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3040,10 +3040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42:I43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3053,55 +3053,50 @@
     <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.5703125" style="52" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1"/>
-    <col min="11" max="11" width="156.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="52" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="156.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="109" t="s">
+      <c r="C2" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="109" t="s">
+      <c r="H2" s="111" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-    </row>
-    <row r="4" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+    </row>
+    <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3123,12 +3118,11 @@
       <c r="G4" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="75" t="s">
+      <c r="H4" s="75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -3150,12 +3144,11 @@
       <c r="G5" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="76" t="s">
+      <c r="H5" s="76" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -3177,12 +3170,11 @@
       <c r="G6" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="77" t="s">
+      <c r="H6" s="77" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -3204,12 +3196,11 @@
       <c r="G7" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="76" t="s">
+      <c r="H7" s="76" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -3231,12 +3222,11 @@
       <c r="G8" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H8" s="77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -3258,12 +3248,11 @@
       <c r="G9" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="76" t="s">
+      <c r="H9" s="76" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -3283,12 +3272,11 @@
       <c r="G10" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="77" t="s">
+      <c r="H10" s="77" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -3310,12 +3298,11 @@
       <c r="G11" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="76" t="s">
+      <c r="H11" s="76" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -3337,12 +3324,11 @@
       <c r="G12" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="77" t="s">
+      <c r="H12" s="77" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -3364,12 +3350,11 @@
       <c r="G13" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="76" t="s">
+      <c r="H13" s="76" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -3391,12 +3376,11 @@
       <c r="G14" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="77" t="s">
+      <c r="H14" s="77" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -3418,12 +3402,11 @@
       <c r="G15" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="76" t="s">
+      <c r="H15" s="76" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
@@ -3443,12 +3426,11 @@
         <v>75</v>
       </c>
       <c r="G16" s="44"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="77" t="s">
+      <c r="H16" s="77" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -3470,15 +3452,14 @@
       <c r="G17" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="76" t="s">
+      <c r="H17" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="45" t="s">
+      <c r="J17" s="45" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
@@ -3500,15 +3481,14 @@
       <c r="G18" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="77" t="s">
+      <c r="H18" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="J18" s="44" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3530,15 +3510,14 @@
       <c r="G19" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="76" t="s">
+      <c r="H19" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="45" t="s">
+      <c r="J19" s="45" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
@@ -3560,15 +3539,14 @@
       <c r="G20" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="77" t="s">
+      <c r="H20" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="J20" s="44" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -3590,15 +3568,14 @@
       <c r="G21" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="76" t="s">
+      <c r="H21" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="45" t="s">
+      <c r="J21" s="45" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -3620,15 +3597,14 @@
       <c r="G22" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="77" t="s">
+      <c r="H22" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="44" t="s">
+      <c r="J22" s="44" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
@@ -3650,15 +3626,14 @@
       <c r="G23" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="76" t="s">
+      <c r="H23" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="45" t="s">
+      <c r="J23" s="45" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>25</v>
       </c>
@@ -3680,15 +3655,14 @@
       <c r="G24" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="77" t="s">
+      <c r="H24" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="44" t="s">
+      <c r="J24" s="44" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
@@ -3710,15 +3684,14 @@
       <c r="G25" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="76" t="s">
+      <c r="H25" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="45" t="s">
+      <c r="J25" s="45" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
@@ -3740,15 +3713,14 @@
       <c r="G26" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="77" t="s">
+      <c r="H26" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="44" t="s">
+      <c r="J26" s="44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>279</v>
       </c>
@@ -3770,15 +3742,14 @@
       <c r="G27" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="76" t="s">
+      <c r="H27" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="K27" s="45" t="s">
+      <c r="J27" s="45" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>165</v>
       </c>
@@ -3800,15 +3771,14 @@
       <c r="G28" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="77" t="s">
+      <c r="H28" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="K28" s="44" t="s">
+      <c r="J28" s="44" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>166</v>
       </c>
@@ -3830,15 +3800,14 @@
       <c r="G29" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="76" t="s">
+      <c r="H29" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="K29" s="45" t="s">
+      <c r="J29" s="45" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>167</v>
       </c>
@@ -3860,13 +3829,12 @@
       <c r="G30" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="77" t="s">
+      <c r="H30" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="K30" s="44"/>
-    </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J30" s="44"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>168</v>
       </c>
@@ -3888,13 +3856,12 @@
       <c r="G31" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="76" t="s">
+      <c r="H31" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="K31" s="45"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J31" s="45"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>169</v>
       </c>
@@ -3916,13 +3883,12 @@
       <c r="G32" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="H32" s="34"/>
-      <c r="I32" s="77" t="s">
+      <c r="H32" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="K32" s="44"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J32" s="44"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>170</v>
       </c>
@@ -3944,13 +3910,12 @@
       <c r="G33" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="76" t="s">
+      <c r="H33" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="K33" s="45"/>
-    </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J33" s="45"/>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>171</v>
       </c>
@@ -3969,16 +3934,15 @@
       <c r="F34" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="G34" s="142" t="s">
+      <c r="G34" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="H34" s="34"/>
-      <c r="I34" s="77" t="s">
+      <c r="H34" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="K34" s="44"/>
-    </row>
-    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J34" s="44"/>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>172</v>
       </c>
@@ -3997,14 +3961,13 @@
       <c r="F35" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="G35" s="142"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="76" t="s">
+      <c r="G35" s="113"/>
+      <c r="H35" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="K35" s="45"/>
-    </row>
-    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J35" s="45"/>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>173</v>
       </c>
@@ -4023,14 +3986,13 @@
       <c r="F36" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="G36" s="142"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="77" t="s">
+      <c r="G36" s="113"/>
+      <c r="H36" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="K36" s="44"/>
-    </row>
-    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J36" s="44"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>174</v>
       </c>
@@ -4049,14 +4011,13 @@
       <c r="F37" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="G37" s="142"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="76" t="s">
+      <c r="G37" s="113"/>
+      <c r="H37" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="K37" s="45"/>
-    </row>
-    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J37" s="45"/>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>175</v>
       </c>
@@ -4074,13 +4035,12 @@
         <v>298</v>
       </c>
       <c r="G38" s="44"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="77" t="s">
+      <c r="H38" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="K38" s="44"/>
-    </row>
-    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J38" s="44"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>176</v>
       </c>
@@ -4102,15 +4062,14 @@
       <c r="G39" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="H39" s="29"/>
-      <c r="I39" s="76" t="s">
+      <c r="H39" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="K39" s="45" t="s">
+      <c r="J39" s="45" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>177</v>
       </c>
@@ -4128,15 +4087,14 @@
       </c>
       <c r="F40" s="44"/>
       <c r="G40" s="44"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="77" t="s">
+      <c r="H40" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="K40" s="44" t="s">
+      <c r="J40" s="44" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>178</v>
       </c>
@@ -4156,15 +4114,14 @@
       <c r="G41" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="76" t="s">
+      <c r="H41" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="K41" s="45" t="s">
+      <c r="J41" s="45" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>182</v>
       </c>
@@ -4186,13 +4143,12 @@
       <c r="G42" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="H42" s="34"/>
-      <c r="I42" s="77" t="s">
+      <c r="H42" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="K42" s="44"/>
-    </row>
-    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J42" s="44"/>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>183</v>
       </c>
@@ -4214,13 +4170,12 @@
       <c r="G43" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="76" t="s">
+      <c r="H43" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="K43" s="45"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J43" s="45"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>184</v>
       </c>
@@ -4230,10 +4185,9 @@
       <c r="E44" s="44"/>
       <c r="F44" s="44"/>
       <c r="G44" s="44"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="77"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H44" s="77"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>185</v>
       </c>
@@ -4243,10 +4197,9 @@
       <c r="E45" s="45"/>
       <c r="F45" s="45"/>
       <c r="G45" s="45"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="76"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H45" s="76"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>186</v>
       </c>
@@ -4256,10 +4209,9 @@
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="77"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H46" s="77"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>187</v>
       </c>
@@ -4269,10 +4221,9 @@
       <c r="E47" s="45"/>
       <c r="F47" s="45"/>
       <c r="G47" s="45"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="76"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H47" s="76"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>188</v>
       </c>
@@ -4282,10 +4233,9 @@
       <c r="E48" s="44"/>
       <c r="F48" s="44"/>
       <c r="G48" s="44"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="77"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H48" s="77"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>189</v>
       </c>
@@ -4295,10 +4245,9 @@
       <c r="E49" s="45"/>
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="76"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H49" s="76"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>190</v>
       </c>
@@ -4308,10 +4257,9 @@
       <c r="E50" s="44"/>
       <c r="F50" s="44"/>
       <c r="G50" s="44"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="77"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H50" s="77"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>191</v>
       </c>
@@ -4321,10 +4269,9 @@
       <c r="E51" s="45"/>
       <c r="F51" s="45"/>
       <c r="G51" s="45"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="76"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H51" s="76"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>192</v>
       </c>
@@ -4334,10 +4281,9 @@
       <c r="E52" s="44"/>
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="77"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H52" s="77"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>193</v>
       </c>
@@ -4347,10 +4293,9 @@
       <c r="E53" s="45"/>
       <c r="F53" s="45"/>
       <c r="G53" s="45"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="76"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H53" s="76"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>194</v>
       </c>
@@ -4360,10 +4305,9 @@
       <c r="E54" s="44"/>
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="77"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H54" s="77"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>195</v>
       </c>
@@ -4373,10 +4317,9 @@
       <c r="E55" s="45"/>
       <c r="F55" s="45"/>
       <c r="G55" s="45"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="76"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H55" s="76"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>196</v>
       </c>
@@ -4386,10 +4329,9 @@
       <c r="E56" s="44"/>
       <c r="F56" s="44"/>
       <c r="G56" s="44"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="77"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H56" s="77"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>197</v>
       </c>
@@ -4399,10 +4341,9 @@
       <c r="E57" s="45"/>
       <c r="F57" s="45"/>
       <c r="G57" s="45"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="76"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H57" s="76"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>198</v>
       </c>
@@ -4412,10 +4353,9 @@
       <c r="E58" s="44"/>
       <c r="F58" s="44"/>
       <c r="G58" s="44"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="35"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H58" s="35"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>199</v>
       </c>
@@ -4425,10 +4365,9 @@
       <c r="E59" s="45"/>
       <c r="F59" s="45"/>
       <c r="G59" s="45"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="30"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H59" s="30"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="20"/>
       <c r="C60" s="44"/>
@@ -4436,10 +4375,9 @@
       <c r="E60" s="44"/>
       <c r="F60" s="44"/>
       <c r="G60" s="44"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="35"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H60" s="35"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="19"/>
       <c r="C61" s="45"/>
@@ -4447,10 +4385,9 @@
       <c r="E61" s="45"/>
       <c r="F61" s="45"/>
       <c r="G61" s="45"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="30"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H61" s="30"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="20"/>
       <c r="C62" s="44"/>
@@ -4458,10 +4395,9 @@
       <c r="E62" s="44"/>
       <c r="F62" s="44"/>
       <c r="G62" s="44"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="35"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H62" s="35"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="19"/>
       <c r="C63" s="45"/>
@@ -4469,10 +4405,9 @@
       <c r="E63" s="45"/>
       <c r="F63" s="45"/>
       <c r="G63" s="45"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="30"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H63" s="30"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="20"/>
       <c r="C64" s="44"/>
@@ -4480,10 +4415,9 @@
       <c r="E64" s="44"/>
       <c r="F64" s="44"/>
       <c r="G64" s="44"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="35"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H64" s="35"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="19"/>
       <c r="C65" s="45"/>
@@ -4491,10 +4425,9 @@
       <c r="E65" s="45"/>
       <c r="F65" s="45"/>
       <c r="G65" s="45"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="30"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H65" s="30"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="20"/>
       <c r="C66" s="44"/>
@@ -4502,10 +4435,9 @@
       <c r="E66" s="44"/>
       <c r="F66" s="44"/>
       <c r="G66" s="44"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="35"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H66" s="35"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="19"/>
       <c r="C67" s="45"/>
@@ -4513,10 +4445,9 @@
       <c r="E67" s="45"/>
       <c r="F67" s="45"/>
       <c r="G67" s="45"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="30"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H67" s="30"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="20"/>
       <c r="C68" s="44"/>
@@ -4524,10 +4455,9 @@
       <c r="E68" s="44"/>
       <c r="F68" s="44"/>
       <c r="G68" s="44"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="35"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H68" s="35"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="19"/>
       <c r="C69" s="45"/>
@@ -4535,10 +4465,9 @@
       <c r="E69" s="45"/>
       <c r="F69" s="45"/>
       <c r="G69" s="45"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="30"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H69" s="30"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="20"/>
       <c r="C70" s="44"/>
@@ -4546,10 +4475,9 @@
       <c r="E70" s="44"/>
       <c r="F70" s="44"/>
       <c r="G70" s="44"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="35"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H70" s="35"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="19"/>
       <c r="C71" s="45"/>
@@ -4557,10 +4485,9 @@
       <c r="E71" s="45"/>
       <c r="F71" s="45"/>
       <c r="G71" s="45"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="30"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H71" s="30"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="20"/>
       <c r="C72" s="44"/>
@@ -4568,10 +4495,9 @@
       <c r="E72" s="44"/>
       <c r="F72" s="44"/>
       <c r="G72" s="44"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="35"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H72" s="35"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="19"/>
       <c r="C73" s="45"/>
@@ -4579,10 +4505,9 @@
       <c r="E73" s="45"/>
       <c r="F73" s="45"/>
       <c r="G73" s="45"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="30"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H73" s="30"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="20"/>
       <c r="C74" s="44"/>
@@ -4590,10 +4515,9 @@
       <c r="E74" s="44"/>
       <c r="F74" s="44"/>
       <c r="G74" s="44"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="35"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H74" s="35"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="19"/>
       <c r="C75" s="45"/>
@@ -4601,10 +4525,9 @@
       <c r="E75" s="45"/>
       <c r="F75" s="45"/>
       <c r="G75" s="45"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="30"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H75" s="30"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="20"/>
       <c r="C76" s="44"/>
@@ -4612,10 +4535,9 @@
       <c r="E76" s="44"/>
       <c r="F76" s="44"/>
       <c r="G76" s="44"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="35"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H76" s="35"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C77" s="52" t="s">
         <v>157</v>
       </c>
@@ -4629,7 +4551,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C80" s="52" t="s">
         <v>82</v>
       </c>
@@ -4698,11 +4620,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:I59"/>
-  <mergeCells count="10">
+  <autoFilter ref="C2:H59"/>
+  <mergeCells count="9">
     <mergeCell ref="G34:G37"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
@@ -4713,7 +4634,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A4:A26 A60 A42:A59 I4:I5 I6:I26 I27:I41 A27:A41 I42:I43" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:A26 A60 A42:A59 H4:H5 H6:H26 H27:H41 A27:A41 H42:H43" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4722,7 +4643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
@@ -4741,66 +4662,66 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="113"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="116"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="116"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="119"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="117" t="s">
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="109" t="s">
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="111" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="110"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="22" t="s">
         <v>50</v>
       </c>
@@ -4825,7 +4746,7 @@
       <c r="L6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="110"/>
+      <c r="M6" s="112"/>
     </row>
     <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -5514,7 +5435,7 @@
         <f>'Table of Threats'!D30</f>
         <v>Repudiation</v>
       </c>
-      <c r="D22" s="140" t="str">
+      <c r="D22" s="109" t="str">
         <f>'Table of Threats'!E30</f>
         <v>Weak Digital Signature may allow an attacker to alter digital signature</v>
       </c>
@@ -5713,66 +5634,66 @@
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="113"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="116"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="114"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="116"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="119"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="109" t="s">
+      <c r="A32" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="109" t="s">
+      <c r="B32" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="109" t="s">
+      <c r="C32" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="109" t="s">
+      <c r="D32" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="E32" s="117" t="s">
+      <c r="E32" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="117" t="s">
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="109" t="s">
+      <c r="J32" s="121"/>
+      <c r="K32" s="121"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="111" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="110"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
       <c r="E33" s="22" t="s">
         <v>58</v>
       </c>
@@ -5797,22 +5718,22 @@
       <c r="L33" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M33" s="110"/>
+      <c r="M33" s="112"/>
     </row>
     <row r="34" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="58" t="str">
-        <f>B7</f>
+        <f t="shared" ref="B34:D46" si="1">B7</f>
         <v>001</v>
       </c>
       <c r="C34" s="60" t="str">
-        <f>C7</f>
+        <f t="shared" si="1"/>
         <v>Repudiation / Tamper</v>
       </c>
       <c r="D34" s="71" t="str">
-        <f>D7</f>
+        <f t="shared" si="1"/>
         <v>An attacker can tamper with the reset counter and cause the system to never reset, enabling a brute force attack.  The reset counter serves as a log of failed password attempts</v>
       </c>
       <c r="E34" s="23">
@@ -5840,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="54">
-        <f t="shared" ref="M34:M52" si="1">AVERAGE(E34:L34)*2</f>
+        <f t="shared" ref="M34:M52" si="2">AVERAGE(E34:L34)*2</f>
         <v>9</v>
       </c>
     </row>
@@ -5849,15 +5770,15 @@
         <v>6</v>
       </c>
       <c r="B35" s="61" t="str">
-        <f>B8</f>
+        <f t="shared" si="1"/>
         <v>002</v>
       </c>
       <c r="C35" s="64" t="str">
-        <f>C8</f>
+        <f t="shared" si="1"/>
         <v>Repudiation/Spoofing</v>
       </c>
       <c r="D35" s="72" t="str">
-        <f>D8</f>
+        <f t="shared" si="1"/>
         <v>Webserver needs to use unique USB identifier as an authenticator</v>
       </c>
       <c r="E35" s="28">
@@ -5885,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
     </row>
@@ -5894,15 +5815,15 @@
         <v>7</v>
       </c>
       <c r="B36" s="62" t="str">
-        <f>B9</f>
+        <f t="shared" si="1"/>
         <v>003</v>
       </c>
       <c r="C36" s="65" t="str">
-        <f>C9</f>
+        <f t="shared" si="1"/>
         <v>Tampering</v>
       </c>
       <c r="D36" s="74" t="str">
-        <f>D9</f>
+        <f t="shared" si="1"/>
         <v>Malware infested Update</v>
       </c>
       <c r="E36" s="33">
@@ -5930,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -5939,15 +5860,15 @@
         <v>8</v>
       </c>
       <c r="B37" s="61" t="str">
-        <f>B10</f>
+        <f t="shared" si="1"/>
         <v>004</v>
       </c>
       <c r="C37" s="64" t="str">
-        <f>C10</f>
+        <f t="shared" si="1"/>
         <v>DOS</v>
       </c>
       <c r="D37" s="72" t="str">
-        <f>D10</f>
+        <f t="shared" si="1"/>
         <v>Theft or Loss of USB</v>
       </c>
       <c r="E37" s="38">
@@ -5975,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -5984,15 +5905,15 @@
         <v>9</v>
       </c>
       <c r="B38" s="62" t="str">
-        <f>B11</f>
+        <f t="shared" si="1"/>
         <v>005</v>
       </c>
       <c r="C38" s="65" t="str">
-        <f>C11</f>
+        <f t="shared" si="1"/>
         <v>Information Disclosure</v>
       </c>
       <c r="D38" s="74" t="str">
-        <f>D11</f>
+        <f t="shared" si="1"/>
         <v>password guess attack</v>
       </c>
       <c r="E38" s="33">
@@ -6020,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -6029,15 +5950,15 @@
         <v>10</v>
       </c>
       <c r="B39" s="61" t="str">
-        <f>B12</f>
+        <f t="shared" si="1"/>
         <v>010</v>
       </c>
       <c r="C39" s="64" t="str">
-        <f>C12</f>
+        <f t="shared" si="1"/>
         <v>Tampering</v>
       </c>
       <c r="D39" s="72" t="str">
-        <f>D12</f>
+        <f t="shared" si="1"/>
         <v>Spoof updated SW with older version which may have vulnerabilities, but is signed with an authentic key</v>
       </c>
       <c r="E39" s="38">
@@ -6065,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -6074,15 +5995,15 @@
         <v>11</v>
       </c>
       <c r="B40" s="62" t="str">
-        <f>B13</f>
+        <f t="shared" si="1"/>
         <v>012</v>
       </c>
       <c r="C40" s="65" t="str">
-        <f>C13</f>
+        <f t="shared" si="1"/>
         <v>Information Disclosure</v>
       </c>
       <c r="D40" s="74" t="str">
-        <f>D13</f>
+        <f t="shared" si="1"/>
         <v>App is used on a computer with a keystroke logger</v>
       </c>
       <c r="E40" s="33">
@@ -6110,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -6119,15 +6040,15 @@
         <v>12</v>
       </c>
       <c r="B41" s="61" t="str">
-        <f>B14</f>
+        <f t="shared" si="1"/>
         <v>014</v>
       </c>
       <c r="C41" s="64" t="str">
-        <f>C14</f>
+        <f t="shared" si="1"/>
         <v>Tampering</v>
       </c>
       <c r="D41" s="72" t="str">
-        <f>D14</f>
+        <f t="shared" si="1"/>
         <v>Modify device to “zero” factory public key, enabling malicious SW update</v>
       </c>
       <c r="E41" s="38">
@@ -6155,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -6164,15 +6085,15 @@
         <v>13</v>
       </c>
       <c r="B42" s="62" t="str">
-        <f>B15</f>
+        <f t="shared" si="1"/>
         <v>017</v>
       </c>
       <c r="C42" s="65" t="str">
-        <f>C15</f>
+        <f t="shared" si="1"/>
         <v>DoS</v>
       </c>
       <c r="D42" s="74" t="str">
-        <f>D15</f>
+        <f t="shared" si="1"/>
         <v>Remove power from device after it resets the counter but before it overwrites header and password file</v>
       </c>
       <c r="E42" s="33">
@@ -6200,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -6209,15 +6130,15 @@
         <v>14</v>
       </c>
       <c r="B43" s="61" t="str">
-        <f>B16</f>
+        <f t="shared" si="1"/>
         <v>018</v>
       </c>
       <c r="C43" s="64" t="str">
-        <f>C16</f>
+        <f t="shared" si="1"/>
         <v>Elevation of Privilege</v>
       </c>
       <c r="D43" s="72" t="str">
-        <f>D16</f>
+        <f t="shared" si="1"/>
         <v>Request device reset and remove power after the header file is rewritten but before the password file is rewritten to allow access to encrypted password file for offline attacks.</v>
       </c>
       <c r="E43" s="38">
@@ -6245,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -6254,15 +6175,15 @@
         <v>15</v>
       </c>
       <c r="B44" s="62" t="str">
-        <f>B17</f>
+        <f t="shared" si="1"/>
         <v>019</v>
       </c>
       <c r="C44" s="65" t="str">
-        <f>C17</f>
+        <f t="shared" si="1"/>
         <v>Information Disclosure</v>
       </c>
       <c r="D44" s="74" t="str">
-        <f>D17</f>
+        <f t="shared" si="1"/>
         <v>Fuzz USB commands to discover readable and/or writeable device memory</v>
       </c>
       <c r="E44" s="33">
@@ -6290,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
     </row>
@@ -6299,15 +6220,15 @@
         <v>16</v>
       </c>
       <c r="B45" s="61" t="str">
-        <f>B18</f>
+        <f t="shared" si="1"/>
         <v>020</v>
       </c>
       <c r="C45" s="64" t="str">
-        <f>C18</f>
+        <f t="shared" si="1"/>
         <v>Elevation of Privilege</v>
       </c>
       <c r="D45" s="72" t="str">
-        <f>D18</f>
+        <f t="shared" si="1"/>
         <v>Fuzz USB commands to cause unpredictable behavior and/or discover point of entry to gain execution</v>
       </c>
       <c r="E45" s="38">
@@ -6335,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
     </row>
@@ -6344,15 +6265,15 @@
         <v>17</v>
       </c>
       <c r="B46" s="62" t="str">
-        <f>B19</f>
+        <f t="shared" si="1"/>
         <v>021</v>
       </c>
       <c r="C46" s="65" t="str">
-        <f>C19</f>
+        <f t="shared" si="1"/>
         <v>Information Disclosure</v>
       </c>
       <c r="D46" s="74" t="str">
-        <f>D19</f>
+        <f t="shared" si="1"/>
         <v>Reset the device, obtain secure session with own credentials, and excavate available memory locations for old users’ password files</v>
       </c>
       <c r="E46" s="33">
@@ -6380,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6424,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -6469,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
     </row>
@@ -6514,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -6527,11 +6448,11 @@
         <v>031</v>
       </c>
       <c r="C50" s="51" t="str">
-        <f t="shared" ref="C50:D50" si="2">C23</f>
+        <f t="shared" ref="C50:D50" si="3">C23</f>
         <v>Repudiation</v>
       </c>
       <c r="D50" s="51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Lack of ACL, encryption and permissions can allow an attacker to access, and tamper with log and file information</v>
       </c>
       <c r="E50" s="33">
@@ -6559,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.25</v>
       </c>
     </row>
@@ -6567,16 +6488,16 @@
       <c r="A51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="141" t="str">
+      <c r="B51" s="110" t="str">
         <f>B24</f>
         <v>042</v>
       </c>
-      <c r="C51" s="141" t="str">
-        <f t="shared" ref="C51:D51" si="3">C24</f>
+      <c r="C51" s="110" t="str">
+        <f t="shared" ref="C51:D51" si="4">C24</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D51" s="141" t="str">
-        <f t="shared" si="3"/>
+      <c r="D51" s="110" t="str">
+        <f t="shared" si="4"/>
         <v>An attacker can read the software update image while in transit</v>
       </c>
       <c r="E51" s="38">
@@ -6604,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -6617,11 +6538,11 @@
         <v>043</v>
       </c>
       <c r="C52" s="51" t="str">
-        <f t="shared" ref="C52:D52" si="4">C25</f>
+        <f t="shared" ref="C52:D52" si="5">C25</f>
         <v>Elevation of Privilege</v>
       </c>
       <c r="D52" s="51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>a malformed SQL attack may result in elevation of privilege</v>
       </c>
       <c r="E52" s="33">
@@ -6649,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
     </row>
@@ -6723,6 +6644,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="B29:K30"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:D6"/>
@@ -6731,14 +6660,6 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="B29:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6766,53 +6687,53 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="113"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="116"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="114"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="111" t="s">
         <v>264</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="122" t="s">
+      <c r="E5" s="130"/>
+      <c r="F5" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="122" t="s">
+      <c r="H5" s="135" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
     </row>
     <row r="7" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -6822,11 +6743,11 @@
         <f>'Risk Tables'!C7</f>
         <v>Repudiation / Tamper</v>
       </c>
-      <c r="D7" s="128" t="str">
+      <c r="D7" s="133" t="str">
         <f>'Risk Tables'!D7</f>
         <v>An attacker can tamper with the reset counter and cause the system to never reset, enabling a brute force attack.  The reset counter serves as a log of failed password attempts</v>
       </c>
-      <c r="E7" s="129"/>
+      <c r="E7" s="134"/>
       <c r="F7" s="95">
         <f>'Risk Tables'!M7</f>
         <v>3.625</v>
@@ -6847,11 +6768,11 @@
         <f>'Risk Tables'!C8</f>
         <v>Repudiation/Spoofing</v>
       </c>
-      <c r="D8" s="120" t="str">
+      <c r="D8" s="125" t="str">
         <f>'Risk Tables'!D8</f>
         <v>Webserver needs to use unique USB identifier as an authenticator</v>
       </c>
-      <c r="E8" s="121"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="96">
         <f>'Risk Tables'!M8</f>
         <v>2.875</v>
@@ -6872,11 +6793,11 @@
         <f>'Risk Tables'!C9</f>
         <v>Tampering</v>
       </c>
-      <c r="D9" s="130" t="str">
+      <c r="D9" s="123" t="str">
         <f>'Risk Tables'!D9</f>
         <v>Malware infested Update</v>
       </c>
-      <c r="E9" s="131"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="97">
         <f>'Risk Tables'!M9</f>
         <v>4.5</v>
@@ -6897,11 +6818,11 @@
         <f>'Risk Tables'!C10</f>
         <v>DOS</v>
       </c>
-      <c r="D10" s="120" t="str">
+      <c r="D10" s="125" t="str">
         <f>'Risk Tables'!D10</f>
         <v>Theft or Loss of USB</v>
       </c>
-      <c r="E10" s="121"/>
+      <c r="E10" s="126"/>
       <c r="F10" s="96">
         <f>'Risk Tables'!M10</f>
         <v>5</v>
@@ -6922,11 +6843,11 @@
         <f>'Risk Tables'!C11</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D11" s="130" t="str">
+      <c r="D11" s="123" t="str">
         <f>'Risk Tables'!D11</f>
         <v>password guess attack</v>
       </c>
-      <c r="E11" s="131"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="97">
         <f>'Risk Tables'!M11</f>
         <v>3.75</v>
@@ -6947,11 +6868,11 @@
         <f>'Risk Tables'!C12</f>
         <v>Tampering</v>
       </c>
-      <c r="D12" s="120" t="str">
+      <c r="D12" s="125" t="str">
         <f>'Risk Tables'!D12</f>
         <v>Spoof updated SW with older version which may have vulnerabilities, but is signed with an authentic key</v>
       </c>
-      <c r="E12" s="121"/>
+      <c r="E12" s="126"/>
       <c r="F12" s="96">
         <f>'Risk Tables'!M12</f>
         <v>4.5</v>
@@ -6972,11 +6893,11 @@
         <f>'Risk Tables'!C13</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D13" s="130" t="str">
+      <c r="D13" s="123" t="str">
         <f>'Risk Tables'!D13</f>
         <v>App is used on a computer with a keystroke logger</v>
       </c>
-      <c r="E13" s="131"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="97">
         <f>'Risk Tables'!M13</f>
         <v>5</v>
@@ -6997,11 +6918,11 @@
         <f>'Risk Tables'!C14</f>
         <v>Tampering</v>
       </c>
-      <c r="D14" s="120" t="str">
+      <c r="D14" s="125" t="str">
         <f>'Risk Tables'!D14</f>
         <v>Modify device to “zero” factory public key, enabling malicious SW update</v>
       </c>
-      <c r="E14" s="121"/>
+      <c r="E14" s="126"/>
       <c r="F14" s="96">
         <f>'Risk Tables'!M14</f>
         <v>2.125</v>
@@ -7022,11 +6943,11 @@
         <f>'Risk Tables'!C15</f>
         <v>DoS</v>
       </c>
-      <c r="D15" s="130" t="str">
+      <c r="D15" s="123" t="str">
         <f>'Risk Tables'!D15</f>
         <v>Remove power from device after it resets the counter but before it overwrites header and password file</v>
       </c>
-      <c r="E15" s="131"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="97">
         <f>'Risk Tables'!M15</f>
         <v>3.75</v>
@@ -7047,11 +6968,11 @@
         <f>'Risk Tables'!C16</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="D16" s="120" t="str">
+      <c r="D16" s="125" t="str">
         <f>'Risk Tables'!D16</f>
         <v>Request device reset and remove power after the header file is rewritten but before the password file is rewritten to allow access to encrypted password file for offline attacks.</v>
       </c>
-      <c r="E16" s="121"/>
+      <c r="E16" s="126"/>
       <c r="F16" s="96">
         <f>'Risk Tables'!M16</f>
         <v>3.75</v>
@@ -7072,11 +6993,11 @@
         <f>'Risk Tables'!C17</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D17" s="130" t="str">
+      <c r="D17" s="123" t="str">
         <f>'Risk Tables'!D17</f>
         <v>Fuzz USB commands to discover readable and/or writeable device memory</v>
       </c>
-      <c r="E17" s="131"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="97">
         <f>'Risk Tables'!M17</f>
         <v>3</v>
@@ -7097,11 +7018,11 @@
         <f>'Risk Tables'!C18</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="D18" s="120" t="str">
+      <c r="D18" s="125" t="str">
         <f>'Risk Tables'!D18</f>
         <v>Fuzz USB commands to cause unpredictable behavior and/or discover point of entry to gain execution</v>
       </c>
-      <c r="E18" s="121"/>
+      <c r="E18" s="126"/>
       <c r="F18" s="96">
         <f>'Risk Tables'!M18</f>
         <v>3</v>
@@ -7122,11 +7043,11 @@
         <f>'Risk Tables'!C19</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D19" s="130" t="str">
+      <c r="D19" s="123" t="str">
         <f>'Risk Tables'!D19</f>
         <v>Reset the device, obtain secure session with own credentials, and excavate available memory locations for old users’ password files</v>
       </c>
-      <c r="E19" s="131"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="97">
         <f>'Risk Tables'!M19</f>
         <v>3</v>
@@ -7144,8 +7065,8 @@
         <v>18</v>
       </c>
       <c r="C20" s="89"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="92"/>
       <c r="G20" s="92"/>
       <c r="H20" s="30"/>
@@ -7155,8 +7076,8 @@
         <v>19</v>
       </c>
       <c r="C21" s="90"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="131"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="93"/>
       <c r="G21" s="93"/>
       <c r="H21" s="35"/>
@@ -7166,8 +7087,8 @@
         <v>20</v>
       </c>
       <c r="C22" s="89"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="121"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
       <c r="F22" s="92"/>
       <c r="G22" s="92"/>
       <c r="H22" s="30"/>
@@ -7177,8 +7098,8 @@
         <v>21</v>
       </c>
       <c r="C23" s="90"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
       <c r="H23" s="35"/>
@@ -7188,8 +7109,8 @@
         <v>22</v>
       </c>
       <c r="C24" s="89"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="121"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
       <c r="F24" s="92"/>
       <c r="G24" s="92"/>
       <c r="H24" s="30"/>
@@ -7199,8 +7120,8 @@
         <v>23</v>
       </c>
       <c r="C25" s="90"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="124"/>
       <c r="F25" s="93"/>
       <c r="G25" s="93"/>
       <c r="H25" s="35"/>
@@ -7210,8 +7131,8 @@
         <v>24</v>
       </c>
       <c r="C26" s="89"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="121"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="92"/>
       <c r="G26" s="92"/>
       <c r="H26" s="30"/>
@@ -7221,8 +7142,8 @@
         <v>25</v>
       </c>
       <c r="C27" s="90"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="131"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="93"/>
       <c r="G27" s="93"/>
       <c r="H27" s="35"/>
@@ -7232,8 +7153,8 @@
         <v>26</v>
       </c>
       <c r="C28" s="89"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="121"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
       <c r="F28" s="92"/>
       <c r="G28" s="92"/>
       <c r="H28" s="30"/>
@@ -7243,19 +7164,27 @@
         <v>27</v>
       </c>
       <c r="C29" s="91"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
       <c r="F29" s="94"/>
       <c r="G29" s="94"/>
       <c r="H29" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -7268,19 +7197,11 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:H29">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -7333,48 +7254,48 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="109" t="s">
+      <c r="J2" s="111" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -7733,13 +7654,13 @@
   <sheetData>
     <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="134" t="s">
+      <c r="E4" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="136"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="139"/>
     </row>
     <row r="5" spans="3:9" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="78" t="s">
@@ -7759,7 +7680,7 @@
       </c>
     </row>
     <row r="6" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="140" t="s">
         <v>244</v>
       </c>
       <c r="D6" s="78" t="s">
@@ -7772,7 +7693,7 @@
       <c r="I6" s="82"/>
     </row>
     <row r="7" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="138"/>
+      <c r="C7" s="141"/>
       <c r="D7" s="78" t="s">
         <v>263</v>
       </c>
@@ -7783,7 +7704,7 @@
       <c r="I7" s="81"/>
     </row>
     <row r="8" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="138"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="78" t="s">
         <v>262</v>
       </c>
@@ -7794,7 +7715,7 @@
       <c r="I8" s="81"/>
     </row>
     <row r="9" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="138"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="78" t="s">
         <v>261</v>
       </c>
@@ -7805,7 +7726,7 @@
       <c r="I9" s="80"/>
     </row>
     <row r="10" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="139"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="78" t="s">
         <v>260</v>
       </c>
@@ -7824,7 +7745,7 @@
       <c r="H11" s="85"/>
       <c r="I11" s="85"/>
     </row>
-    <row r="12" spans="3:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="86" t="s">
         <v>245</v>
       </c>

--- a/excel table/threat_risk_tables_main1.xlsx
+++ b/excel table/threat_risk_tables_main1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="3" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="316">
   <si>
     <t>Diagram Element</t>
   </si>
@@ -996,6 +996,24 @@
   </si>
   <si>
     <t>validation of input</t>
+  </si>
+  <si>
+    <t>Device Switch</t>
+  </si>
+  <si>
+    <t>Visible Logs</t>
+  </si>
+  <si>
+    <t>Weak Digital Sigs</t>
+  </si>
+  <si>
+    <t>Harden Web Server</t>
+  </si>
+  <si>
+    <t>Softwage Image in Transit Vulnerabiillty</t>
+  </si>
+  <si>
+    <t>Malformed Inputs</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1023,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1095,6 +1113,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1170,7 +1203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1517,11 +1550,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1635,9 +1677,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1654,9 +1693,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1719,9 +1755,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1757,18 +1790,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1823,13 +1844,118 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1859,46 +1985,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2401,6 +2527,338 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>416719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>607220</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>976312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082422B7-621C-4046-94AD-7A3120A09ABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="3964782"/>
+          <a:ext cx="511970" cy="559593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>14</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>16</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297656</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>250031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>809626</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>809624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B904F1AB-E3EE-4991-8463-1F8BCCC0A2C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6834187" y="3798094"/>
+          <a:ext cx="511970" cy="559593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>19</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>226220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>773908</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>785813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F156CE22-E111-4F45-8544-3D65D3831E41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619751" y="2738439"/>
+          <a:ext cx="511970" cy="559593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>15</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297656</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>202407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>809626</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A96FD15-010F-4959-BA0B-1FC9554B92FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6834187" y="4786313"/>
+          <a:ext cx="511970" cy="559593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>17</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>273845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>797719</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>833438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E623774-70A8-4CE7-A7EC-8BB216CA4C70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5643562" y="3821908"/>
+          <a:ext cx="511970" cy="559593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>18</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2717,36 +3175,36 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="135" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2755,7 +3213,7 @@
       <c r="B4" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>113</v>
       </c>
       <c r="D4" s="2"/>
@@ -2770,7 +3228,7 @@
       <c r="B5" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="47" t="s">
         <v>108</v>
       </c>
       <c r="D5" s="5"/>
@@ -2785,7 +3243,7 @@
       <c r="B6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
         <v>111</v>
       </c>
       <c r="D6" s="8"/>
@@ -2800,7 +3258,7 @@
       <c r="B7" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>112</v>
       </c>
       <c r="D7" s="5"/>
@@ -2812,10 +3270,10 @@
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>115</v>
       </c>
       <c r="D8" s="8"/>
@@ -2828,7 +3286,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="C9" s="48"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2839,7 +3297,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="20"/>
-      <c r="C10" s="49"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2850,7 +3308,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="48"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2861,7 +3319,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="49"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -2872,7 +3330,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="19"/>
-      <c r="C13" s="48"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2883,7 +3341,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="49"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -2894,7 +3352,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="48"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2905,7 +3363,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="20"/>
-      <c r="C16" s="49"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -2916,7 +3374,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="C17" s="48"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2927,7 +3385,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="49"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -2938,7 +3396,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="48"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -2949,7 +3407,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="20"/>
-      <c r="C20" s="49"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -2960,7 +3418,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="48"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -2971,7 +3429,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="49"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -2982,7 +3440,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="19"/>
-      <c r="C23" s="48"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2993,7 +3451,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="49"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -3004,7 +3462,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="48"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3015,7 +3473,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="50"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -3042,18 +3500,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="51" customWidth="1"/>
     <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" style="52" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="52" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" style="51" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="51" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="24.28515625" customWidth="1"/>
     <col min="10" max="10" width="156.42578125" customWidth="1"/>
@@ -3061,1116 +3519,1116 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="140" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="111" t="s">
+      <c r="C2" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="140" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="140" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
     </row>
     <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="110" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="112" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="116" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="117" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="122" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="117" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="H8" s="77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="H8" s="122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="115" t="s">
         <v>224</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="H9" s="117" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44" t="s">
+      <c r="F10" s="120"/>
+      <c r="G10" s="120" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="122" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="115" t="s">
         <v>228</v>
       </c>
-      <c r="H11" s="76" t="s">
+      <c r="H11" s="117" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="120" t="s">
         <v>233</v>
       </c>
-      <c r="H12" s="77" t="s">
+      <c r="H12" s="122" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="115" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="117" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="120" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="120" t="s">
         <v>236</v>
       </c>
-      <c r="H14" s="77" t="s">
+      <c r="H14" s="122" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="117" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="77" t="s">
+      <c r="G16" s="120"/>
+      <c r="H16" s="122" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="H17" s="76" t="s">
+      <c r="H17" s="117" t="s">
         <v>18</v>
       </c>
       <c r="J17" s="45" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="123" t="s">
         <v>237</v>
       </c>
-      <c r="H18" s="77" t="s">
+      <c r="H18" s="122" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="44" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="115" t="s">
         <v>238</v>
       </c>
-      <c r="H19" s="76" t="s">
+      <c r="H19" s="117" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="45" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="120" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="H20" s="77" t="s">
+      <c r="H20" s="122" t="s">
         <v>21</v>
       </c>
       <c r="J20" s="44" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="H21" s="76" t="s">
+      <c r="H21" s="117" t="s">
         <v>22</v>
       </c>
       <c r="J21" s="45" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="120" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="H22" s="77" t="s">
+      <c r="H22" s="122" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="44" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="H23" s="76" t="s">
+      <c r="H23" s="117" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="45" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A24" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="H24" s="77" t="s">
+      <c r="H24" s="122" t="s">
         <v>25</v>
       </c>
       <c r="J24" s="44" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A25" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="H25" s="76" t="s">
+      <c r="H25" s="117" t="s">
         <v>26</v>
       </c>
       <c r="J25" s="45" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="123" t="s">
         <v>278</v>
       </c>
-      <c r="H26" s="77" t="s">
+      <c r="H26" s="122" t="s">
         <v>27</v>
       </c>
       <c r="J26" s="44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="113" t="s">
         <v>279</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="115" t="s">
         <v>280</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="G27" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="H27" s="76" t="s">
+      <c r="H27" s="117" t="s">
         <v>167</v>
       </c>
       <c r="J27" s="45" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="118" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="120" t="s">
         <v>281</v>
       </c>
-      <c r="H28" s="77" t="s">
+      <c r="H28" s="122" t="s">
         <v>168</v>
       </c>
       <c r="J28" s="44" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="113" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="H29" s="76" t="s">
+      <c r="H29" s="117" t="s">
         <v>169</v>
       </c>
       <c r="J29" s="45" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="120" t="s">
         <v>202</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="120" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="120" t="s">
         <v>299</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="H30" s="77" t="s">
+      <c r="H30" s="122" t="s">
         <v>170</v>
       </c>
       <c r="J30" s="44"/>
     </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="115" t="s">
         <v>300</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="115" t="s">
         <v>301</v>
       </c>
-      <c r="H31" s="76" t="s">
+      <c r="H31" s="117" t="s">
         <v>171</v>
       </c>
       <c r="J31" s="45"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="118" t="s">
         <v>169</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="120" t="s">
         <v>287</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="F32" s="44" t="s">
+      <c r="F32" s="120" t="s">
         <v>288</v>
       </c>
-      <c r="G32" s="44" t="s">
+      <c r="G32" s="120" t="s">
         <v>303</v>
       </c>
-      <c r="H32" s="77" t="s">
+      <c r="H32" s="122" t="s">
         <v>172</v>
       </c>
       <c r="J32" s="44"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="113" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="115" t="s">
         <v>289</v>
       </c>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="115" t="s">
         <v>302</v>
       </c>
-      <c r="H33" s="76" t="s">
+      <c r="H33" s="117" t="s">
         <v>173</v>
       </c>
       <c r="J33" s="45"/>
     </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="120" t="s">
         <v>287</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="120" t="s">
         <v>207</v>
       </c>
-      <c r="F34" s="44" t="s">
+      <c r="F34" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="G34" s="113" t="s">
+      <c r="G34" s="137" t="s">
         <v>304</v>
       </c>
-      <c r="H34" s="77" t="s">
+      <c r="H34" s="131" t="s">
         <v>174</v>
       </c>
       <c r="J34" s="44"/>
     </row>
-    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="113" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="130" t="s">
         <v>291</v>
       </c>
-      <c r="G35" s="113"/>
-      <c r="H35" s="76" t="s">
+      <c r="G35" s="138"/>
+      <c r="H35" s="132" t="s">
         <v>175</v>
       </c>
       <c r="J35" s="45"/>
     </row>
-    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="118" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="120" t="s">
         <v>285</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="129" t="s">
         <v>292</v>
       </c>
-      <c r="G36" s="113"/>
-      <c r="H36" s="77" t="s">
+      <c r="G36" s="138"/>
+      <c r="H36" s="131" t="s">
         <v>176</v>
       </c>
       <c r="J36" s="44"/>
     </row>
-    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="113" t="s">
         <v>174</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="115" t="s">
         <v>293</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="115" t="s">
         <v>294</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="130" t="s">
         <v>295</v>
       </c>
-      <c r="G37" s="113"/>
-      <c r="H37" s="76" t="s">
+      <c r="G37" s="139"/>
+      <c r="H37" s="132" t="s">
         <v>177</v>
       </c>
       <c r="J37" s="45"/>
     </row>
-    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="118" t="s">
         <v>175</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="44" t="s">
+      <c r="B38" s="119"/>
+      <c r="C38" s="120" t="s">
         <v>296</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="120" t="s">
         <v>297</v>
       </c>
-      <c r="F38" s="44" t="s">
+      <c r="F38" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="G38" s="44"/>
-      <c r="H38" s="77" t="s">
+      <c r="G38" s="120"/>
+      <c r="H38" s="122" t="s">
         <v>178</v>
       </c>
       <c r="J38" s="44"/>
     </row>
-    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="115" t="s">
         <v>282</v>
       </c>
-      <c r="F39" s="45" t="s">
+      <c r="F39" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="G39" s="45" t="s">
+      <c r="G39" s="115" t="s">
         <v>283</v>
       </c>
-      <c r="H39" s="76" t="s">
+      <c r="H39" s="117" t="s">
         <v>179</v>
       </c>
       <c r="J39" s="45" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="118" t="s">
         <v>177</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="120" t="s">
         <v>200</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="44" t="s">
+      <c r="E40" s="120" t="s">
         <v>213</v>
       </c>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="77" t="s">
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="122" t="s">
         <v>180</v>
       </c>
       <c r="J40" s="44" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="45">
+      <c r="C41" s="115">
         <v>1.7</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45" t="s">
+      <c r="F41" s="115"/>
+      <c r="G41" s="115" t="s">
         <v>284</v>
       </c>
-      <c r="H41" s="76" t="s">
+      <c r="H41" s="117" t="s">
         <v>181</v>
       </c>
       <c r="J41" s="45" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="120" t="s">
         <v>202</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="120" t="s">
         <v>306</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="120" t="s">
         <v>307</v>
       </c>
-      <c r="G42" s="44" t="s">
+      <c r="G42" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="H42" s="77" t="s">
+      <c r="H42" s="122" t="s">
         <v>182</v>
       </c>
       <c r="J42" s="44"/>
     </row>
-    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="127" t="s">
         <v>144</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E43" s="126" t="s">
         <v>308</v>
       </c>
-      <c r="F43" s="45" t="s">
+      <c r="F43" s="126" t="s">
         <v>309</v>
       </c>
-      <c r="G43" s="45" t="s">
+      <c r="G43" s="126" t="s">
         <v>217</v>
       </c>
-      <c r="H43" s="76" t="s">
+      <c r="H43" s="128" t="s">
         <v>183</v>
       </c>
       <c r="J43" s="45"/>
@@ -4185,7 +4643,7 @@
       <c r="E44" s="44"/>
       <c r="F44" s="44"/>
       <c r="G44" s="44"/>
-      <c r="H44" s="77"/>
+      <c r="H44" s="74"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -4197,7 +4655,7 @@
       <c r="E45" s="45"/>
       <c r="F45" s="45"/>
       <c r="G45" s="45"/>
-      <c r="H45" s="76"/>
+      <c r="H45" s="73"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
@@ -4209,7 +4667,7 @@
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
-      <c r="H46" s="77"/>
+      <c r="H46" s="74"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -4221,7 +4679,7 @@
       <c r="E47" s="45"/>
       <c r="F47" s="45"/>
       <c r="G47" s="45"/>
-      <c r="H47" s="76"/>
+      <c r="H47" s="73"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
@@ -4233,7 +4691,7 @@
       <c r="E48" s="44"/>
       <c r="F48" s="44"/>
       <c r="G48" s="44"/>
-      <c r="H48" s="77"/>
+      <c r="H48" s="74"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -4245,7 +4703,7 @@
       <c r="E49" s="45"/>
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
-      <c r="H49" s="76"/>
+      <c r="H49" s="73"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
@@ -4257,7 +4715,7 @@
       <c r="E50" s="44"/>
       <c r="F50" s="44"/>
       <c r="G50" s="44"/>
-      <c r="H50" s="77"/>
+      <c r="H50" s="74"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -4269,7 +4727,7 @@
       <c r="E51" s="45"/>
       <c r="F51" s="45"/>
       <c r="G51" s="45"/>
-      <c r="H51" s="76"/>
+      <c r="H51" s="73"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
@@ -4281,7 +4739,7 @@
       <c r="E52" s="44"/>
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
-      <c r="H52" s="77"/>
+      <c r="H52" s="74"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -4293,7 +4751,7 @@
       <c r="E53" s="45"/>
       <c r="F53" s="45"/>
       <c r="G53" s="45"/>
-      <c r="H53" s="76"/>
+      <c r="H53" s="73"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
@@ -4305,7 +4763,7 @@
       <c r="E54" s="44"/>
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
-      <c r="H54" s="77"/>
+      <c r="H54" s="74"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -4317,7 +4775,7 @@
       <c r="E55" s="45"/>
       <c r="F55" s="45"/>
       <c r="G55" s="45"/>
-      <c r="H55" s="76"/>
+      <c r="H55" s="73"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
@@ -4329,7 +4787,7 @@
       <c r="E56" s="44"/>
       <c r="F56" s="44"/>
       <c r="G56" s="44"/>
-      <c r="H56" s="77"/>
+      <c r="H56" s="74"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -4341,7 +4799,7 @@
       <c r="E57" s="45"/>
       <c r="F57" s="45"/>
       <c r="G57" s="45"/>
-      <c r="H57" s="76"/>
+      <c r="H57" s="73"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -4538,7 +4996,7 @@
       <c r="H76" s="35"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C77" s="52" t="s">
+      <c r="C77" s="51" t="s">
         <v>157</v>
       </c>
       <c r="D77" t="s">
@@ -4547,12 +5005,12 @@
       <c r="E77" t="s">
         <v>158</v>
       </c>
-      <c r="F77" s="52" t="s">
+      <c r="F77" s="51" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C80" s="52" t="s">
+      <c r="C80" s="51" t="s">
         <v>82</v>
       </c>
       <c r="E80" t="s">
@@ -4560,7 +5018,7 @@
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="52" t="s">
+      <c r="C81" s="51" t="s">
         <v>83</v>
       </c>
       <c r="D81" t="s">
@@ -4571,7 +5029,7 @@
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C82" s="52" t="s">
+      <c r="C82" s="51" t="s">
         <v>85</v>
       </c>
       <c r="D82" t="s">
@@ -4582,7 +5040,7 @@
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C83" s="52" t="s">
+      <c r="C83" s="51" t="s">
         <v>77</v>
       </c>
       <c r="D83" t="s">
@@ -4593,7 +5051,7 @@
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C84" s="52" t="s">
+      <c r="C84" s="51" t="s">
         <v>68</v>
       </c>
       <c r="D84" t="s">
@@ -4604,7 +5062,7 @@
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C85" s="52" t="s">
+      <c r="C85" s="51" t="s">
         <v>73</v>
       </c>
       <c r="D85" t="s">
@@ -4612,7 +5070,7 @@
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C86" s="52" t="s">
+      <c r="C86" s="51" t="s">
         <v>89</v>
       </c>
       <c r="D86" t="s">
@@ -4620,7 +5078,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H59"/>
   <mergeCells count="9">
     <mergeCell ref="G34:G37"/>
     <mergeCell ref="H2:H3"/>
@@ -4633,6 +5090,7 @@
     <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A4:A26 A60 A42:A59 H4:H5 H6:H26 H27:H41 A27:A41 H42:H43" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -4643,8 +5101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4662,66 +5120,66 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="144"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="117"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="119"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="147"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="135" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="120" t="s">
+      <c r="E5" s="148" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="120" t="s">
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="111" t="s">
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="135" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
       <c r="E6" s="22" t="s">
         <v>50</v>
       </c>
@@ -4746,21 +5204,21 @@
       <c r="L6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="112"/>
+      <c r="M6" s="136"/>
     </row>
     <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="58" t="str">
+      <c r="B7" s="56" t="str">
         <f>'Table of Threats'!A4</f>
         <v>001</v>
       </c>
-      <c r="C7" s="60" t="str">
+      <c r="C7" s="58" t="str">
         <f>'Table of Threats'!D4</f>
         <v>Repudiation / Tamper</v>
       </c>
-      <c r="D7" s="59" t="str">
+      <c r="D7" s="57" t="str">
         <f>'Table of Threats'!E4</f>
         <v>An attacker can tamper with the reset counter and cause the system to never reset, enabling a brute force attack.  The reset counter serves as a log of failed password attempts</v>
       </c>
@@ -4788,7 +5246,7 @@
       <c r="L7" s="27">
         <v>9</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="52">
         <f t="shared" ref="M7:M25" si="0">AVERAGE(E7:L7)</f>
         <v>3.625</v>
       </c>
@@ -4801,11 +5259,11 @@
         <f>'Table of Threats'!A5</f>
         <v>002</v>
       </c>
-      <c r="C8" s="64" t="str">
+      <c r="C8" s="62" t="str">
         <f>'Table of Threats'!D5</f>
         <v>Repudiation/Spoofing</v>
       </c>
-      <c r="D8" s="69" t="str">
+      <c r="D8" s="67" t="str">
         <f>'Table of Threats'!E5</f>
         <v>Webserver needs to use unique USB identifier as an authenticator</v>
       </c>
@@ -4833,7 +5291,7 @@
       <c r="L8" s="32">
         <v>1</v>
       </c>
-      <c r="M8" s="55">
+      <c r="M8" s="53">
         <f t="shared" si="0"/>
         <v>2.875</v>
       </c>
@@ -4846,11 +5304,11 @@
         <f>'Table of Threats'!A6</f>
         <v>003</v>
       </c>
-      <c r="C9" s="65" t="str">
+      <c r="C9" s="63" t="str">
         <f>'Table of Threats'!D6</f>
         <v>Tampering</v>
       </c>
-      <c r="D9" s="68" t="str">
+      <c r="D9" s="66" t="str">
         <f>'Table of Threats'!E6</f>
         <v>Malware infested Update</v>
       </c>
@@ -4878,7 +5336,7 @@
       <c r="L9" s="37">
         <v>3</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="54">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -4891,11 +5349,11 @@
         <f>'Table of Threats'!A7</f>
         <v>004</v>
       </c>
-      <c r="C10" s="64" t="str">
+      <c r="C10" s="62" t="str">
         <f>'Table of Threats'!D7</f>
         <v>DOS</v>
       </c>
-      <c r="D10" s="69" t="str">
+      <c r="D10" s="67" t="str">
         <f>'Table of Threats'!E7</f>
         <v>Theft or Loss of USB</v>
       </c>
@@ -4923,7 +5381,7 @@
       <c r="L10" s="32">
         <v>9</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="53">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4936,11 +5394,11 @@
         <f>'Table of Threats'!A8</f>
         <v>005</v>
       </c>
-      <c r="C11" s="65" t="str">
+      <c r="C11" s="63" t="str">
         <f>'Table of Threats'!D8</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D11" s="67" t="str">
+      <c r="D11" s="65" t="str">
         <f>'Table of Threats'!E8</f>
         <v>password guess attack</v>
       </c>
@@ -4968,7 +5426,7 @@
       <c r="L11" s="37">
         <v>9</v>
       </c>
-      <c r="M11" s="56">
+      <c r="M11" s="54">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
@@ -4981,11 +5439,11 @@
         <f>'Table of Threats'!A13</f>
         <v>010</v>
       </c>
-      <c r="C12" s="64" t="str">
+      <c r="C12" s="62" t="str">
         <f>'Table of Threats'!D13</f>
         <v>Tampering</v>
       </c>
-      <c r="D12" s="69" t="str">
+      <c r="D12" s="67" t="str">
         <f>'Table of Threats'!E13</f>
         <v>Spoof updated SW with older version which may have vulnerabilities, but is signed with an authentic key</v>
       </c>
@@ -5013,7 +5471,7 @@
       <c r="L12" s="32">
         <v>3</v>
       </c>
-      <c r="M12" s="55">
+      <c r="M12" s="53">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -5026,11 +5484,11 @@
         <f>'Table of Threats'!A15</f>
         <v>012</v>
       </c>
-      <c r="C13" s="65" t="str">
+      <c r="C13" s="63" t="str">
         <f>'Table of Threats'!D15</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D13" s="67" t="str">
+      <c r="D13" s="65" t="str">
         <f>'Table of Threats'!E15</f>
         <v>App is used on a computer with a keystroke logger</v>
       </c>
@@ -5058,7 +5516,7 @@
       <c r="L13" s="37">
         <v>9</v>
       </c>
-      <c r="M13" s="56">
+      <c r="M13" s="54">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5071,11 +5529,11 @@
         <f>'Table of Threats'!A17</f>
         <v>014</v>
       </c>
-      <c r="C14" s="64" t="str">
+      <c r="C14" s="62" t="str">
         <f>'Table of Threats'!D17</f>
         <v>Tampering</v>
       </c>
-      <c r="D14" s="69" t="str">
+      <c r="D14" s="67" t="str">
         <f>'Table of Threats'!E17</f>
         <v>Modify device to “zero” factory public key, enabling malicious SW update</v>
       </c>
@@ -5103,7 +5561,7 @@
       <c r="L14" s="32">
         <v>1</v>
       </c>
-      <c r="M14" s="55">
+      <c r="M14" s="53">
         <f t="shared" si="0"/>
         <v>2.125</v>
       </c>
@@ -5116,11 +5574,11 @@
         <f>'Table of Threats'!A20</f>
         <v>017</v>
       </c>
-      <c r="C15" s="65" t="str">
+      <c r="C15" s="63" t="str">
         <f>'Table of Threats'!D20</f>
         <v>DoS</v>
       </c>
-      <c r="D15" s="67" t="str">
+      <c r="D15" s="65" t="str">
         <f>'Table of Threats'!E20</f>
         <v>Remove power from device after it resets the counter but before it overwrites header and password file</v>
       </c>
@@ -5148,7 +5606,7 @@
       <c r="L15" s="37">
         <v>9</v>
       </c>
-      <c r="M15" s="56">
+      <c r="M15" s="54">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
@@ -5161,11 +5619,11 @@
         <f>'Table of Threats'!A21</f>
         <v>018</v>
       </c>
-      <c r="C16" s="64" t="str">
+      <c r="C16" s="62" t="str">
         <f>'Table of Threats'!D21</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="D16" s="69" t="str">
+      <c r="D16" s="67" t="str">
         <f>'Table of Threats'!E21</f>
         <v>Request device reset and remove power after the header file is rewritten but before the password file is rewritten to allow access to encrypted password file for offline attacks.</v>
       </c>
@@ -5193,7 +5651,7 @@
       <c r="L16" s="32">
         <v>9</v>
       </c>
-      <c r="M16" s="55">
+      <c r="M16" s="53">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
@@ -5206,11 +5664,11 @@
         <f>'Table of Threats'!A22</f>
         <v>019</v>
       </c>
-      <c r="C17" s="65" t="str">
+      <c r="C17" s="63" t="str">
         <f>'Table of Threats'!D22</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D17" s="67" t="str">
+      <c r="D17" s="65" t="str">
         <f>'Table of Threats'!E22</f>
         <v>Fuzz USB commands to discover readable and/or writeable device memory</v>
       </c>
@@ -5238,7 +5696,7 @@
       <c r="L17" s="37">
         <v>9</v>
       </c>
-      <c r="M17" s="56">
+      <c r="M17" s="54">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5251,11 +5709,11 @@
         <f>'Table of Threats'!A23</f>
         <v>020</v>
       </c>
-      <c r="C18" s="64" t="str">
+      <c r="C18" s="62" t="str">
         <f>'Table of Threats'!D23</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="D18" s="69" t="str">
+      <c r="D18" s="67" t="str">
         <f>'Table of Threats'!E23</f>
         <v>Fuzz USB commands to cause unpredictable behavior and/or discover point of entry to gain execution</v>
       </c>
@@ -5283,7 +5741,7 @@
       <c r="L18" s="32">
         <v>9</v>
       </c>
-      <c r="M18" s="55">
+      <c r="M18" s="53">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5296,11 +5754,11 @@
         <f>'Table of Threats'!A24</f>
         <v>021</v>
       </c>
-      <c r="C19" s="65" t="str">
+      <c r="C19" s="63" t="str">
         <f>'Table of Threats'!D24</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D19" s="67" t="str">
+      <c r="D19" s="65" t="str">
         <f>'Table of Threats'!E24</f>
         <v>Reset the device, obtain secure session with own credentials, and excavate available memory locations for old users’ password files</v>
       </c>
@@ -5328,7 +5786,7 @@
       <c r="L19" s="37">
         <v>9</v>
       </c>
-      <c r="M19" s="56">
+      <c r="M19" s="54">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5341,11 +5799,11 @@
         <f>'Table of Threats'!A27</f>
         <v>024</v>
       </c>
-      <c r="C20" s="64" t="str">
+      <c r="C20" s="62" t="str">
         <f>'Table of Threats'!D27</f>
         <v>Spoofing</v>
       </c>
-      <c r="D20" s="69" t="str">
+      <c r="D20" s="67" t="str">
         <f>'Table of Threats'!E27</f>
         <v>The real USB is switched with the fake one which has the keylogging function</v>
       </c>
@@ -5373,7 +5831,7 @@
       <c r="L20" s="32">
         <v>9</v>
       </c>
-      <c r="M20" s="55">
+      <c r="M20" s="53">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -5386,11 +5844,11 @@
         <f>'Table of Threats'!A29</f>
         <v>026</v>
       </c>
-      <c r="C21" s="65" t="str">
+      <c r="C21" s="63" t="str">
         <f>'Table of Threats'!D29</f>
         <v>Repudiation</v>
       </c>
-      <c r="D21" s="107" t="str">
+      <c r="D21" s="100" t="str">
         <f>'Table of Threats'!E29</f>
         <v>Logs May be visible to a low privilege attacker</v>
       </c>
@@ -5418,7 +5876,7 @@
       <c r="L21" s="37">
         <v>9</v>
       </c>
-      <c r="M21" s="56">
+      <c r="M21" s="54">
         <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
@@ -5431,11 +5889,11 @@
         <f>'Table of Threats'!A30</f>
         <v>027</v>
       </c>
-      <c r="C22" s="64" t="str">
+      <c r="C22" s="62" t="str">
         <f>'Table of Threats'!D30</f>
         <v>Repudiation</v>
       </c>
-      <c r="D22" s="109" t="str">
+      <c r="D22" s="102" t="str">
         <f>'Table of Threats'!E30</f>
         <v>Weak Digital Signature may allow an attacker to alter digital signature</v>
       </c>
@@ -5463,7 +5921,7 @@
       <c r="L22" s="32">
         <v>1</v>
       </c>
-      <c r="M22" s="55">
+      <c r="M22" s="53">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
@@ -5476,11 +5934,11 @@
         <f>'Table of Threats'!A34</f>
         <v>031</v>
       </c>
-      <c r="C23" s="65" t="str">
+      <c r="C23" s="63" t="str">
         <f>'Table of Threats'!D34</f>
         <v>Repudiation</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="65" t="s">
         <v>305</v>
       </c>
       <c r="E23" s="33">
@@ -5507,7 +5965,7 @@
       <c r="L23" s="37">
         <v>3</v>
       </c>
-      <c r="M23" s="56">
+      <c r="M23" s="54">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5520,11 +5978,11 @@
         <f>'Table of Threats'!A42</f>
         <v>042</v>
       </c>
-      <c r="C24" s="64" t="str">
+      <c r="C24" s="62" t="str">
         <f>'Table of Threats'!D42</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D24" s="69" t="str">
+      <c r="D24" s="67" t="str">
         <f>'Table of Threats'!E42</f>
         <v>An attacker can read the software update image while in transit</v>
       </c>
@@ -5552,7 +6010,7 @@
       <c r="L24" s="32">
         <v>9</v>
       </c>
-      <c r="M24" s="55">
+      <c r="M24" s="53">
         <f t="shared" si="0"/>
         <v>5.125</v>
       </c>
@@ -5565,11 +6023,11 @@
         <f>'Table of Threats'!A43</f>
         <v>043</v>
       </c>
-      <c r="C25" s="65" t="str">
+      <c r="C25" s="63" t="str">
         <f>'Table of Threats'!D43</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="D25" s="67" t="str">
+      <c r="D25" s="65" t="str">
         <f>'Table of Threats'!E43</f>
         <v>a malformed SQL attack may result in elevation of privilege</v>
       </c>
@@ -5597,16 +6055,16 @@
       <c r="L25" s="37">
         <v>3</v>
       </c>
-      <c r="M25" s="56">
+      <c r="M25" s="54">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="69"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="67"/>
       <c r="E26" s="38"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
@@ -5615,13 +6073,13 @@
       <c r="J26" s="29"/>
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
-      <c r="M26" s="55"/>
+      <c r="M26" s="53"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="70"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="39"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
@@ -5630,70 +6088,70 @@
       <c r="J27" s="40"/>
       <c r="K27" s="43"/>
       <c r="L27" s="43"/>
-      <c r="M27" s="57"/>
+      <c r="M27" s="55"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="116"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="144"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="117"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="118"/>
-      <c r="K30" s="119"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="147"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="111" t="s">
+      <c r="A32" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="111" t="s">
+      <c r="C32" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="111" t="s">
+      <c r="D32" s="135" t="s">
         <v>242</v>
       </c>
-      <c r="E32" s="120" t="s">
+      <c r="E32" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="120" t="s">
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="J32" s="121"/>
-      <c r="K32" s="121"/>
-      <c r="L32" s="122"/>
-      <c r="M32" s="111" t="s">
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="135" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="112"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
+      <c r="A33" s="136"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="136"/>
       <c r="E33" s="22" t="s">
         <v>58</v>
       </c>
@@ -5718,21 +6176,21 @@
       <c r="L33" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M33" s="112"/>
+      <c r="M33" s="136"/>
     </row>
     <row r="34" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="58" t="str">
+      <c r="B34" s="56" t="str">
         <f t="shared" ref="B34:D46" si="1">B7</f>
         <v>001</v>
       </c>
-      <c r="C34" s="60" t="str">
+      <c r="C34" s="58" t="str">
         <f t="shared" si="1"/>
         <v>Repudiation / Tamper</v>
       </c>
-      <c r="D34" s="71" t="str">
+      <c r="D34" s="69" t="str">
         <f t="shared" si="1"/>
         <v>An attacker can tamper with the reset counter and cause the system to never reset, enabling a brute force attack.  The reset counter serves as a log of failed password attempts</v>
       </c>
@@ -5760,7 +6218,7 @@
       <c r="L34" s="27">
         <v>0</v>
       </c>
-      <c r="M34" s="54">
+      <c r="M34" s="52">
         <f t="shared" ref="M34:M52" si="2">AVERAGE(E34:L34)*2</f>
         <v>9</v>
       </c>
@@ -5769,15 +6227,15 @@
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="61" t="str">
+      <c r="B35" s="59" t="str">
         <f t="shared" si="1"/>
         <v>002</v>
       </c>
-      <c r="C35" s="64" t="str">
+      <c r="C35" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Repudiation/Spoofing</v>
       </c>
-      <c r="D35" s="72" t="str">
+      <c r="D35" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Webserver needs to use unique USB identifier as an authenticator</v>
       </c>
@@ -5805,7 +6263,7 @@
       <c r="L35" s="32">
         <v>0</v>
       </c>
-      <c r="M35" s="55">
+      <c r="M35" s="53">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
@@ -5814,15 +6272,15 @@
       <c r="A36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="62" t="str">
+      <c r="B36" s="60" t="str">
         <f t="shared" si="1"/>
         <v>003</v>
       </c>
-      <c r="C36" s="65" t="str">
+      <c r="C36" s="63" t="str">
         <f t="shared" si="1"/>
         <v>Tampering</v>
       </c>
-      <c r="D36" s="74" t="str">
+      <c r="D36" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Malware infested Update</v>
       </c>
@@ -5850,7 +6308,7 @@
       <c r="L36" s="37">
         <v>0</v>
       </c>
-      <c r="M36" s="56">
+      <c r="M36" s="54">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -5859,15 +6317,15 @@
       <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="61" t="str">
+      <c r="B37" s="59" t="str">
         <f t="shared" si="1"/>
         <v>004</v>
       </c>
-      <c r="C37" s="64" t="str">
+      <c r="C37" s="62" t="str">
         <f t="shared" si="1"/>
         <v>DOS</v>
       </c>
-      <c r="D37" s="72" t="str">
+      <c r="D37" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Theft or Loss of USB</v>
       </c>
@@ -5895,7 +6353,7 @@
       <c r="L37" s="32">
         <v>0</v>
       </c>
-      <c r="M37" s="55">
+      <c r="M37" s="53">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -5904,15 +6362,15 @@
       <c r="A38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="62" t="str">
+      <c r="B38" s="60" t="str">
         <f t="shared" si="1"/>
         <v>005</v>
       </c>
-      <c r="C38" s="65" t="str">
+      <c r="C38" s="63" t="str">
         <f t="shared" si="1"/>
         <v>Information Disclosure</v>
       </c>
-      <c r="D38" s="74" t="str">
+      <c r="D38" s="72" t="str">
         <f t="shared" si="1"/>
         <v>password guess attack</v>
       </c>
@@ -5940,7 +6398,7 @@
       <c r="L38" s="37">
         <v>0</v>
       </c>
-      <c r="M38" s="56">
+      <c r="M38" s="54">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -5949,15 +6407,15 @@
       <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="61" t="str">
+      <c r="B39" s="59" t="str">
         <f t="shared" si="1"/>
         <v>010</v>
       </c>
-      <c r="C39" s="64" t="str">
+      <c r="C39" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Tampering</v>
       </c>
-      <c r="D39" s="72" t="str">
+      <c r="D39" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Spoof updated SW with older version which may have vulnerabilities, but is signed with an authentic key</v>
       </c>
@@ -5985,7 +6443,7 @@
       <c r="L39" s="32">
         <v>0</v>
       </c>
-      <c r="M39" s="55">
+      <c r="M39" s="53">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -5994,15 +6452,15 @@
       <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="62" t="str">
+      <c r="B40" s="60" t="str">
         <f t="shared" si="1"/>
         <v>012</v>
       </c>
-      <c r="C40" s="65" t="str">
+      <c r="C40" s="63" t="str">
         <f t="shared" si="1"/>
         <v>Information Disclosure</v>
       </c>
-      <c r="D40" s="74" t="str">
+      <c r="D40" s="72" t="str">
         <f t="shared" si="1"/>
         <v>App is used on a computer with a keystroke logger</v>
       </c>
@@ -6030,7 +6488,7 @@
       <c r="L40" s="37">
         <v>0</v>
       </c>
-      <c r="M40" s="56">
+      <c r="M40" s="54">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -6039,15 +6497,15 @@
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="61" t="str">
+      <c r="B41" s="59" t="str">
         <f t="shared" si="1"/>
         <v>014</v>
       </c>
-      <c r="C41" s="64" t="str">
+      <c r="C41" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Tampering</v>
       </c>
-      <c r="D41" s="72" t="str">
+      <c r="D41" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Modify device to “zero” factory public key, enabling malicious SW update</v>
       </c>
@@ -6075,7 +6533,7 @@
       <c r="L41" s="32">
         <v>0</v>
       </c>
-      <c r="M41" s="55">
+      <c r="M41" s="53">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -6084,15 +6542,15 @@
       <c r="A42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="62" t="str">
+      <c r="B42" s="60" t="str">
         <f t="shared" si="1"/>
         <v>017</v>
       </c>
-      <c r="C42" s="65" t="str">
+      <c r="C42" s="63" t="str">
         <f t="shared" si="1"/>
         <v>DoS</v>
       </c>
-      <c r="D42" s="74" t="str">
+      <c r="D42" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Remove power from device after it resets the counter but before it overwrites header and password file</v>
       </c>
@@ -6120,7 +6578,7 @@
       <c r="L42" s="37">
         <v>0</v>
       </c>
-      <c r="M42" s="56">
+      <c r="M42" s="54">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -6129,15 +6587,15 @@
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="61" t="str">
+      <c r="B43" s="59" t="str">
         <f t="shared" si="1"/>
         <v>018</v>
       </c>
-      <c r="C43" s="64" t="str">
+      <c r="C43" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="D43" s="72" t="str">
+      <c r="D43" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Request device reset and remove power after the header file is rewritten but before the password file is rewritten to allow access to encrypted password file for offline attacks.</v>
       </c>
@@ -6165,7 +6623,7 @@
       <c r="L43" s="32">
         <v>0</v>
       </c>
-      <c r="M43" s="55">
+      <c r="M43" s="53">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -6174,15 +6632,15 @@
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="62" t="str">
+      <c r="B44" s="60" t="str">
         <f t="shared" si="1"/>
         <v>019</v>
       </c>
-      <c r="C44" s="65" t="str">
+      <c r="C44" s="63" t="str">
         <f t="shared" si="1"/>
         <v>Information Disclosure</v>
       </c>
-      <c r="D44" s="74" t="str">
+      <c r="D44" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Fuzz USB commands to discover readable and/or writeable device memory</v>
       </c>
@@ -6210,7 +6668,7 @@
       <c r="L44" s="37">
         <v>0</v>
       </c>
-      <c r="M44" s="56">
+      <c r="M44" s="54">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
@@ -6219,15 +6677,15 @@
       <c r="A45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="61" t="str">
+      <c r="B45" s="59" t="str">
         <f t="shared" si="1"/>
         <v>020</v>
       </c>
-      <c r="C45" s="64" t="str">
+      <c r="C45" s="62" t="str">
         <f t="shared" si="1"/>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="D45" s="72" t="str">
+      <c r="D45" s="70" t="str">
         <f t="shared" si="1"/>
         <v>Fuzz USB commands to cause unpredictable behavior and/or discover point of entry to gain execution</v>
       </c>
@@ -6255,7 +6713,7 @@
       <c r="L45" s="32">
         <v>0</v>
       </c>
-      <c r="M45" s="55">
+      <c r="M45" s="53">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
@@ -6264,15 +6722,15 @@
       <c r="A46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="62" t="str">
+      <c r="B46" s="60" t="str">
         <f t="shared" si="1"/>
         <v>021</v>
       </c>
-      <c r="C46" s="65" t="str">
+      <c r="C46" s="63" t="str">
         <f t="shared" si="1"/>
         <v>Information Disclosure</v>
       </c>
-      <c r="D46" s="74" t="str">
+      <c r="D46" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Reset the device, obtain secure session with own credentials, and excavate available memory locations for old users’ password files</v>
       </c>
@@ -6300,7 +6758,7 @@
       <c r="L46" s="37">
         <v>0</v>
       </c>
-      <c r="M46" s="56">
+      <c r="M46" s="54">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -6309,14 +6767,14 @@
       <c r="A47" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="61">
+      <c r="B47" s="59">
         <v>24</v>
       </c>
-      <c r="C47" s="64" t="str">
+      <c r="C47" s="62" t="str">
         <f>C20</f>
         <v>Spoofing</v>
       </c>
-      <c r="D47" s="72" t="str">
+      <c r="D47" s="70" t="str">
         <f>D20</f>
         <v>The real USB is switched with the fake one which has the keylogging function</v>
       </c>
@@ -6344,7 +6802,7 @@
       <c r="L47" s="32">
         <v>0</v>
       </c>
-      <c r="M47" s="55">
+      <c r="M47" s="53">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -6357,11 +6815,11 @@
         <f>'Table of Threats'!A29</f>
         <v>026</v>
       </c>
-      <c r="C48" s="65" t="str">
+      <c r="C48" s="63" t="str">
         <f>'Table of Threats'!D29</f>
         <v>Repudiation</v>
       </c>
-      <c r="D48" s="74" t="str">
+      <c r="D48" s="72" t="str">
         <f>'Table of Threats'!E29</f>
         <v>Logs May be visible to a low privilege attacker</v>
       </c>
@@ -6389,7 +6847,7 @@
       <c r="L48" s="37">
         <v>0</v>
       </c>
-      <c r="M48" s="56">
+      <c r="M48" s="54">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
@@ -6406,7 +6864,7 @@
         <f>C22</f>
         <v>Repudiation</v>
       </c>
-      <c r="D49" s="108" t="str">
+      <c r="D49" s="101" t="str">
         <f>D22</f>
         <v>Weak Digital Signature may allow an attacker to alter digital signature</v>
       </c>
@@ -6434,7 +6892,7 @@
       <c r="L49" s="32">
         <v>0</v>
       </c>
-      <c r="M49" s="55">
+      <c r="M49" s="53">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -6443,15 +6901,15 @@
       <c r="A50" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="51" t="str">
+      <c r="B50" s="50" t="str">
         <f>B23</f>
         <v>031</v>
       </c>
-      <c r="C50" s="51" t="str">
+      <c r="C50" s="50" t="str">
         <f t="shared" ref="C50:D50" si="3">C23</f>
         <v>Repudiation</v>
       </c>
-      <c r="D50" s="51" t="str">
+      <c r="D50" s="50" t="str">
         <f t="shared" si="3"/>
         <v>Lack of ACL, encryption and permissions can allow an attacker to access, and tamper with log and file information</v>
       </c>
@@ -6479,7 +6937,7 @@
       <c r="L50" s="37">
         <v>0</v>
       </c>
-      <c r="M50" s="56">
+      <c r="M50" s="54">
         <f t="shared" si="2"/>
         <v>7.25</v>
       </c>
@@ -6488,15 +6946,15 @@
       <c r="A51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="110" t="str">
+      <c r="B51" s="103" t="str">
         <f>B24</f>
         <v>042</v>
       </c>
-      <c r="C51" s="110" t="str">
+      <c r="C51" s="103" t="str">
         <f t="shared" ref="C51:D51" si="4">C24</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D51" s="110" t="str">
+      <c r="D51" s="103" t="str">
         <f t="shared" si="4"/>
         <v>An attacker can read the software update image while in transit</v>
       </c>
@@ -6524,7 +6982,7 @@
       <c r="L51" s="32">
         <v>0</v>
       </c>
-      <c r="M51" s="55">
+      <c r="M51" s="53">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -6533,15 +6991,15 @@
       <c r="A52" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="51" t="str">
+      <c r="B52" s="50" t="str">
         <f>B25</f>
         <v>043</v>
       </c>
-      <c r="C52" s="51" t="str">
+      <c r="C52" s="50" t="str">
         <f t="shared" ref="C52:D52" si="5">C25</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="D52" s="51" t="str">
+      <c r="D52" s="50" t="str">
         <f t="shared" si="5"/>
         <v>a malformed SQL attack may result in elevation of privilege</v>
       </c>
@@ -6569,7 +7027,7 @@
       <c r="L52" s="37">
         <v>0</v>
       </c>
-      <c r="M52" s="56">
+      <c r="M52" s="54">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
@@ -6578,9 +7036,9 @@
       <c r="A53" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="61"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="72"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="70"/>
       <c r="E53" s="38"/>
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
@@ -6589,15 +7047,15 @@
       <c r="J53" s="29"/>
       <c r="K53" s="32"/>
       <c r="L53" s="32"/>
-      <c r="M53" s="55"/>
+      <c r="M53" s="53"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="74"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="72"/>
       <c r="E54" s="33"/>
       <c r="F54" s="34"/>
       <c r="G54" s="34"/>
@@ -6606,15 +7064,15 @@
       <c r="J54" s="34"/>
       <c r="K54" s="37"/>
       <c r="L54" s="37"/>
-      <c r="M54" s="56"/>
+      <c r="M54" s="54"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="61"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="72"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="70"/>
       <c r="E55" s="38"/>
       <c r="F55" s="29"/>
       <c r="G55" s="29"/>
@@ -6623,15 +7081,15 @@
       <c r="J55" s="29"/>
       <c r="K55" s="32"/>
       <c r="L55" s="32"/>
-      <c r="M55" s="55"/>
+      <c r="M55" s="53"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="63"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="73"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="71"/>
       <c r="E56" s="39"/>
       <c r="F56" s="40"/>
       <c r="G56" s="40"/>
@@ -6640,10 +7098,18 @@
       <c r="J56" s="40"/>
       <c r="K56" s="43"/>
       <c r="L56" s="43"/>
-      <c r="M56" s="57"/>
+      <c r="M56" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
     <mergeCell ref="B2:K3"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="E5:H5"/>
@@ -6652,14 +7118,6 @@
     <mergeCell ref="I32:L32"/>
     <mergeCell ref="M32:M33"/>
     <mergeCell ref="B29:K30"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6671,10 +7129,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H29"/>
+  <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6687,72 +7145,72 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="116"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="144"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="147"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="135" t="s">
         <v>264</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="135" t="s">
+      <c r="E5" s="158"/>
+      <c r="F5" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="153" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
     </row>
     <row r="7" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="88" t="str">
+      <c r="C7" s="107" t="str">
         <f>'Risk Tables'!C7</f>
         <v>Repudiation / Tamper</v>
       </c>
-      <c r="D7" s="133" t="str">
+      <c r="D7" s="161" t="str">
         <f>'Risk Tables'!D7</f>
         <v>An attacker can tamper with the reset counter and cause the system to never reset, enabling a brute force attack.  The reset counter serves as a log of failed password attempts</v>
       </c>
-      <c r="E7" s="134"/>
-      <c r="F7" s="95">
+      <c r="E7" s="162"/>
+      <c r="F7" s="88">
         <f>'Risk Tables'!M7</f>
         <v>3.625</v>
       </c>
-      <c r="G7" s="95">
+      <c r="G7" s="88">
         <f>'Risk Tables'!M34</f>
         <v>9</v>
       </c>
@@ -6764,20 +7222,20 @@
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="89" t="str">
+      <c r="C8" s="105" t="str">
         <f>'Risk Tables'!C8</f>
         <v>Repudiation/Spoofing</v>
       </c>
-      <c r="D8" s="125" t="str">
+      <c r="D8" s="151" t="str">
         <f>'Risk Tables'!D8</f>
         <v>Webserver needs to use unique USB identifier as an authenticator</v>
       </c>
-      <c r="E8" s="126"/>
-      <c r="F8" s="96">
+      <c r="E8" s="152"/>
+      <c r="F8" s="89">
         <f>'Risk Tables'!M8</f>
         <v>2.875</v>
       </c>
-      <c r="G8" s="96">
+      <c r="G8" s="89">
         <f>'Risk Tables'!M35</f>
         <v>2.75</v>
       </c>
@@ -6789,20 +7247,20 @@
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="90" t="str">
+      <c r="C9" s="104" t="str">
         <f>'Risk Tables'!C9</f>
         <v>Tampering</v>
       </c>
-      <c r="D9" s="123" t="str">
+      <c r="D9" s="155" t="str">
         <f>'Risk Tables'!D9</f>
         <v>Malware infested Update</v>
       </c>
-      <c r="E9" s="124"/>
-      <c r="F9" s="97">
+      <c r="E9" s="156"/>
+      <c r="F9" s="90">
         <f>'Risk Tables'!M9</f>
         <v>4.5</v>
       </c>
-      <c r="G9" s="97">
+      <c r="G9" s="90">
         <f>'Risk Tables'!M36</f>
         <v>9</v>
       </c>
@@ -6814,20 +7272,20 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="89" t="str">
+      <c r="C10" s="105" t="str">
         <f>'Risk Tables'!C10</f>
         <v>DOS</v>
       </c>
-      <c r="D10" s="125" t="str">
+      <c r="D10" s="151" t="str">
         <f>'Risk Tables'!D10</f>
         <v>Theft or Loss of USB</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="96">
+      <c r="E10" s="152"/>
+      <c r="F10" s="89">
         <f>'Risk Tables'!M10</f>
         <v>5</v>
       </c>
-      <c r="G10" s="96">
+      <c r="G10" s="89">
         <f>'Risk Tables'!M37</f>
         <v>9</v>
       </c>
@@ -6839,20 +7297,20 @@
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="90" t="str">
+      <c r="C11" s="104" t="str">
         <f>'Risk Tables'!C11</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D11" s="123" t="str">
+      <c r="D11" s="155" t="str">
         <f>'Risk Tables'!D11</f>
         <v>password guess attack</v>
       </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="97">
+      <c r="E11" s="156"/>
+      <c r="F11" s="90">
         <f>'Risk Tables'!M11</f>
         <v>3.75</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="90">
         <f>'Risk Tables'!M38</f>
         <v>9</v>
       </c>
@@ -6864,20 +7322,20 @@
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="89" t="str">
+      <c r="C12" s="105" t="str">
         <f>'Risk Tables'!C12</f>
         <v>Tampering</v>
       </c>
-      <c r="D12" s="125" t="str">
+      <c r="D12" s="151" t="str">
         <f>'Risk Tables'!D12</f>
         <v>Spoof updated SW with older version which may have vulnerabilities, but is signed with an authentic key</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="96">
+      <c r="E12" s="152"/>
+      <c r="F12" s="89">
         <f>'Risk Tables'!M12</f>
         <v>4.5</v>
       </c>
-      <c r="G12" s="96">
+      <c r="G12" s="89">
         <f>'Risk Tables'!M39</f>
         <v>9</v>
       </c>
@@ -6889,20 +7347,20 @@
       <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="90" t="str">
+      <c r="C13" s="104" t="str">
         <f>'Risk Tables'!C13</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D13" s="123" t="str">
+      <c r="D13" s="155" t="str">
         <f>'Risk Tables'!D13</f>
         <v>App is used on a computer with a keystroke logger</v>
       </c>
-      <c r="E13" s="124"/>
-      <c r="F13" s="97">
+      <c r="E13" s="156"/>
+      <c r="F13" s="90">
         <f>'Risk Tables'!M13</f>
         <v>5</v>
       </c>
-      <c r="G13" s="97">
+      <c r="G13" s="90">
         <f>'Risk Tables'!M40</f>
         <v>9</v>
       </c>
@@ -6914,20 +7372,20 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="89" t="str">
+      <c r="C14" s="105" t="str">
         <f>'Risk Tables'!C14</f>
         <v>Tampering</v>
       </c>
-      <c r="D14" s="125" t="str">
+      <c r="D14" s="151" t="str">
         <f>'Risk Tables'!D14</f>
         <v>Modify device to “zero” factory public key, enabling malicious SW update</v>
       </c>
-      <c r="E14" s="126"/>
-      <c r="F14" s="96">
+      <c r="E14" s="152"/>
+      <c r="F14" s="89">
         <f>'Risk Tables'!M14</f>
         <v>2.125</v>
       </c>
-      <c r="G14" s="96">
+      <c r="G14" s="89">
         <f>'Risk Tables'!M41</f>
         <v>9</v>
       </c>
@@ -6939,20 +7397,20 @@
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="90" t="str">
+      <c r="C15" s="104" t="str">
         <f>'Risk Tables'!C15</f>
         <v>DoS</v>
       </c>
-      <c r="D15" s="123" t="str">
+      <c r="D15" s="155" t="str">
         <f>'Risk Tables'!D15</f>
         <v>Remove power from device after it resets the counter but before it overwrites header and password file</v>
       </c>
-      <c r="E15" s="124"/>
-      <c r="F15" s="97">
+      <c r="E15" s="156"/>
+      <c r="F15" s="90">
         <f>'Risk Tables'!M15</f>
         <v>3.75</v>
       </c>
-      <c r="G15" s="97">
+      <c r="G15" s="90">
         <f>'Risk Tables'!M42</f>
         <v>9</v>
       </c>
@@ -6964,20 +7422,20 @@
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="89" t="str">
+      <c r="C16" s="105" t="str">
         <f>'Risk Tables'!C16</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="D16" s="125" t="str">
+      <c r="D16" s="151" t="str">
         <f>'Risk Tables'!D16</f>
         <v>Request device reset and remove power after the header file is rewritten but before the password file is rewritten to allow access to encrypted password file for offline attacks.</v>
       </c>
-      <c r="E16" s="126"/>
-      <c r="F16" s="96">
+      <c r="E16" s="152"/>
+      <c r="F16" s="89">
         <f>'Risk Tables'!M16</f>
         <v>3.75</v>
       </c>
-      <c r="G16" s="96">
+      <c r="G16" s="89">
         <f>'Risk Tables'!M43</f>
         <v>9</v>
       </c>
@@ -6989,20 +7447,20 @@
       <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="90" t="str">
+      <c r="C17" s="104" t="str">
         <f>'Risk Tables'!C17</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D17" s="123" t="str">
+      <c r="D17" s="155" t="str">
         <f>'Risk Tables'!D17</f>
         <v>Fuzz USB commands to discover readable and/or writeable device memory</v>
       </c>
-      <c r="E17" s="124"/>
-      <c r="F17" s="97">
+      <c r="E17" s="156"/>
+      <c r="F17" s="90">
         <f>'Risk Tables'!M17</f>
         <v>3</v>
       </c>
-      <c r="G17" s="97">
+      <c r="G17" s="90">
         <f>'Risk Tables'!M44</f>
         <v>2.75</v>
       </c>
@@ -7014,20 +7472,20 @@
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="89" t="str">
+      <c r="C18" s="105" t="str">
         <f>'Risk Tables'!C18</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="D18" s="125" t="str">
+      <c r="D18" s="151" t="str">
         <f>'Risk Tables'!D18</f>
         <v>Fuzz USB commands to cause unpredictable behavior and/or discover point of entry to gain execution</v>
       </c>
-      <c r="E18" s="126"/>
-      <c r="F18" s="96">
+      <c r="E18" s="152"/>
+      <c r="F18" s="89">
         <f>'Risk Tables'!M18</f>
         <v>3</v>
       </c>
-      <c r="G18" s="96">
+      <c r="G18" s="89">
         <f>'Risk Tables'!M45</f>
         <v>2.75</v>
       </c>
@@ -7039,20 +7497,20 @@
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="90" t="str">
+      <c r="C19" s="104" t="str">
         <f>'Risk Tables'!C19</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="D19" s="123" t="str">
+      <c r="D19" s="155" t="str">
         <f>'Risk Tables'!D19</f>
         <v>Reset the device, obtain secure session with own credentials, and excavate available memory locations for old users’ password files</v>
       </c>
-      <c r="E19" s="124"/>
-      <c r="F19" s="97">
+      <c r="E19" s="156"/>
+      <c r="F19" s="90">
         <f>'Risk Tables'!M19</f>
         <v>3</v>
       </c>
-      <c r="G19" s="97">
+      <c r="G19" s="90">
         <f>'Risk Tables'!M46</f>
         <v>5</v>
       </c>
@@ -7064,127 +7522,155 @@
       <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="30"/>
+      <c r="C20" s="105" t="str">
+        <f>'Risk Tables'!C20</f>
+        <v>Spoofing</v>
+      </c>
+      <c r="D20" s="151" t="str">
+        <f>'Risk Tables'!D20</f>
+        <v>The real USB is switched with the fake one which has the keylogging function</v>
+      </c>
+      <c r="E20" s="152"/>
+      <c r="F20" s="85">
+        <f>'Risk Tables'!M20</f>
+        <v>4.5</v>
+      </c>
+      <c r="G20" s="85">
+        <f>'Risk Tables'!M47</f>
+        <v>9</v>
+      </c>
+      <c r="H20" s="30">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="35"/>
+      <c r="C21" s="104" t="str">
+        <f>'Risk Tables'!C21</f>
+        <v>Repudiation</v>
+      </c>
+      <c r="D21" s="155" t="str">
+        <f>'Risk Tables'!D21</f>
+        <v>Logs May be visible to a low privilege attacker</v>
+      </c>
+      <c r="E21" s="156"/>
+      <c r="F21" s="86">
+        <f>'Risk Tables'!M21</f>
+        <v>5.75</v>
+      </c>
+      <c r="G21" s="86">
+        <f>'Risk Tables'!M48</f>
+        <v>3.5</v>
+      </c>
+      <c r="H21" s="35">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="30"/>
+      <c r="C22" s="105" t="str">
+        <f>'Risk Tables'!C22</f>
+        <v>Repudiation</v>
+      </c>
+      <c r="D22" s="151" t="str">
+        <f>'Risk Tables'!D22</f>
+        <v>Weak Digital Signature may allow an attacker to alter digital signature</v>
+      </c>
+      <c r="E22" s="152"/>
+      <c r="F22" s="85">
+        <f>'Risk Tables'!M22</f>
+        <v>3.5</v>
+      </c>
+      <c r="G22" s="85">
+        <f>'Risk Tables'!M49</f>
+        <v>9</v>
+      </c>
+      <c r="H22" s="30">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="35"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="104" t="str">
+        <f>'Risk Tables'!C23</f>
+        <v>Repudiation</v>
+      </c>
+      <c r="D23" s="155" t="str">
+        <f>'Risk Tables'!D23</f>
+        <v>Lack of ACL, encryption and permissions can allow an attacker to access, and tamper with log and file information</v>
+      </c>
+      <c r="E23" s="156"/>
+      <c r="F23" s="86">
+        <f>'Risk Tables'!M23</f>
+        <v>3</v>
+      </c>
+      <c r="G23" s="86">
+        <f>'Risk Tables'!M50</f>
+        <v>7.25</v>
+      </c>
+      <c r="H23" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="30"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
+      <c r="C24" s="105" t="str">
+        <f>'Risk Tables'!C24</f>
+        <v>Information Disclosure</v>
+      </c>
+      <c r="D24" s="151" t="str">
+        <f>'Risk Tables'!D24</f>
+        <v>An attacker can read the software update image while in transit</v>
+      </c>
+      <c r="E24" s="152"/>
+      <c r="F24" s="85">
+        <f>'Risk Tables'!M24</f>
+        <v>5.125</v>
+      </c>
+      <c r="G24" s="85">
+        <f>'Risk Tables'!M51</f>
+        <v>4</v>
+      </c>
+      <c r="H24" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="35"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="30"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="35"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="30"/>
-    </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="41"/>
+      <c r="C25" s="106" t="str">
+        <f>'Risk Tables'!C25</f>
+        <v>Elevation of Privilege</v>
+      </c>
+      <c r="D25" s="163" t="str">
+        <f>'Risk Tables'!D25</f>
+        <v>a malformed SQL attack may result in elevation of privilege</v>
+      </c>
+      <c r="E25" s="164"/>
+      <c r="F25" s="87">
+        <f>'Risk Tables'!M25</f>
+        <v>3.5</v>
+      </c>
+      <c r="G25" s="87">
+        <f>'Risk Tables'!M52</f>
+        <v>6.5</v>
+      </c>
+      <c r="H25" s="41">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
+  <mergeCells count="26">
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -7197,13 +7683,21 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
   </mergeCells>
-  <conditionalFormatting sqref="H7:H29">
+  <conditionalFormatting sqref="H7:H25">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -7224,10 +7718,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B8:B29 B7:G7" numberStoredAsText="1"/>
+    <ignoredError sqref="B8:B19 B7:G7 B20:B25" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7254,48 +7749,48 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="111" t="s">
+      <c r="I2" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="111" t="s">
+      <c r="J2" s="135" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -7641,10 +8136,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I34"/>
+  <dimension ref="C3:I40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H34" sqref="C4:I34"/>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7654,517 +8149,663 @@
   <sheetData>
     <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="165" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="139"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="167"/>
     </row>
     <row r="5" spans="3:9" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="75" t="s">
         <v>256</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="75" t="s">
         <v>257</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="75" t="s">
         <v>258</v>
       </c>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="75" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="168" t="s">
         <v>244</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="82"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
     </row>
     <row r="7" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="141"/>
-      <c r="D7" s="78" t="s">
+      <c r="C7" s="169"/>
+      <c r="D7" s="75" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
     </row>
     <row r="8" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="141"/>
-      <c r="D8" s="78" t="s">
+      <c r="C8" s="169"/>
+      <c r="D8" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="141"/>
-      <c r="D9" s="78" t="s">
+      <c r="C9" s="169"/>
+      <c r="D9" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
     </row>
     <row r="10" spans="3:9" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="142"/>
-      <c r="D10" s="78" t="s">
+      <c r="C10" s="170"/>
+      <c r="D10" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="80"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
     </row>
     <row r="12" spans="3:9" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="G12" s="86" t="s">
+      <c r="G12" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
     </row>
     <row r="13" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="82"/>
-      <c r="E13" s="87">
+      <c r="D13" s="79"/>
+      <c r="E13" s="84">
         <v>1</v>
       </c>
-      <c r="F13" s="87" t="s">
+      <c r="F13" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="G13" s="87"/>
+      <c r="G13" s="84"/>
     </row>
     <row r="14" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="81"/>
-      <c r="E14" s="87">
+      <c r="D14" s="78"/>
+      <c r="E14" s="84">
         <v>2</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="84" t="s">
         <v>250</v>
       </c>
-      <c r="G14" s="87"/>
+      <c r="G14" s="84"/>
     </row>
     <row r="15" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="80"/>
-      <c r="E15" s="87">
+      <c r="D15" s="77"/>
+      <c r="E15" s="84">
         <v>3</v>
       </c>
-      <c r="F15" s="87" t="s">
+      <c r="F15" s="84" t="s">
         <v>251</v>
       </c>
-      <c r="G15" s="87"/>
+      <c r="G15" s="84"/>
     </row>
     <row r="16" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="79"/>
-      <c r="E16" s="87">
+      <c r="D16" s="76"/>
+      <c r="E16" s="84">
         <v>4</v>
       </c>
-      <c r="F16" s="87" t="s">
+      <c r="F16" s="84" t="s">
         <v>252</v>
       </c>
-      <c r="G16" s="87"/>
+      <c r="G16" s="84"/>
     </row>
     <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="83"/>
-      <c r="E17" s="87">
+      <c r="D17" s="80"/>
+      <c r="E17" s="84">
         <v>5</v>
       </c>
-      <c r="F17" s="87" t="s">
+      <c r="F17" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="G17" s="87"/>
+      <c r="G17" s="84"/>
     </row>
     <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="84"/>
-      <c r="E18" s="87">
+      <c r="D18" s="81"/>
+      <c r="E18" s="84">
         <v>6</v>
       </c>
-      <c r="F18" s="87" t="s">
+      <c r="F18" s="84" t="s">
         <v>254</v>
       </c>
-      <c r="G18" s="87"/>
+      <c r="G18" s="84"/>
     </row>
     <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="99" t="s">
+      <c r="D21" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="99" t="s">
+      <c r="E21" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="100" t="s">
+      <c r="F21" s="93" t="s">
         <v>244</v>
       </c>
-      <c r="G21" s="100" t="s">
+      <c r="G21" s="93" t="s">
         <v>243</v>
       </c>
-      <c r="H21" s="101" t="s">
+      <c r="H21" s="94" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="102" t="str">
+      <c r="C22" s="95" t="str">
         <f>'Threat Summary Table'!B7</f>
         <v>001</v>
       </c>
-      <c r="D22" s="103" t="str">
+      <c r="D22" s="96" t="str">
         <f>'Threat Summary Table'!C7</f>
         <v>Repudiation / Tamper</v>
       </c>
-      <c r="E22" s="103" t="s">
+      <c r="E22" s="96" t="s">
         <v>266</v>
       </c>
-      <c r="F22" s="106">
+      <c r="F22" s="99">
         <f>'Threat Summary Table'!F7</f>
         <v>3.625</v>
       </c>
-      <c r="G22" s="104">
+      <c r="G22" s="97">
         <f>'Threat Summary Table'!G7</f>
         <v>9</v>
       </c>
-      <c r="H22" s="105">
+      <c r="H22" s="98">
         <f>'Threat Summary Table'!H7</f>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="102" t="str">
+    <row r="23" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="95" t="str">
         <f>'Threat Summary Table'!B8</f>
         <v>002</v>
       </c>
-      <c r="D23" s="103" t="str">
+      <c r="D23" s="96" t="str">
         <f>'Threat Summary Table'!C8</f>
         <v>Repudiation/Spoofing</v>
       </c>
-      <c r="E23" s="103" t="s">
+      <c r="E23" s="96" t="s">
         <v>267</v>
       </c>
-      <c r="F23" s="106">
+      <c r="F23" s="99">
         <f>'Threat Summary Table'!F8</f>
         <v>2.875</v>
       </c>
-      <c r="G23" s="104">
+      <c r="G23" s="97">
         <f>'Threat Summary Table'!G8</f>
         <v>2.75</v>
       </c>
-      <c r="H23" s="105">
+      <c r="H23" s="98">
         <f>'Threat Summary Table'!H8</f>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="102" t="str">
+    <row r="24" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="95" t="str">
         <f>'Threat Summary Table'!B9</f>
         <v>003</v>
       </c>
-      <c r="D24" s="103" t="str">
+      <c r="D24" s="96" t="str">
         <f>'Threat Summary Table'!C9</f>
         <v>Tampering</v>
       </c>
-      <c r="E24" s="103" t="s">
+      <c r="E24" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="F24" s="106">
+      <c r="F24" s="99">
         <f>'Threat Summary Table'!F9</f>
         <v>4.5</v>
       </c>
-      <c r="G24" s="104">
+      <c r="G24" s="97">
         <f>'Threat Summary Table'!G9</f>
         <v>9</v>
       </c>
-      <c r="H24" s="105">
+      <c r="H24" s="98">
         <f>'Threat Summary Table'!H9</f>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="102" t="str">
+    <row r="25" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="95" t="str">
         <f>'Threat Summary Table'!B10</f>
         <v>004</v>
       </c>
-      <c r="D25" s="103" t="str">
+      <c r="D25" s="96" t="str">
         <f>'Threat Summary Table'!C10</f>
         <v>DOS</v>
       </c>
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="F25" s="106">
+      <c r="F25" s="99">
         <f>'Threat Summary Table'!F10</f>
         <v>5</v>
       </c>
-      <c r="G25" s="104">
+      <c r="G25" s="97">
         <f>'Threat Summary Table'!G10</f>
         <v>9</v>
       </c>
-      <c r="H25" s="105">
+      <c r="H25" s="98">
         <f>'Threat Summary Table'!H10</f>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="102" t="str">
+      <c r="C26" s="95" t="str">
         <f>'Threat Summary Table'!B11</f>
         <v>005</v>
       </c>
-      <c r="D26" s="103" t="str">
+      <c r="D26" s="96" t="str">
         <f>'Threat Summary Table'!C11</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="E26" s="103" t="s">
+      <c r="E26" s="96" t="s">
         <v>269</v>
       </c>
-      <c r="F26" s="106">
+      <c r="F26" s="99">
         <f>'Threat Summary Table'!F11</f>
         <v>3.75</v>
       </c>
-      <c r="G26" s="104">
+      <c r="G26" s="97">
         <f>'Threat Summary Table'!G11</f>
         <v>9</v>
       </c>
-      <c r="H26" s="105">
+      <c r="H26" s="98">
         <f>'Threat Summary Table'!H11</f>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C27" s="102" t="str">
+    <row r="27" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="95" t="str">
         <f>'Threat Summary Table'!B12</f>
         <v>006</v>
       </c>
-      <c r="D27" s="103" t="str">
+      <c r="D27" s="96" t="str">
         <f>'Threat Summary Table'!C12</f>
         <v>Tampering</v>
       </c>
-      <c r="E27" s="103" t="s">
+      <c r="E27" s="96" t="s">
         <v>270</v>
       </c>
-      <c r="F27" s="106">
+      <c r="F27" s="99">
         <f>'Threat Summary Table'!F12</f>
         <v>4.5</v>
       </c>
-      <c r="G27" s="104">
+      <c r="G27" s="97">
         <f>'Threat Summary Table'!G12</f>
         <v>9</v>
       </c>
-      <c r="H27" s="105">
+      <c r="H27" s="98">
         <f>'Threat Summary Table'!H12</f>
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="102" t="str">
+      <c r="C28" s="95" t="str">
         <f>'Threat Summary Table'!B13</f>
         <v>007</v>
       </c>
-      <c r="D28" s="103" t="str">
+      <c r="D28" s="96" t="str">
         <f>'Threat Summary Table'!C13</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="E28" s="103" t="s">
+      <c r="E28" s="96" t="s">
         <v>271</v>
       </c>
-      <c r="F28" s="106">
+      <c r="F28" s="99">
         <f>'Threat Summary Table'!F13</f>
         <v>5</v>
       </c>
-      <c r="G28" s="104">
+      <c r="G28" s="97">
         <f>'Threat Summary Table'!G13</f>
         <v>9</v>
       </c>
-      <c r="H28" s="105">
+      <c r="H28" s="98">
         <f>'Threat Summary Table'!H13</f>
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="102" t="str">
+      <c r="C29" s="95" t="str">
         <f>'Threat Summary Table'!B14</f>
         <v>008</v>
       </c>
-      <c r="D29" s="103" t="str">
+      <c r="D29" s="96" t="str">
         <f>'Threat Summary Table'!C14</f>
         <v>Tampering</v>
       </c>
-      <c r="E29" s="103" t="s">
+      <c r="E29" s="96" t="s">
         <v>272</v>
       </c>
-      <c r="F29" s="106">
+      <c r="F29" s="99">
         <f>'Threat Summary Table'!F14</f>
         <v>2.125</v>
       </c>
-      <c r="G29" s="104">
+      <c r="G29" s="97">
         <f>'Threat Summary Table'!G14</f>
         <v>9</v>
       </c>
-      <c r="H29" s="105">
+      <c r="H29" s="98">
         <f>'Threat Summary Table'!H14</f>
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C30" s="102" t="str">
+      <c r="C30" s="95" t="str">
         <f>'Threat Summary Table'!B15</f>
         <v>009</v>
       </c>
-      <c r="D30" s="103" t="str">
+      <c r="D30" s="96" t="str">
         <f>'Threat Summary Table'!C15</f>
         <v>DoS</v>
       </c>
-      <c r="E30" s="103" t="s">
+      <c r="E30" s="96" t="s">
         <v>273</v>
       </c>
-      <c r="F30" s="106">
+      <c r="F30" s="99">
         <f>'Threat Summary Table'!F15</f>
         <v>3.75</v>
       </c>
-      <c r="G30" s="104">
+      <c r="G30" s="97">
         <f>'Threat Summary Table'!G15</f>
         <v>9</v>
       </c>
-      <c r="H30" s="105">
+      <c r="H30" s="98">
         <f>'Threat Summary Table'!H15</f>
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C31" s="102" t="str">
+      <c r="C31" s="95" t="str">
         <f>'Threat Summary Table'!B16</f>
         <v>010</v>
       </c>
-      <c r="D31" s="103" t="str">
+      <c r="D31" s="96" t="str">
         <f>'Threat Summary Table'!C16</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="E31" s="103" t="s">
+      <c r="E31" s="96" t="s">
         <v>274</v>
       </c>
-      <c r="F31" s="106">
+      <c r="F31" s="99">
         <f>'Threat Summary Table'!F16</f>
         <v>3.75</v>
       </c>
-      <c r="G31" s="104">
+      <c r="G31" s="97">
         <f>'Threat Summary Table'!G16</f>
         <v>9</v>
       </c>
-      <c r="H31" s="105">
+      <c r="H31" s="98">
         <f>'Threat Summary Table'!H16</f>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C32" s="102" t="str">
+    <row r="32" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="95" t="str">
         <f>'Threat Summary Table'!B17</f>
         <v>011</v>
       </c>
-      <c r="D32" s="103" t="str">
+      <c r="D32" s="96" t="str">
         <f>'Threat Summary Table'!C17</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="E32" s="103" t="s">
+      <c r="E32" s="96" t="s">
         <v>275</v>
       </c>
-      <c r="F32" s="106">
+      <c r="F32" s="99">
         <f>'Threat Summary Table'!F17</f>
         <v>3</v>
       </c>
-      <c r="G32" s="104">
+      <c r="G32" s="97">
         <f>'Threat Summary Table'!G17</f>
         <v>2.75</v>
       </c>
-      <c r="H32" s="105">
+      <c r="H32" s="98">
         <f>'Threat Summary Table'!H17</f>
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C33" s="102" t="str">
+      <c r="C33" s="95" t="str">
         <f>'Threat Summary Table'!B18</f>
         <v>012</v>
       </c>
-      <c r="D33" s="103" t="str">
+      <c r="D33" s="96" t="str">
         <f>'Threat Summary Table'!C18</f>
         <v>Elevation of Privilege</v>
       </c>
-      <c r="E33" s="103" t="s">
+      <c r="E33" s="96" t="s">
         <v>276</v>
       </c>
-      <c r="F33" s="106">
+      <c r="F33" s="99">
         <f>'Threat Summary Table'!F18</f>
         <v>3</v>
       </c>
-      <c r="G33" s="104">
+      <c r="G33" s="97">
         <f>'Threat Summary Table'!G18</f>
         <v>2.75</v>
       </c>
-      <c r="H33" s="105">
+      <c r="H33" s="98">
         <f>'Threat Summary Table'!H18</f>
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C34" s="102" t="str">
+    <row r="34" spans="3:8" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="133" t="str">
         <f>'Threat Summary Table'!B19</f>
         <v>013</v>
       </c>
-      <c r="D34" s="103" t="str">
+      <c r="D34" s="96" t="str">
         <f>'Threat Summary Table'!C19</f>
         <v>Information Disclosure</v>
       </c>
-      <c r="E34" s="103" t="s">
+      <c r="E34" s="96" t="s">
         <v>277</v>
       </c>
-      <c r="F34" s="106">
+      <c r="F34" s="99">
         <f>'Threat Summary Table'!F19</f>
         <v>3</v>
       </c>
-      <c r="G34" s="104">
+      <c r="G34" s="99">
         <f>'Threat Summary Table'!G19</f>
         <v>5</v>
       </c>
-      <c r="H34" s="105">
+      <c r="H34" s="134">
         <f>'Threat Summary Table'!H19</f>
         <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="133" t="str">
+        <f>'Threat Summary Table'!B20</f>
+        <v>014</v>
+      </c>
+      <c r="D35" s="96" t="str">
+        <f>'Threat Summary Table'!C20</f>
+        <v>Spoofing</v>
+      </c>
+      <c r="E35" s="96" t="s">
+        <v>310</v>
+      </c>
+      <c r="F35" s="99">
+        <f>'Threat Summary Table'!F20</f>
+        <v>4.5</v>
+      </c>
+      <c r="G35" s="99">
+        <f>'Threat Summary Table'!G20</f>
+        <v>9</v>
+      </c>
+      <c r="H35" s="134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="133" t="str">
+        <f>'Threat Summary Table'!B21</f>
+        <v>015</v>
+      </c>
+      <c r="D36" s="96" t="str">
+        <f>'Threat Summary Table'!C21</f>
+        <v>Repudiation</v>
+      </c>
+      <c r="E36" s="96" t="s">
+        <v>311</v>
+      </c>
+      <c r="F36" s="99">
+        <f>'Threat Summary Table'!F21</f>
+        <v>5.75</v>
+      </c>
+      <c r="G36" s="99">
+        <f>'Threat Summary Table'!G21</f>
+        <v>3.5</v>
+      </c>
+      <c r="H36" s="134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" s="51" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="133" t="str">
+        <f>'Threat Summary Table'!B22</f>
+        <v>016</v>
+      </c>
+      <c r="D37" s="96" t="str">
+        <f>'Threat Summary Table'!C22</f>
+        <v>Repudiation</v>
+      </c>
+      <c r="E37" s="96" t="s">
+        <v>312</v>
+      </c>
+      <c r="F37" s="99">
+        <f>'Threat Summary Table'!F22</f>
+        <v>3.5</v>
+      </c>
+      <c r="G37" s="99">
+        <f>'Threat Summary Table'!G22</f>
+        <v>9</v>
+      </c>
+      <c r="H37" s="134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C38" s="133" t="str">
+        <f>'Threat Summary Table'!B23</f>
+        <v>017</v>
+      </c>
+      <c r="D38" s="96" t="str">
+        <f>'Threat Summary Table'!C23</f>
+        <v>Repudiation</v>
+      </c>
+      <c r="E38" s="96" t="s">
+        <v>313</v>
+      </c>
+      <c r="F38" s="99">
+        <f>'Threat Summary Table'!F23</f>
+        <v>3</v>
+      </c>
+      <c r="G38" s="99">
+        <f>'Threat Summary Table'!G23</f>
+        <v>7.25</v>
+      </c>
+      <c r="H38" s="134">
+        <f>'Threat Summary Table'!H23</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" s="51" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C39" s="133" t="str">
+        <f>'Threat Summary Table'!B24</f>
+        <v>018</v>
+      </c>
+      <c r="D39" s="96" t="str">
+        <f>'Threat Summary Table'!C24</f>
+        <v>Information Disclosure</v>
+      </c>
+      <c r="E39" s="96" t="s">
+        <v>314</v>
+      </c>
+      <c r="F39" s="99">
+        <f>'Threat Summary Table'!F24</f>
+        <v>5.125</v>
+      </c>
+      <c r="G39" s="99">
+        <f>'Threat Summary Table'!G24</f>
+        <v>4</v>
+      </c>
+      <c r="H39" s="134">
+        <f>'Threat Summary Table'!H24</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C40" s="133" t="str">
+        <f>'Threat Summary Table'!B25</f>
+        <v>019</v>
+      </c>
+      <c r="D40" s="96" t="str">
+        <f>'Threat Summary Table'!C25</f>
+        <v>Elevation of Privilege</v>
+      </c>
+      <c r="E40" s="96" t="s">
+        <v>315</v>
+      </c>
+      <c r="F40" s="99">
+        <f>'Threat Summary Table'!F25</f>
+        <v>3.5</v>
+      </c>
+      <c r="G40" s="99">
+        <f>'Threat Summary Table'!G25</f>
+        <v>6.5</v>
+      </c>
+      <c r="H40" s="134">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +8813,7 @@
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="C6:C10"/>
   </mergeCells>
-  <conditionalFormatting sqref="H22:H34">
+  <conditionalFormatting sqref="H22:H40">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
